--- a/src/Components/Price/ПРАЙС-ЛИСТ от 01.04.2025.xlsx
+++ b/src/Components/Price/ПРАЙС-ЛИСТ от 01.04.2025.xlsx
@@ -16,9 +16,6 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="зкшсыф" localSheetId="0">Лист1!$C$7:$H$282</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$B$1:$H$435</definedName>
@@ -4552,27 +4549,189 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="46" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4594,170 +4753,8 @@
     <xf numFmtId="4" fontId="25" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4856,29 +4853,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="B3">
-            <v>72.78</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5174,7 +5148,7 @@
   <dimension ref="A1:I426"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A160" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I172" sqref="I172"/>
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5189,40 +5163,40 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E1" s="113"/>
       <c r="F1" s="113"/>
-      <c r="G1" s="266" t="s">
+      <c r="G1" s="203" t="s">
         <v>431</v>
       </c>
-      <c r="H1" s="266"/>
+      <c r="H1" s="203"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="113"/>
       <c r="F2" s="113"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E3" s="113"/>
       <c r="F3" s="113"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
     </row>
     <row r="4" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="113"/>
       <c r="F4" s="113"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" s="113"/>
       <c r="F5" s="113"/>
-      <c r="G5" s="266"/>
-      <c r="H5" s="266"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E6" s="113"/>
       <c r="F6" s="113"/>
-      <c r="G6" s="266"/>
-      <c r="H6" s="266"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
     </row>
     <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="114"/>
@@ -5324,10 +5298,10 @@
       <c r="F14" s="187" t="s">
         <v>387</v>
       </c>
-      <c r="G14" s="206" t="s">
+      <c r="G14" s="231" t="s">
         <v>388</v>
       </c>
-      <c r="H14" s="206"/>
+      <c r="H14" s="231"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
@@ -5346,10 +5320,10 @@
       <c r="F15" s="188">
         <v>5</v>
       </c>
-      <c r="G15" s="219">
+      <c r="G15" s="258">
         <v>6</v>
       </c>
-      <c r="H15" s="219"/>
+      <c r="H15" s="258"/>
     </row>
     <row r="16" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30"/>
@@ -5369,11 +5343,11 @@
       <c r="F16" s="49">
         <v>0.45</v>
       </c>
-      <c r="G16" s="205">
+      <c r="G16" s="206">
         <f>E16*F16</f>
         <v>186.6807</v>
       </c>
-      <c r="H16" s="205"/>
+      <c r="H16" s="206"/>
     </row>
     <row r="17" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
@@ -5393,11 +5367,11 @@
       <c r="F17" s="49">
         <v>0.45</v>
       </c>
-      <c r="G17" s="205">
+      <c r="G17" s="206">
         <f t="shared" ref="G17:G64" si="0">E17*F17</f>
         <v>131.00400000000002</v>
       </c>
-      <c r="H17" s="205"/>
+      <c r="H17" s="206"/>
     </row>
     <row r="18" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
@@ -5417,11 +5391,11 @@
       <c r="F18" s="49">
         <v>0.45</v>
       </c>
-      <c r="G18" s="205">
+      <c r="G18" s="206">
         <f t="shared" si="0"/>
         <v>317.68470000000002</v>
       </c>
-      <c r="H18" s="205"/>
+      <c r="H18" s="206"/>
     </row>
     <row r="19" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
@@ -5441,11 +5415,11 @@
       <c r="F19" s="49">
         <v>0.45</v>
       </c>
-      <c r="G19" s="205">
+      <c r="G19" s="206">
         <f t="shared" si="0"/>
         <v>235.80720000000005</v>
       </c>
-      <c r="H19" s="205"/>
+      <c r="H19" s="206"/>
     </row>
     <row r="20" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -5465,11 +5439,11 @@
       <c r="F20" s="49">
         <v>0.45</v>
       </c>
-      <c r="G20" s="205">
+      <c r="G20" s="206">
         <f t="shared" si="0"/>
         <v>596.06820000000005</v>
       </c>
-      <c r="H20" s="205"/>
+      <c r="H20" s="206"/>
     </row>
     <row r="21" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
@@ -5489,11 +5463,11 @@
       <c r="F21" s="49">
         <v>0.45</v>
       </c>
-      <c r="G21" s="205">
+      <c r="G21" s="206">
         <f t="shared" si="0"/>
         <v>661.5702</v>
       </c>
-      <c r="H21" s="205"/>
+      <c r="H21" s="206"/>
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
@@ -5513,11 +5487,11 @@
       <c r="F22" s="49">
         <v>0.45</v>
       </c>
-      <c r="G22" s="205">
+      <c r="G22" s="206">
         <f t="shared" si="0"/>
         <v>641.91960000000006</v>
       </c>
-      <c r="H22" s="205"/>
+      <c r="H22" s="206"/>
     </row>
     <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
@@ -5537,11 +5511,11 @@
       <c r="F23" s="49">
         <v>0.45</v>
       </c>
-      <c r="G23" s="205">
+      <c r="G23" s="206">
         <f t="shared" si="0"/>
         <v>448.68870000000004</v>
       </c>
-      <c r="H23" s="205"/>
+      <c r="H23" s="206"/>
     </row>
     <row r="24" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
@@ -5561,11 +5535,11 @@
       <c r="F24" s="49">
         <v>0.45</v>
       </c>
-      <c r="G24" s="205">
+      <c r="G24" s="206">
         <f t="shared" si="0"/>
         <v>232.53209999999999</v>
       </c>
-      <c r="H24" s="205"/>
+      <c r="H24" s="206"/>
     </row>
     <row r="25" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
@@ -5585,11 +5559,11 @@
       <c r="F25" s="49">
         <v>0.45</v>
       </c>
-      <c r="G25" s="205">
+      <c r="G25" s="206">
         <f t="shared" si="0"/>
         <v>163.755</v>
       </c>
-      <c r="H25" s="205"/>
+      <c r="H25" s="206"/>
     </row>
     <row r="26" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
@@ -5609,11 +5583,11 @@
       <c r="F26" s="49">
         <v>0.45</v>
       </c>
-      <c r="G26" s="205">
+      <c r="G26" s="206">
         <f t="shared" si="0"/>
         <v>1542.5721000000001</v>
       </c>
-      <c r="H26" s="205"/>
+      <c r="H26" s="206"/>
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
@@ -5633,11 +5607,11 @@
       <c r="F27" s="49">
         <v>0.45</v>
       </c>
-      <c r="G27" s="205">
+      <c r="G27" s="206">
         <f t="shared" si="0"/>
         <v>2230.3430999999996</v>
       </c>
-      <c r="H27" s="205"/>
+      <c r="H27" s="206"/>
     </row>
     <row r="28" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
@@ -5657,11 +5631,11 @@
       <c r="F28" s="49">
         <v>0.45</v>
       </c>
-      <c r="G28" s="205">
+      <c r="G28" s="206">
         <f t="shared" si="0"/>
         <v>533.84130000000005</v>
       </c>
-      <c r="H28" s="205"/>
+      <c r="H28" s="206"/>
     </row>
     <row r="29" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
@@ -5681,11 +5655,11 @@
       <c r="F29" s="49">
         <v>0.45</v>
       </c>
-      <c r="G29" s="205">
+      <c r="G29" s="206">
         <f>E29*F29</f>
         <v>596.06820000000005</v>
       </c>
-      <c r="H29" s="205"/>
+      <c r="H29" s="206"/>
     </row>
     <row r="30" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
@@ -5705,11 +5679,11 @@
       <c r="F30" s="49">
         <v>0.45</v>
       </c>
-      <c r="G30" s="205">
+      <c r="G30" s="206">
         <f t="shared" si="0"/>
         <v>442.13850000000002</v>
       </c>
-      <c r="H30" s="205"/>
+      <c r="H30" s="206"/>
     </row>
     <row r="31" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
@@ -5729,11 +5703,11 @@
       <c r="F31" s="49">
         <v>0.45</v>
       </c>
-      <c r="G31" s="205">
+      <c r="G31" s="206">
         <f>E31*F31</f>
         <v>281.65860000000004</v>
       </c>
-      <c r="H31" s="205"/>
+      <c r="H31" s="206"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
@@ -5753,11 +5727,11 @@
       <c r="F32" s="49">
         <v>0.45</v>
       </c>
-      <c r="G32" s="205">
+      <c r="G32" s="206">
         <f>E32*F32</f>
         <v>160.47990000000001</v>
       </c>
-      <c r="H32" s="205"/>
+      <c r="H32" s="206"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
@@ -5777,11 +5751,11 @@
       <c r="F33" s="49">
         <v>0.45</v>
       </c>
-      <c r="G33" s="205">
+      <c r="G33" s="206">
         <f>E33*F33</f>
         <v>252.18270000000004</v>
       </c>
-      <c r="H33" s="205"/>
+      <c r="H33" s="206"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
@@ -5801,11 +5775,11 @@
       <c r="F34" s="49">
         <v>0.45</v>
       </c>
-      <c r="G34" s="205">
+      <c r="G34" s="206">
         <f>E34*F34</f>
         <v>2286.0198</v>
       </c>
-      <c r="H34" s="205"/>
+      <c r="H34" s="206"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
@@ -6864,25 +6838,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="30"/>
-      <c r="B77" s="208" t="s">
+      <c r="B77" s="262" t="s">
         <v>462</v>
       </c>
-      <c r="C77" s="209"/>
-      <c r="D77" s="209"/>
-      <c r="E77" s="209"/>
-      <c r="F77" s="209"/>
-      <c r="G77" s="209"/>
-      <c r="H77" s="210"/>
+      <c r="C77" s="263"/>
+      <c r="D77" s="263"/>
+      <c r="E77" s="263"/>
+      <c r="F77" s="263"/>
+      <c r="G77" s="263"/>
+      <c r="H77" s="264"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="30"/>
-      <c r="B78" s="211"/>
-      <c r="C78" s="212"/>
-      <c r="D78" s="212"/>
-      <c r="E78" s="212"/>
-      <c r="F78" s="212"/>
-      <c r="G78" s="212"/>
-      <c r="H78" s="213"/>
+      <c r="B78" s="265"/>
+      <c r="C78" s="266"/>
+      <c r="D78" s="266"/>
+      <c r="E78" s="266"/>
+      <c r="F78" s="266"/>
+      <c r="G78" s="266"/>
+      <c r="H78" s="267"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="30"/>
@@ -6934,10 +6908,10 @@
       <c r="F82" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G82" s="206" t="s">
+      <c r="G82" s="231" t="s">
         <v>388</v>
       </c>
-      <c r="H82" s="206"/>
+      <c r="H82" s="231"/>
     </row>
     <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="38"/>
@@ -6956,10 +6930,10 @@
       <c r="F83" s="189">
         <v>5</v>
       </c>
-      <c r="G83" s="207">
+      <c r="G83" s="261">
         <v>6</v>
       </c>
-      <c r="H83" s="207"/>
+      <c r="H83" s="261"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="30"/>
@@ -6979,11 +6953,11 @@
       <c r="F84" s="49">
         <v>0.45</v>
       </c>
-      <c r="G84" s="205">
+      <c r="G84" s="206">
         <f t="shared" ref="G84:G106" si="3">E84*F84</f>
         <v>1490.1705000000002</v>
       </c>
-      <c r="H84" s="205"/>
+      <c r="H84" s="206"/>
     </row>
     <row r="85" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="30"/>
@@ -7003,11 +6977,11 @@
       <c r="F85" s="49">
         <v>0.45</v>
       </c>
-      <c r="G85" s="205">
+      <c r="G85" s="206">
         <f t="shared" si="3"/>
         <v>1310.04</v>
       </c>
-      <c r="H85" s="205"/>
+      <c r="H85" s="206"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="30"/>
@@ -7027,11 +7001,11 @@
       <c r="F86" s="49">
         <v>0.45</v>
       </c>
-      <c r="G86" s="205">
+      <c r="G86" s="206">
         <f t="shared" si="3"/>
         <v>62.226899999999993</v>
       </c>
-      <c r="H86" s="205"/>
+      <c r="H86" s="206"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="30"/>
@@ -7051,11 +7025,11 @@
       <c r="F87" s="49">
         <v>0.45</v>
       </c>
-      <c r="G87" s="205">
+      <c r="G87" s="206">
         <f t="shared" si="3"/>
         <v>94.977899999999991</v>
       </c>
-      <c r="H87" s="205"/>
+      <c r="H87" s="206"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="30"/>
@@ -7075,11 +7049,11 @@
       <c r="F88" s="49">
         <v>0.45</v>
       </c>
-      <c r="G88" s="205">
+      <c r="G88" s="206">
         <f t="shared" si="3"/>
         <v>111.35340000000001</v>
       </c>
-      <c r="H88" s="205"/>
+      <c r="H88" s="206"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="30"/>
@@ -7099,11 +7073,11 @@
       <c r="F89" s="49">
         <v>0.45</v>
       </c>
-      <c r="G89" s="205">
+      <c r="G89" s="206">
         <f t="shared" si="3"/>
         <v>530.56620000000009</v>
       </c>
-      <c r="H89" s="205"/>
+      <c r="H89" s="206"/>
     </row>
     <row r="90" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="30"/>
@@ -7123,11 +7097,11 @@
       <c r="F90" s="49">
         <v>0.45</v>
       </c>
-      <c r="G90" s="205">
+      <c r="G90" s="206">
         <f t="shared" si="3"/>
         <v>232.53209999999999</v>
       </c>
-      <c r="H90" s="205"/>
+      <c r="H90" s="206"/>
     </row>
     <row r="91" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="30"/>
@@ -7147,11 +7121,11 @@
       <c r="F91" s="49">
         <v>0.45</v>
       </c>
-      <c r="G91" s="205">
+      <c r="G91" s="206">
         <f t="shared" si="3"/>
         <v>448.68870000000004</v>
       </c>
-      <c r="H91" s="205"/>
+      <c r="H91" s="206"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="30"/>
@@ -7554,10 +7528,10 @@
       <c r="F110" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G110" s="226" t="s">
+      <c r="G110" s="229" t="s">
         <v>388</v>
       </c>
-      <c r="H110" s="226"/>
+      <c r="H110" s="229"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="47"/>
@@ -7576,10 +7550,10 @@
       <c r="F111" s="48">
         <v>5</v>
       </c>
-      <c r="G111" s="227">
+      <c r="G111" s="252">
         <v>6</v>
       </c>
-      <c r="H111" s="227"/>
+      <c r="H111" s="252"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="30"/>
@@ -7599,11 +7573,11 @@
       <c r="F112" s="49">
         <v>0.45</v>
       </c>
-      <c r="G112" s="231">
+      <c r="G112" s="219">
         <f t="shared" ref="G112:G123" si="6">E112*F112</f>
         <v>196.506</v>
       </c>
-      <c r="H112" s="231"/>
+      <c r="H112" s="219"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="30"/>
@@ -7623,11 +7597,11 @@
       <c r="F113" s="49">
         <v>0.45</v>
       </c>
-      <c r="G113" s="231">
+      <c r="G113" s="219">
         <f t="shared" si="6"/>
         <v>62.226899999999993</v>
       </c>
-      <c r="H113" s="231"/>
+      <c r="H113" s="219"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="30"/>
@@ -7647,11 +7621,11 @@
       <c r="F114" s="49">
         <v>0.45</v>
       </c>
-      <c r="G114" s="231">
+      <c r="G114" s="219">
         <f t="shared" si="6"/>
         <v>262.00800000000004</v>
       </c>
-      <c r="H114" s="231"/>
+      <c r="H114" s="219"/>
     </row>
     <row r="115" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="30"/>
@@ -7671,11 +7645,11 @@
       <c r="F115" s="49">
         <v>0.45</v>
       </c>
-      <c r="G115" s="231">
+      <c r="G115" s="219">
         <f t="shared" si="6"/>
         <v>4002.1722000000004</v>
       </c>
-      <c r="H115" s="231"/>
+      <c r="H115" s="219"/>
     </row>
     <row r="116" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="30"/>
@@ -7695,11 +7669,11 @@
       <c r="F116" s="49">
         <v>0.45</v>
       </c>
-      <c r="G116" s="231">
+      <c r="G116" s="219">
         <f t="shared" si="6"/>
         <v>4814.3969999999999</v>
       </c>
-      <c r="H116" s="231"/>
+      <c r="H116" s="219"/>
     </row>
     <row r="117" spans="1:8" ht="53.25" x14ac:dyDescent="0.2">
       <c r="A117" s="30"/>
@@ -7719,11 +7693,11 @@
       <c r="F117" s="49">
         <v>0.85</v>
       </c>
-      <c r="G117" s="231">
+      <c r="G117" s="219">
         <f t="shared" si="6"/>
         <v>7559.6585999999998</v>
       </c>
-      <c r="H117" s="231"/>
+      <c r="H117" s="219"/>
     </row>
     <row r="118" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A118" s="30"/>
@@ -7743,11 +7717,11 @@
       <c r="F118" s="49">
         <v>0.85</v>
       </c>
-      <c r="G118" s="231">
+      <c r="G118" s="219">
         <f t="shared" si="6"/>
         <v>9093.860999999999</v>
       </c>
-      <c r="H118" s="231"/>
+      <c r="H118" s="219"/>
     </row>
     <row r="119" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="30"/>
@@ -7767,11 +7741,11 @@
       <c r="F119" s="49">
         <v>0.45</v>
       </c>
-      <c r="G119" s="231">
+      <c r="G119" s="219">
         <f t="shared" si="6"/>
         <v>5479.2423000000008</v>
       </c>
-      <c r="H119" s="231"/>
+      <c r="H119" s="219"/>
     </row>
     <row r="120" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A120" s="30"/>
@@ -7791,11 +7765,11 @@
       <c r="F120" s="49">
         <v>0.45</v>
       </c>
-      <c r="G120" s="231">
+      <c r="G120" s="219">
         <f t="shared" si="6"/>
         <v>6828.5835000000006</v>
       </c>
-      <c r="H120" s="231"/>
+      <c r="H120" s="219"/>
     </row>
     <row r="121" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A121" s="30"/>
@@ -7815,11 +7789,11 @@
       <c r="F121" s="49">
         <v>0.85</v>
       </c>
-      <c r="G121" s="231">
+      <c r="G121" s="219">
         <f t="shared" si="6"/>
         <v>10349.679900000001</v>
       </c>
-      <c r="H121" s="231"/>
+      <c r="H121" s="219"/>
     </row>
     <row r="122" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A122" s="30"/>
@@ -7839,11 +7813,11 @@
       <c r="F122" s="49">
         <v>0.85</v>
       </c>
-      <c r="G122" s="231">
+      <c r="G122" s="219">
         <f t="shared" si="6"/>
         <v>12898.435500000001</v>
       </c>
-      <c r="H122" s="231"/>
+      <c r="H122" s="219"/>
     </row>
     <row r="123" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="30"/>
@@ -7863,11 +7837,11 @@
       <c r="F123" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G123" s="231">
+      <c r="G123" s="219">
         <f t="shared" si="6"/>
         <v>3706.6854000000003</v>
       </c>
-      <c r="H123" s="231"/>
+      <c r="H123" s="219"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="30"/>
@@ -7916,11 +7890,11 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
       </c>
-      <c r="F127" s="226" t="s">
+      <c r="F127" s="229" t="s">
         <v>468</v>
       </c>
-      <c r="G127" s="226"/>
-      <c r="H127" s="226"/>
+      <c r="G127" s="229"/>
+      <c r="H127" s="229"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="30"/>
@@ -7936,11 +7910,11 @@
       <c r="E128" s="102">
         <v>4</v>
       </c>
-      <c r="F128" s="263">
+      <c r="F128" s="224">
         <v>5</v>
       </c>
-      <c r="G128" s="264"/>
-      <c r="H128" s="265"/>
+      <c r="G128" s="225"/>
+      <c r="H128" s="226"/>
     </row>
     <row r="129" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="30"/>
@@ -7957,12 +7931,12 @@
         <f>D129*Лист2!$B$3</f>
         <v>8893.7160000000003</v>
       </c>
-      <c r="F129" s="231">
+      <c r="F129" s="219">
         <f>E129*4</f>
         <v>35574.864000000001</v>
       </c>
-      <c r="G129" s="231"/>
-      <c r="H129" s="231"/>
+      <c r="G129" s="219"/>
+      <c r="H129" s="219"/>
     </row>
     <row r="130" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="30"/>
@@ -7979,12 +7953,12 @@
         <f>D130*Лист2!$B$3</f>
         <v>10698.66</v>
       </c>
-      <c r="F130" s="231">
+      <c r="F130" s="219">
         <f>E130*4</f>
         <v>42794.64</v>
       </c>
-      <c r="G130" s="231"/>
-      <c r="H130" s="231"/>
+      <c r="G130" s="219"/>
+      <c r="H130" s="219"/>
     </row>
     <row r="131" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A131" s="30"/>
@@ -8001,12 +7975,12 @@
         <f>D131*Лист2!$B$3</f>
         <v>12176.094000000001</v>
       </c>
-      <c r="F131" s="231">
+      <c r="F131" s="219">
         <f>E131*3</f>
         <v>36528.282000000007</v>
       </c>
-      <c r="G131" s="231"/>
-      <c r="H131" s="231"/>
+      <c r="G131" s="219"/>
+      <c r="H131" s="219"/>
     </row>
     <row r="132" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A132" s="30"/>
@@ -8023,12 +7997,12 @@
         <f>D132*Лист2!$B$3</f>
         <v>15174.630000000001</v>
       </c>
-      <c r="F132" s="231">
+      <c r="F132" s="219">
         <f>E132*3</f>
         <v>45523.89</v>
       </c>
-      <c r="G132" s="231"/>
-      <c r="H132" s="231"/>
+      <c r="G132" s="219"/>
+      <c r="H132" s="219"/>
     </row>
     <row r="133" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A133" s="30"/>
@@ -8045,12 +8019,12 @@
         <f>D133*Лист2!$B$3</f>
         <v>12176.094000000001</v>
       </c>
-      <c r="F133" s="231">
+      <c r="F133" s="219">
         <f>E133*3.5</f>
         <v>42616.329000000005</v>
       </c>
-      <c r="G133" s="231"/>
-      <c r="H133" s="231"/>
+      <c r="G133" s="219"/>
+      <c r="H133" s="219"/>
     </row>
     <row r="134" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A134" s="30"/>
@@ -8067,12 +8041,12 @@
         <f>D134*Лист2!$B$3</f>
         <v>15174.630000000001</v>
       </c>
-      <c r="F134" s="231">
+      <c r="F134" s="219">
         <f>E134*3.5</f>
         <v>53111.205000000002</v>
       </c>
-      <c r="G134" s="231"/>
-      <c r="H134" s="231"/>
+      <c r="G134" s="219"/>
+      <c r="H134" s="219"/>
     </row>
     <row r="135" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A135" s="30"/>
@@ -8089,12 +8063,12 @@
         <f>D135*Лист2!$B$3</f>
         <v>12176.094000000001</v>
       </c>
-      <c r="F135" s="231">
+      <c r="F135" s="219">
         <f>E135*1.2</f>
         <v>14611.312800000002</v>
       </c>
-      <c r="G135" s="231"/>
-      <c r="H135" s="231"/>
+      <c r="G135" s="219"/>
+      <c r="H135" s="219"/>
     </row>
     <row r="136" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A136" s="30"/>
@@ -8111,12 +8085,12 @@
         <f>D136*Лист2!$B$3</f>
         <v>15174.630000000001</v>
       </c>
-      <c r="F136" s="231">
+      <c r="F136" s="219">
         <f>E136*1.2</f>
         <v>18209.556</v>
       </c>
-      <c r="G136" s="231"/>
-      <c r="H136" s="231"/>
+      <c r="G136" s="219"/>
+      <c r="H136" s="219"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="30"/>
@@ -8133,12 +8107,12 @@
         <f>D137*Лист2!$B$3</f>
         <v>10698.66</v>
       </c>
-      <c r="F137" s="231">
+      <c r="F137" s="219">
         <f>E137*3.3</f>
         <v>35305.577999999994</v>
       </c>
-      <c r="G137" s="231"/>
-      <c r="H137" s="231"/>
+      <c r="G137" s="219"/>
+      <c r="H137" s="219"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="30"/>
@@ -8155,12 +8129,12 @@
         <f>D138*Лист2!$B$3</f>
         <v>10698.66</v>
       </c>
-      <c r="F138" s="231">
+      <c r="F138" s="219">
         <f>E138*3.3</f>
         <v>35305.577999999994</v>
       </c>
-      <c r="G138" s="231"/>
-      <c r="H138" s="231"/>
+      <c r="G138" s="219"/>
+      <c r="H138" s="219"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="30"/>
@@ -8177,12 +8151,12 @@
         <f>D139*Лист2!$B$3</f>
         <v>10698.66</v>
       </c>
-      <c r="F139" s="231">
+      <c r="F139" s="219">
         <f>E139*5</f>
         <v>53493.3</v>
       </c>
-      <c r="G139" s="231"/>
-      <c r="H139" s="231"/>
+      <c r="G139" s="219"/>
+      <c r="H139" s="219"/>
     </row>
     <row r="140" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" s="30"/>
@@ -8199,12 +8173,12 @@
         <f>D140*Лист2!$B$3</f>
         <v>6739.4279999999999</v>
       </c>
-      <c r="F140" s="231">
+      <c r="F140" s="219">
         <f>E140*2</f>
         <v>13478.856</v>
       </c>
-      <c r="G140" s="231"/>
-      <c r="H140" s="231"/>
+      <c r="G140" s="219"/>
+      <c r="H140" s="219"/>
     </row>
     <row r="141" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="30"/>
@@ -8253,11 +8227,11 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
       </c>
-      <c r="F144" s="226" t="s">
+      <c r="F144" s="229" t="s">
         <v>425</v>
       </c>
-      <c r="G144" s="226"/>
-      <c r="H144" s="226"/>
+      <c r="G144" s="229"/>
+      <c r="H144" s="229"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="30"/>
@@ -8273,11 +8247,11 @@
       <c r="E145" s="102">
         <v>4</v>
       </c>
-      <c r="F145" s="263">
+      <c r="F145" s="224">
         <v>5</v>
       </c>
-      <c r="G145" s="264"/>
-      <c r="H145" s="265"/>
+      <c r="G145" s="225"/>
+      <c r="H145" s="226"/>
     </row>
     <row r="146" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A146" s="30"/>
@@ -8294,12 +8268,12 @@
         <f>D146*Лист2!$B$3</f>
         <v>53959.091999999997</v>
       </c>
-      <c r="F146" s="231">
+      <c r="F146" s="219">
         <f>E146*1</f>
         <v>53959.091999999997</v>
       </c>
-      <c r="G146" s="231"/>
-      <c r="H146" s="231"/>
+      <c r="G146" s="219"/>
+      <c r="H146" s="219"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="30"/>
@@ -8323,12 +8297,12 @@
     </row>
     <row r="149" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="43"/>
-      <c r="B149" s="250"/>
-      <c r="C149" s="250"/>
-      <c r="D149" s="250"/>
-      <c r="E149" s="250"/>
-      <c r="F149" s="250"/>
-      <c r="G149" s="250"/>
+      <c r="B149" s="227"/>
+      <c r="C149" s="227"/>
+      <c r="D149" s="227"/>
+      <c r="E149" s="227"/>
+      <c r="F149" s="227"/>
+      <c r="G149" s="227"/>
       <c r="H149" s="118"/>
     </row>
     <row r="150" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -8559,7 +8533,7 @@
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="28"/>
       <c r="B161" s="156" t="s">
         <v>451</v>
@@ -8571,7 +8545,7 @@
       <c r="G161" s="157"/>
       <c r="H161" s="157"/>
     </row>
-    <row r="162" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A162" s="123"/>
       <c r="B162" s="101" t="s">
         <v>1</v>
@@ -8589,12 +8563,12 @@
       <c r="F162" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G162" s="206" t="s">
+      <c r="G162" s="231" t="s">
         <v>388</v>
       </c>
-      <c r="H162" s="206"/>
-    </row>
-    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="H162" s="231"/>
+    </row>
+    <row r="163" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="53"/>
       <c r="B163" s="54">
         <v>1</v>
@@ -8611,12 +8585,12 @@
       <c r="F163" s="109">
         <v>5</v>
       </c>
-      <c r="G163" s="244">
+      <c r="G163" s="268">
         <v>6</v>
       </c>
-      <c r="H163" s="244"/>
-    </row>
-    <row r="164" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H163" s="268"/>
+    </row>
+    <row r="164" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A164" s="53"/>
       <c r="B164" s="51" t="s">
         <v>398</v>
@@ -8634,13 +8608,13 @@
       <c r="F164" s="49">
         <v>0.45</v>
       </c>
-      <c r="G164" s="205">
+      <c r="G164" s="206">
         <f t="shared" ref="G164:G170" si="9">E164*F164</f>
         <v>24281.591399999998</v>
       </c>
-      <c r="H164" s="205"/>
-    </row>
-    <row r="165" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H164" s="206"/>
+    </row>
+    <row r="165" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A165" s="53"/>
       <c r="B165" s="51" t="s">
         <v>399</v>
@@ -8658,13 +8632,13 @@
       <c r="F165" s="49">
         <v>0.45</v>
       </c>
-      <c r="G165" s="205">
+      <c r="G165" s="206">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H165" s="205"/>
-    </row>
-    <row r="166" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H165" s="206"/>
+    </row>
+    <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="56"/>
       <c r="B166" s="40" t="s">
         <v>351</v>
@@ -8682,13 +8656,13 @@
       <c r="F166" s="49">
         <v>0.45</v>
       </c>
-      <c r="G166" s="205">
+      <c r="G166" s="206">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H166" s="205"/>
-    </row>
-    <row r="167" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H166" s="206"/>
+    </row>
+    <row r="167" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="56"/>
       <c r="B167" s="40" t="s">
         <v>293</v>
@@ -8706,13 +8680,13 @@
       <c r="F167" s="49">
         <v>0.45</v>
       </c>
-      <c r="G167" s="205">
+      <c r="G167" s="206">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H167" s="205"/>
-    </row>
-    <row r="168" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H167" s="206"/>
+    </row>
+    <row r="168" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="56"/>
       <c r="B168" s="40" t="s">
         <v>400</v>
@@ -8730,13 +8704,13 @@
       <c r="F168" s="49">
         <v>0.45</v>
       </c>
-      <c r="G168" s="205">
+      <c r="G168" s="206">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H168" s="205"/>
-    </row>
-    <row r="169" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H168" s="206"/>
+    </row>
+    <row r="169" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="56"/>
       <c r="B169" s="57" t="s">
         <v>372</v>
@@ -8754,13 +8728,13 @@
       <c r="F169" s="110">
         <v>0.45</v>
       </c>
-      <c r="G169" s="252">
+      <c r="G169" s="230">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H169" s="252"/>
-    </row>
-    <row r="170" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H169" s="230"/>
+    </row>
+    <row r="170" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="56"/>
       <c r="B170" s="60" t="s">
         <v>287</v>
@@ -8778,13 +8752,13 @@
       <c r="F170" s="197">
         <v>0.45</v>
       </c>
-      <c r="G170" s="205">
+      <c r="G170" s="206">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H170" s="205"/>
-    </row>
-    <row r="171" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="H170" s="206"/>
+    </row>
+    <row r="171" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A171" s="56"/>
       <c r="B171" s="198" t="s">
         <v>474</v>
@@ -8795,24 +8769,20 @@
       <c r="D171" s="199">
         <v>247.13</v>
       </c>
-      <c r="E171" s="200">
-        <f>D171*[1]Лист2!$B$3</f>
+      <c r="E171" s="202">
+        <f>D171*Лист2!$B$3</f>
         <v>17986.1214</v>
       </c>
       <c r="F171" s="197">
         <v>0.25</v>
       </c>
-      <c r="G171" s="203">
+      <c r="G171" s="259">
         <f>E171*F171</f>
         <v>4496.53035</v>
       </c>
-      <c r="H171" s="204"/>
-      <c r="I171" s="112">
-        <f>G170+G171+G173</f>
-        <v>37771.18245</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="H171" s="260"/>
+    </row>
+    <row r="172" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A172" s="56"/>
       <c r="B172" s="198" t="s">
         <v>475</v>
@@ -8823,80 +8793,80 @@
       <c r="D172" s="199">
         <v>137.30000000000001</v>
       </c>
-      <c r="E172" s="200">
-        <f>D172*[1]Лист2!$B$3</f>
+      <c r="E172" s="202">
+        <f>D172*Лист2!$B$3</f>
         <v>9992.6940000000013</v>
       </c>
       <c r="F172" s="197">
         <v>0.25</v>
       </c>
-      <c r="G172" s="203">
+      <c r="G172" s="259">
         <f t="shared" ref="G172:G173" si="10">E172*F172</f>
         <v>2498.1735000000003</v>
       </c>
-      <c r="H172" s="204"/>
-    </row>
-    <row r="173" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="H172" s="260"/>
+    </row>
+    <row r="173" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A173" s="56"/>
       <c r="B173" s="198" t="s">
         <v>470</v>
       </c>
-      <c r="C173" s="201" t="s">
+      <c r="C173" s="200" t="s">
         <v>471</v>
       </c>
-      <c r="D173" s="202">
+      <c r="D173" s="201">
         <v>494.26</v>
       </c>
-      <c r="E173" s="200">
-        <f>D173*[1]Лист2!$B$3</f>
+      <c r="E173" s="202">
+        <f>D173*Лист2!$B$3</f>
         <v>35972.2428</v>
       </c>
       <c r="F173" s="197">
         <v>0.25</v>
       </c>
-      <c r="G173" s="203">
+      <c r="G173" s="259">
         <f t="shared" si="10"/>
         <v>8993.0607</v>
       </c>
-      <c r="H173" s="204"/>
-    </row>
-    <row r="174" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="H173" s="260"/>
+    </row>
+    <row r="174" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A174" s="56"/>
       <c r="B174" s="198" t="s">
         <v>472</v>
       </c>
-      <c r="C174" s="201" t="s">
+      <c r="C174" s="200" t="s">
         <v>473</v>
       </c>
-      <c r="D174" s="202">
+      <c r="D174" s="201">
         <v>274.60000000000002</v>
       </c>
-      <c r="E174" s="200">
-        <f>D174*[1]Лист2!$B$3</f>
+      <c r="E174" s="202">
+        <f>D174*Лист2!$B$3</f>
         <v>19985.388000000003</v>
       </c>
       <c r="F174" s="197">
         <v>0.25</v>
       </c>
-      <c r="G174" s="203">
+      <c r="G174" s="259">
         <f>E174*F174</f>
         <v>4996.3470000000007</v>
       </c>
-      <c r="H174" s="204"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H174" s="260"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="56"/>
-      <c r="B175" s="253" t="s">
+      <c r="B175" s="232" t="s">
         <v>464</v>
       </c>
-      <c r="C175" s="254"/>
-      <c r="D175" s="254"/>
-      <c r="E175" s="254"/>
-      <c r="F175" s="254"/>
-      <c r="G175" s="254"/>
-      <c r="H175" s="255"/>
-    </row>
-    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C175" s="233"/>
+      <c r="D175" s="233"/>
+      <c r="E175" s="233"/>
+      <c r="F175" s="233"/>
+      <c r="G175" s="233"/>
+      <c r="H175" s="234"/>
+    </row>
+    <row r="176" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="36"/>
       <c r="B176" s="235"/>
       <c r="C176" s="236"/>
@@ -8908,13 +8878,13 @@
     </row>
     <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="36"/>
-      <c r="B177" s="251"/>
-      <c r="C177" s="251"/>
-      <c r="D177" s="251"/>
-      <c r="E177" s="251"/>
-      <c r="F177" s="251"/>
-      <c r="G177" s="251"/>
-      <c r="H177" s="251"/>
+      <c r="B177" s="228"/>
+      <c r="C177" s="228"/>
+      <c r="D177" s="228"/>
+      <c r="E177" s="228"/>
+      <c r="F177" s="228"/>
+      <c r="G177" s="228"/>
+      <c r="H177" s="228"/>
     </row>
     <row r="178" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="36"/>
@@ -9690,8 +9660,8 @@
       <c r="D213" s="103"/>
       <c r="E213" s="103"/>
       <c r="F213" s="103"/>
-      <c r="G213" s="245"/>
-      <c r="H213" s="245"/>
+      <c r="G213" s="240"/>
+      <c r="H213" s="240"/>
     </row>
     <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A214" s="36"/>
@@ -9877,11 +9847,11 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
       </c>
-      <c r="F222" s="241" t="s">
+      <c r="F222" s="222" t="s">
         <v>426</v>
       </c>
-      <c r="G222" s="241"/>
-      <c r="H222" s="241"/>
+      <c r="G222" s="222"/>
+      <c r="H222" s="222"/>
     </row>
     <row r="223" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="36"/>
@@ -9897,11 +9867,11 @@
       <c r="E223" s="102">
         <v>4</v>
       </c>
-      <c r="F223" s="263">
+      <c r="F223" s="224">
         <v>5</v>
       </c>
-      <c r="G223" s="264"/>
-      <c r="H223" s="265"/>
+      <c r="G223" s="225"/>
+      <c r="H223" s="226"/>
     </row>
     <row r="224" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="36"/>
@@ -9918,12 +9888,12 @@
         <f>D224*Лист2!$B$3</f>
         <v>12176.094000000001</v>
       </c>
-      <c r="F224" s="223">
+      <c r="F224" s="220">
         <f>E224*3.5</f>
         <v>42616.329000000005</v>
       </c>
-      <c r="G224" s="223"/>
-      <c r="H224" s="223"/>
+      <c r="G224" s="220"/>
+      <c r="H224" s="220"/>
     </row>
     <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="36"/>
@@ -10141,14 +10111,14 @@
       <c r="B236" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="C236" s="256" t="s">
+      <c r="C236" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D236" s="256"/>
-      <c r="E236" s="256"/>
-      <c r="F236" s="256"/>
-      <c r="G236" s="256"/>
-      <c r="H236" s="256"/>
+      <c r="D236" s="221"/>
+      <c r="E236" s="221"/>
+      <c r="F236" s="221"/>
+      <c r="G236" s="221"/>
+      <c r="H236" s="221"/>
     </row>
     <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="36"/>
@@ -10200,10 +10170,10 @@
       <c r="F240" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="G240" s="241" t="s">
+      <c r="G240" s="222" t="s">
         <v>388</v>
       </c>
-      <c r="H240" s="241"/>
+      <c r="H240" s="222"/>
     </row>
     <row r="241" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="36"/>
@@ -10222,10 +10192,10 @@
       <c r="F241" s="106">
         <v>5</v>
       </c>
-      <c r="G241" s="257">
+      <c r="G241" s="223">
         <v>6</v>
       </c>
-      <c r="H241" s="257"/>
+      <c r="H241" s="223"/>
     </row>
     <row r="242" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A242" s="36"/>
@@ -10245,11 +10215,11 @@
       <c r="F242" s="50">
         <v>0.45</v>
       </c>
-      <c r="G242" s="231">
+      <c r="G242" s="219">
         <f t="shared" ref="G242:G252" si="23">E242*F242</f>
         <v>4123.3509000000004</v>
       </c>
-      <c r="H242" s="231"/>
+      <c r="H242" s="219"/>
     </row>
     <row r="243" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A243" s="36"/>
@@ -10269,11 +10239,11 @@
       <c r="F243" s="50">
         <v>0.45</v>
       </c>
-      <c r="G243" s="231">
+      <c r="G243" s="219">
         <f t="shared" si="23"/>
         <v>3419.2044000000005</v>
       </c>
-      <c r="H243" s="231"/>
+      <c r="H243" s="219"/>
     </row>
     <row r="244" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="36"/>
@@ -10293,11 +10263,11 @@
       <c r="F244" s="50">
         <v>0.45</v>
       </c>
-      <c r="G244" s="231">
+      <c r="G244" s="219">
         <f t="shared" si="23"/>
         <v>124.45379999999999</v>
       </c>
-      <c r="H244" s="231"/>
+      <c r="H244" s="219"/>
     </row>
     <row r="245" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A245" s="114"/>
@@ -10317,11 +10287,11 @@
       <c r="F245" s="50">
         <v>0.45</v>
       </c>
-      <c r="G245" s="231">
+      <c r="G245" s="219">
         <f t="shared" si="23"/>
         <v>1909.3833</v>
       </c>
-      <c r="H245" s="231"/>
+      <c r="H245" s="219"/>
     </row>
     <row r="246" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="123"/>
@@ -10341,11 +10311,11 @@
       <c r="F246" s="50">
         <v>0.45</v>
       </c>
-      <c r="G246" s="231">
+      <c r="G246" s="219">
         <f t="shared" si="23"/>
         <v>704.14650000000006</v>
       </c>
-      <c r="H246" s="231"/>
+      <c r="H246" s="219"/>
     </row>
     <row r="247" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A247" s="89"/>
@@ -10365,11 +10335,11 @@
       <c r="F247" s="50">
         <v>0.45</v>
       </c>
-      <c r="G247" s="231">
+      <c r="G247" s="219">
         <f t="shared" si="23"/>
         <v>262.00800000000004</v>
       </c>
-      <c r="H247" s="231"/>
+      <c r="H247" s="219"/>
     </row>
     <row r="248" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A248" s="43"/>
@@ -10389,11 +10359,11 @@
       <c r="F248" s="50">
         <v>0.45</v>
       </c>
-      <c r="G248" s="231">
+      <c r="G248" s="219">
         <f t="shared" si="23"/>
         <v>671.39549999999997</v>
       </c>
-      <c r="H248" s="231"/>
+      <c r="H248" s="219"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="43"/>
@@ -10413,11 +10383,11 @@
       <c r="F249" s="50">
         <v>0.45</v>
       </c>
-      <c r="G249" s="231">
+      <c r="G249" s="219">
         <f t="shared" si="23"/>
         <v>831.8753999999999</v>
       </c>
-      <c r="H249" s="231"/>
+      <c r="H249" s="219"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="43"/>
@@ -10437,11 +10407,11 @@
       <c r="F250" s="50">
         <v>0.45</v>
       </c>
-      <c r="G250" s="231">
+      <c r="G250" s="219">
         <f t="shared" si="23"/>
         <v>596.06820000000005</v>
       </c>
-      <c r="H250" s="231"/>
+      <c r="H250" s="219"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="43"/>
@@ -10461,11 +10431,11 @@
       <c r="F251" s="50">
         <v>0.45</v>
       </c>
-      <c r="G251" s="231">
+      <c r="G251" s="219">
         <f t="shared" si="23"/>
         <v>281.65860000000004</v>
       </c>
-      <c r="H251" s="231"/>
+      <c r="H251" s="219"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="43"/>
@@ -10485,23 +10455,23 @@
       <c r="F252" s="50">
         <v>0.45</v>
       </c>
-      <c r="G252" s="231">
+      <c r="G252" s="219">
         <f t="shared" si="23"/>
         <v>356.98590000000002</v>
       </c>
-      <c r="H252" s="231"/>
+      <c r="H252" s="219"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="43"/>
-      <c r="B253" s="232" t="s">
+      <c r="B253" s="247" t="s">
         <v>413</v>
       </c>
-      <c r="C253" s="233"/>
-      <c r="D253" s="233"/>
-      <c r="E253" s="233"/>
-      <c r="F253" s="233"/>
-      <c r="G253" s="233"/>
-      <c r="H253" s="234"/>
+      <c r="C253" s="248"/>
+      <c r="D253" s="248"/>
+      <c r="E253" s="248"/>
+      <c r="F253" s="248"/>
+      <c r="G253" s="248"/>
+      <c r="H253" s="249"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="43"/>
@@ -10553,16 +10523,16 @@
       <c r="C258" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="D258" s="241" t="s">
+      <c r="D258" s="222" t="s">
         <v>380</v>
       </c>
-      <c r="E258" s="241"/>
-      <c r="F258" s="241" t="str">
+      <c r="E258" s="222"/>
+      <c r="F258" s="222" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
       </c>
-      <c r="G258" s="241"/>
-      <c r="H258" s="241"/>
+      <c r="G258" s="222"/>
+      <c r="H258" s="222"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="43"/>
@@ -10572,15 +10542,15 @@
       <c r="C259" s="8">
         <v>2</v>
       </c>
-      <c r="D259" s="246">
+      <c r="D259" s="244">
         <v>3</v>
       </c>
-      <c r="E259" s="247"/>
-      <c r="F259" s="246">
+      <c r="E259" s="245"/>
+      <c r="F259" s="244">
         <v>4</v>
       </c>
-      <c r="G259" s="248"/>
-      <c r="H259" s="247"/>
+      <c r="G259" s="246"/>
+      <c r="H259" s="245"/>
     </row>
     <row r="260" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A260" s="90"/>
@@ -10590,16 +10560,16 @@
       <c r="C260" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="D260" s="243">
+      <c r="D260" s="238">
         <v>7</v>
       </c>
-      <c r="E260" s="243"/>
-      <c r="F260" s="238">
+      <c r="E260" s="238"/>
+      <c r="F260" s="241">
         <f>D260*Лист2!$B$3</f>
         <v>509.46000000000004</v>
       </c>
-      <c r="G260" s="239"/>
-      <c r="H260" s="240"/>
+      <c r="G260" s="242"/>
+      <c r="H260" s="243"/>
     </row>
     <row r="261" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A261" s="90"/>
@@ -10609,16 +10579,16 @@
       <c r="C261" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D261" s="243">
+      <c r="D261" s="238">
         <v>4</v>
       </c>
-      <c r="E261" s="243"/>
-      <c r="F261" s="238">
+      <c r="E261" s="238"/>
+      <c r="F261" s="241">
         <f>D261*Лист2!$B$3</f>
         <v>291.12</v>
       </c>
-      <c r="G261" s="239"/>
-      <c r="H261" s="240"/>
+      <c r="G261" s="242"/>
+      <c r="H261" s="243"/>
     </row>
     <row r="262" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="90"/>
@@ -10628,16 +10598,16 @@
       <c r="C262" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D262" s="243">
+      <c r="D262" s="238">
         <v>20.2</v>
       </c>
-      <c r="E262" s="243"/>
-      <c r="F262" s="238">
+      <c r="E262" s="238"/>
+      <c r="F262" s="241">
         <f>D262*Лист2!$B$3</f>
         <v>1470.1559999999999</v>
       </c>
-      <c r="G262" s="239"/>
-      <c r="H262" s="240"/>
+      <c r="G262" s="242"/>
+      <c r="H262" s="243"/>
     </row>
     <row r="263" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A263" s="28"/>
@@ -10647,16 +10617,16 @@
       <c r="C263" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D263" s="243">
+      <c r="D263" s="238">
         <v>7.2</v>
       </c>
-      <c r="E263" s="243"/>
-      <c r="F263" s="238">
+      <c r="E263" s="238"/>
+      <c r="F263" s="241">
         <f>D263*Лист2!$B$3</f>
         <v>524.01600000000008</v>
       </c>
-      <c r="G263" s="239"/>
-      <c r="H263" s="240"/>
+      <c r="G263" s="242"/>
+      <c r="H263" s="243"/>
     </row>
     <row r="264" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A264" s="123"/>
@@ -10666,16 +10636,16 @@
       <c r="C264" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D264" s="243">
+      <c r="D264" s="238">
         <v>19.600000000000001</v>
       </c>
-      <c r="E264" s="243"/>
-      <c r="F264" s="238">
+      <c r="E264" s="238"/>
+      <c r="F264" s="241">
         <f>D264*Лист2!$B$3</f>
         <v>1426.4880000000001</v>
       </c>
-      <c r="G264" s="239"/>
-      <c r="H264" s="240"/>
+      <c r="G264" s="242"/>
+      <c r="H264" s="243"/>
     </row>
     <row r="265" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A265" s="30"/>
@@ -10685,16 +10655,16 @@
       <c r="C265" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D265" s="243">
+      <c r="D265" s="238">
         <v>40</v>
       </c>
-      <c r="E265" s="243"/>
-      <c r="F265" s="238">
+      <c r="E265" s="238"/>
+      <c r="F265" s="241">
         <f>D265*Лист2!$B$3</f>
         <v>2911.2</v>
       </c>
-      <c r="G265" s="239"/>
-      <c r="H265" s="240"/>
+      <c r="G265" s="242"/>
+      <c r="H265" s="243"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="30"/>
@@ -10704,16 +10674,16 @@
       <c r="C266" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D266" s="243">
+      <c r="D266" s="238">
         <v>8</v>
       </c>
-      <c r="E266" s="243"/>
-      <c r="F266" s="238">
+      <c r="E266" s="238"/>
+      <c r="F266" s="241">
         <f>D266*Лист2!$B$3</f>
         <v>582.24</v>
       </c>
-      <c r="G266" s="239"/>
-      <c r="H266" s="240"/>
+      <c r="G266" s="242"/>
+      <c r="H266" s="243"/>
     </row>
     <row r="267" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A267" s="30"/>
@@ -10723,16 +10693,16 @@
       <c r="C267" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D267" s="243">
+      <c r="D267" s="238">
         <v>101.9</v>
       </c>
-      <c r="E267" s="243"/>
-      <c r="F267" s="238">
+      <c r="E267" s="238"/>
+      <c r="F267" s="241">
         <f>D267*Лист2!$B$3</f>
         <v>7416.2820000000002</v>
       </c>
-      <c r="G267" s="239"/>
-      <c r="H267" s="240"/>
+      <c r="G267" s="242"/>
+      <c r="H267" s="243"/>
     </row>
     <row r="268" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A268" s="30"/>
@@ -10742,16 +10712,16 @@
       <c r="C268" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D268" s="243">
+      <c r="D268" s="238">
         <v>101.9</v>
       </c>
-      <c r="E268" s="243"/>
-      <c r="F268" s="238">
+      <c r="E268" s="238"/>
+      <c r="F268" s="241">
         <f>D268*Лист2!$B$3</f>
         <v>7416.2820000000002</v>
       </c>
-      <c r="G268" s="239"/>
-      <c r="H268" s="240"/>
+      <c r="G268" s="242"/>
+      <c r="H268" s="243"/>
     </row>
     <row r="269" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A269" s="30"/>
@@ -10761,16 +10731,16 @@
       <c r="C269" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="D269" s="243">
+      <c r="D269" s="238">
         <v>167.7</v>
       </c>
-      <c r="E269" s="243"/>
-      <c r="F269" s="238">
+      <c r="E269" s="238"/>
+      <c r="F269" s="241">
         <f>D269*Лист2!$B$3</f>
         <v>12205.206</v>
       </c>
-      <c r="G269" s="239"/>
-      <c r="H269" s="240"/>
+      <c r="G269" s="242"/>
+      <c r="H269" s="243"/>
     </row>
     <row r="270" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A270" s="30"/>
@@ -10780,16 +10750,16 @@
       <c r="C270" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D270" s="243">
+      <c r="D270" s="238">
         <v>376.5</v>
       </c>
-      <c r="E270" s="243"/>
-      <c r="F270" s="238">
+      <c r="E270" s="238"/>
+      <c r="F270" s="241">
         <f>D270*Лист2!$B$3</f>
         <v>27401.670000000002</v>
       </c>
-      <c r="G270" s="239"/>
-      <c r="H270" s="240"/>
+      <c r="G270" s="242"/>
+      <c r="H270" s="243"/>
     </row>
     <row r="271" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A271" s="30"/>
@@ -10799,16 +10769,16 @@
       <c r="C271" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D271" s="243">
+      <c r="D271" s="238">
         <v>376.5</v>
       </c>
-      <c r="E271" s="243"/>
-      <c r="F271" s="238">
+      <c r="E271" s="238"/>
+      <c r="F271" s="241">
         <f>D271*Лист2!$B$3</f>
         <v>27401.670000000002</v>
       </c>
-      <c r="G271" s="239"/>
-      <c r="H271" s="240"/>
+      <c r="G271" s="242"/>
+      <c r="H271" s="243"/>
     </row>
     <row r="272" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A272" s="30"/>
@@ -10818,16 +10788,16 @@
       <c r="C272" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D272" s="243">
+      <c r="D272" s="238">
         <v>741.4</v>
       </c>
-      <c r="E272" s="243"/>
-      <c r="F272" s="238">
+      <c r="E272" s="238"/>
+      <c r="F272" s="241">
         <f>D272*Лист2!$B$3</f>
         <v>53959.091999999997</v>
       </c>
-      <c r="G272" s="239"/>
-      <c r="H272" s="240"/>
+      <c r="G272" s="242"/>
+      <c r="H272" s="243"/>
     </row>
     <row r="273" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A273" s="30"/>
@@ -10837,16 +10807,16 @@
       <c r="C273" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="D273" s="243">
+      <c r="D273" s="238">
         <v>411.9</v>
       </c>
-      <c r="E273" s="243"/>
-      <c r="F273" s="238">
+      <c r="E273" s="238"/>
+      <c r="F273" s="241">
         <f>D273*Лист2!$B$3</f>
         <v>29978.081999999999</v>
       </c>
-      <c r="G273" s="239"/>
-      <c r="H273" s="240"/>
+      <c r="G273" s="242"/>
+      <c r="H273" s="243"/>
     </row>
     <row r="274" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A274" s="30"/>
@@ -10856,16 +10826,16 @@
       <c r="C274" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="D274" s="243">
+      <c r="D274" s="238">
         <v>114.4</v>
       </c>
-      <c r="E274" s="243"/>
-      <c r="F274" s="238">
+      <c r="E274" s="238"/>
+      <c r="F274" s="241">
         <f>D274*Лист2!$B$3</f>
         <v>8326.0320000000011</v>
       </c>
-      <c r="G274" s="239"/>
-      <c r="H274" s="240"/>
+      <c r="G274" s="242"/>
+      <c r="H274" s="243"/>
     </row>
     <row r="275" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A275" s="30"/>
@@ -10875,16 +10845,16 @@
       <c r="C275" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D275" s="243">
+      <c r="D275" s="238">
         <v>135</v>
       </c>
-      <c r="E275" s="243"/>
-      <c r="F275" s="238">
+      <c r="E275" s="238"/>
+      <c r="F275" s="241">
         <f>D275*Лист2!$B$3</f>
         <v>9825.2999999999993</v>
       </c>
-      <c r="G275" s="239"/>
-      <c r="H275" s="240"/>
+      <c r="G275" s="242"/>
+      <c r="H275" s="243"/>
     </row>
     <row r="276" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="30"/>
@@ -10894,16 +10864,16 @@
       <c r="C276" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D276" s="243">
+      <c r="D276" s="238">
         <v>741.4</v>
       </c>
-      <c r="E276" s="243"/>
-      <c r="F276" s="238">
+      <c r="E276" s="238"/>
+      <c r="F276" s="241">
         <f>D276*Лист2!$B$3</f>
         <v>53959.091999999997</v>
       </c>
-      <c r="G276" s="239"/>
-      <c r="H276" s="240"/>
+      <c r="G276" s="242"/>
+      <c r="H276" s="243"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="30"/>
@@ -10913,16 +10883,16 @@
       <c r="C277" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D277" s="243">
+      <c r="D277" s="238">
         <v>225.5</v>
       </c>
-      <c r="E277" s="243"/>
-      <c r="F277" s="238">
+      <c r="E277" s="238"/>
+      <c r="F277" s="241">
         <f>D277*Лист2!$B$3</f>
         <v>16411.89</v>
       </c>
-      <c r="G277" s="239"/>
-      <c r="H277" s="240"/>
+      <c r="G277" s="242"/>
+      <c r="H277" s="243"/>
     </row>
     <row r="278" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A278" s="30"/>
@@ -10932,16 +10902,16 @@
       <c r="C278" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D278" s="243">
+      <c r="D278" s="238">
         <v>20.2</v>
       </c>
-      <c r="E278" s="243"/>
-      <c r="F278" s="238">
+      <c r="E278" s="238"/>
+      <c r="F278" s="241">
         <f>D278*Лист2!$B$3</f>
         <v>1470.1559999999999</v>
       </c>
-      <c r="G278" s="239"/>
-      <c r="H278" s="240"/>
+      <c r="G278" s="242"/>
+      <c r="H278" s="243"/>
     </row>
     <row r="279" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A279" s="30"/>
@@ -10951,16 +10921,16 @@
       <c r="C279" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="243">
+      <c r="D279" s="238">
         <v>18.2</v>
       </c>
-      <c r="E279" s="243"/>
-      <c r="F279" s="238">
+      <c r="E279" s="238"/>
+      <c r="F279" s="241">
         <f>D279*Лист2!$B$3</f>
         <v>1324.596</v>
       </c>
-      <c r="G279" s="239"/>
-      <c r="H279" s="240"/>
+      <c r="G279" s="242"/>
+      <c r="H279" s="243"/>
     </row>
     <row r="280" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A280" s="30"/>
@@ -10970,25 +10940,25 @@
       <c r="C280" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D280" s="223">
+      <c r="D280" s="220">
         <v>741.4</v>
       </c>
-      <c r="E280" s="223"/>
-      <c r="F280" s="238">
+      <c r="E280" s="220"/>
+      <c r="F280" s="241">
         <f>D280*Лист2!$B$3</f>
         <v>53959.091999999997</v>
       </c>
-      <c r="G280" s="239"/>
-      <c r="H280" s="240"/>
+      <c r="G280" s="242"/>
+      <c r="H280" s="243"/>
     </row>
     <row r="281" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A281" s="30"/>
-      <c r="B281" s="249"/>
-      <c r="C281" s="249"/>
-      <c r="D281" s="249"/>
-      <c r="E281" s="249"/>
-      <c r="F281" s="249"/>
-      <c r="G281" s="249"/>
+      <c r="B281" s="239"/>
+      <c r="C281" s="239"/>
+      <c r="D281" s="239"/>
+      <c r="E281" s="239"/>
+      <c r="F281" s="239"/>
+      <c r="G281" s="239"/>
       <c r="H281" s="118"/>
     </row>
     <row r="282" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -11031,10 +11001,10 @@
       <c r="F284" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="G284" s="241" t="s">
+      <c r="G284" s="222" t="s">
         <v>388</v>
       </c>
-      <c r="H284" s="241"/>
+      <c r="H284" s="222"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="30"/>
@@ -11053,10 +11023,10 @@
       <c r="F285" s="111">
         <v>5</v>
       </c>
-      <c r="G285" s="242">
+      <c r="G285" s="250">
         <v>6</v>
       </c>
-      <c r="H285" s="242"/>
+      <c r="H285" s="250"/>
     </row>
     <row r="286" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A286" s="91"/>
@@ -11076,11 +11046,11 @@
       <c r="F286" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G286" s="205">
+      <c r="G286" s="206">
         <f t="shared" ref="G286:G335" si="24">E286*F286</f>
         <v>45873.234000000004</v>
       </c>
-      <c r="H286" s="205"/>
+      <c r="H286" s="206"/>
     </row>
     <row r="287" spans="1:8" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="91"/>
@@ -11100,11 +11070,11 @@
       <c r="F287" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G287" s="205">
+      <c r="G287" s="206">
         <f t="shared" si="24"/>
         <v>284.20589999999999</v>
       </c>
-      <c r="H287" s="205"/>
+      <c r="H287" s="206"/>
     </row>
     <row r="288" spans="1:8" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="91"/>
@@ -11124,11 +11094,11 @@
       <c r="F288" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G288" s="205">
+      <c r="G288" s="206">
         <f t="shared" si="24"/>
         <v>192.13920000000002</v>
       </c>
-      <c r="H288" s="205"/>
+      <c r="H288" s="206"/>
     </row>
     <row r="289" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A289" s="91"/>
@@ -11148,11 +11118,11 @@
       <c r="F289" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G289" s="205">
+      <c r="G289" s="206">
         <f t="shared" si="24"/>
         <v>284.20589999999999</v>
       </c>
-      <c r="H289" s="205"/>
+      <c r="H289" s="206"/>
     </row>
     <row r="290" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A290" s="132"/>
@@ -11172,11 +11142,11 @@
       <c r="F290" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G290" s="205">
+      <c r="G290" s="206">
         <f t="shared" si="24"/>
         <v>192.13920000000002</v>
       </c>
-      <c r="H290" s="205"/>
+      <c r="H290" s="206"/>
     </row>
     <row r="291" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A291" s="133"/>
@@ -11196,11 +11166,11 @@
       <c r="F291" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G291" s="205">
+      <c r="G291" s="206">
         <f t="shared" si="24"/>
         <v>228.16530000000003</v>
       </c>
-      <c r="H291" s="205"/>
+      <c r="H291" s="206"/>
     </row>
     <row r="292" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A292" s="92"/>
@@ -11220,11 +11190,11 @@
       <c r="F292" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G292" s="205">
+      <c r="G292" s="206">
         <f t="shared" si="24"/>
         <v>116.08410000000001</v>
       </c>
-      <c r="H292" s="205"/>
+      <c r="H292" s="206"/>
     </row>
     <row r="293" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A293" s="92"/>
@@ -11244,11 +11214,11 @@
       <c r="F293" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G293" s="205">
+      <c r="G293" s="206">
         <f t="shared" si="24"/>
         <v>1537.1136000000001</v>
       </c>
-      <c r="H293" s="205"/>
+      <c r="H293" s="206"/>
     </row>
     <row r="294" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A294" s="92"/>
@@ -11268,11 +11238,11 @@
       <c r="F294" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G294" s="205">
+      <c r="G294" s="206">
         <f t="shared" si="24"/>
         <v>1885.3659000000002</v>
       </c>
-      <c r="H294" s="205"/>
+      <c r="H294" s="206"/>
     </row>
     <row r="295" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A295" s="92"/>
@@ -11292,11 +11262,11 @@
       <c r="F295" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G295" s="205">
+      <c r="G295" s="206">
         <f t="shared" si="24"/>
         <v>3706.6854000000003</v>
       </c>
-      <c r="H295" s="205"/>
+      <c r="H295" s="206"/>
     </row>
     <row r="296" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A296" s="92"/>
@@ -11316,11 +11286,11 @@
       <c r="F296" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G296" s="205">
+      <c r="G296" s="206">
         <f t="shared" si="24"/>
         <v>3706.6854000000003</v>
       </c>
-      <c r="H296" s="205"/>
+      <c r="H296" s="206"/>
     </row>
     <row r="297" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A297" s="92"/>
@@ -11340,11 +11310,11 @@
       <c r="F297" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G297" s="205">
+      <c r="G297" s="206">
         <f t="shared" si="24"/>
         <v>1885.3659000000002</v>
       </c>
-      <c r="H297" s="205"/>
+      <c r="H297" s="206"/>
     </row>
     <row r="298" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A298" s="92"/>
@@ -11364,11 +11334,11 @@
       <c r="F298" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G298" s="205">
+      <c r="G298" s="206">
         <f t="shared" si="24"/>
         <v>1028.7453</v>
       </c>
-      <c r="H298" s="205"/>
+      <c r="H298" s="206"/>
     </row>
     <row r="299" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A299" s="92"/>
@@ -11388,11 +11358,11 @@
       <c r="F299" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G299" s="205">
+      <c r="G299" s="206">
         <f t="shared" si="24"/>
         <v>7461.405600000001</v>
       </c>
-      <c r="H299" s="205"/>
+      <c r="H299" s="206"/>
     </row>
     <row r="300" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A300" s="92"/>
@@ -11412,11 +11382,11 @@
       <c r="F300" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G300" s="205">
+      <c r="G300" s="206">
         <f t="shared" si="24"/>
         <v>9851.1369000000013</v>
       </c>
-      <c r="H300" s="205"/>
+      <c r="H300" s="206"/>
     </row>
     <row r="301" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A301" s="92"/>
@@ -11436,11 +11406,11 @@
       <c r="F301" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G301" s="205">
+      <c r="G301" s="206">
         <f t="shared" si="24"/>
         <v>6600.7821000000004</v>
       </c>
-      <c r="H301" s="205"/>
+      <c r="H301" s="206"/>
     </row>
     <row r="302" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A302" s="92"/>
@@ -11460,11 +11430,11 @@
       <c r="F302" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G302" s="205">
+      <c r="G302" s="206">
         <f t="shared" si="24"/>
         <v>9038.5482000000011</v>
       </c>
-      <c r="H302" s="205"/>
+      <c r="H302" s="206"/>
     </row>
     <row r="303" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A303" s="92"/>
@@ -11484,11 +11454,11 @@
       <c r="F303" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G303" s="205">
+      <c r="G303" s="206">
         <f t="shared" si="24"/>
         <v>7461.405600000001</v>
       </c>
-      <c r="H303" s="205"/>
+      <c r="H303" s="206"/>
     </row>
     <row r="304" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A304" s="92"/>
@@ -11508,11 +11478,11 @@
       <c r="F304" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G304" s="205">
+      <c r="G304" s="206">
         <f t="shared" si="24"/>
         <v>9851.1369000000013</v>
       </c>
-      <c r="H304" s="205"/>
+      <c r="H304" s="206"/>
     </row>
     <row r="305" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A305" s="92"/>
@@ -11532,11 +11502,11 @@
       <c r="F305" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G305" s="205">
+      <c r="G305" s="206">
         <f t="shared" si="24"/>
         <v>6600.7821000000004</v>
       </c>
-      <c r="H305" s="205"/>
+      <c r="H305" s="206"/>
     </row>
     <row r="306" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A306" s="92"/>
@@ -11556,11 +11526,11 @@
       <c r="F306" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G306" s="205">
+      <c r="G306" s="206">
         <f t="shared" si="24"/>
         <v>9038.5482000000011</v>
       </c>
-      <c r="H306" s="205"/>
+      <c r="H306" s="206"/>
     </row>
     <row r="307" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A307" s="92"/>
@@ -11580,11 +11550,11 @@
       <c r="F307" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G307" s="205">
+      <c r="G307" s="206">
         <f t="shared" si="24"/>
         <v>21807.799199999998</v>
       </c>
-      <c r="H307" s="205"/>
+      <c r="H307" s="206"/>
     </row>
     <row r="308" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A308" s="92"/>
@@ -11604,11 +11574,11 @@
       <c r="F308" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G308" s="205">
+      <c r="G308" s="206">
         <f t="shared" si="24"/>
         <v>29077.065600000002</v>
       </c>
-      <c r="H308" s="205"/>
+      <c r="H308" s="206"/>
     </row>
     <row r="309" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A309" s="92"/>
@@ -11628,11 +11598,11 @@
       <c r="F309" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G309" s="205">
+      <c r="G309" s="206">
         <f t="shared" si="24"/>
         <v>20282.694299999999</v>
       </c>
-      <c r="H309" s="205"/>
+      <c r="H309" s="206"/>
     </row>
     <row r="310" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A310" s="92"/>
@@ -11652,11 +11622,11 @@
       <c r="F310" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G310" s="205">
+      <c r="G310" s="206">
         <f t="shared" si="24"/>
         <v>25878.748500000005</v>
       </c>
-      <c r="H310" s="205"/>
+      <c r="H310" s="206"/>
     </row>
     <row r="311" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A311" s="92"/>
@@ -11676,11 +11646,11 @@
       <c r="F311" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G311" s="205">
+      <c r="G311" s="206">
         <f t="shared" si="24"/>
         <v>3090.2388000000001</v>
       </c>
-      <c r="H311" s="205"/>
+      <c r="H311" s="206"/>
     </row>
     <row r="312" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A312" s="92"/>
@@ -11700,11 +11670,11 @@
       <c r="F312" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G312" s="205">
+      <c r="G312" s="206">
         <f t="shared" si="24"/>
         <v>3090.2388000000001</v>
       </c>
-      <c r="H312" s="205"/>
+      <c r="H312" s="206"/>
     </row>
     <row r="313" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A313" s="92"/>
@@ -11724,11 +11694,11 @@
       <c r="F313" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G313" s="205">
+      <c r="G313" s="206">
         <f t="shared" si="24"/>
         <v>6116.4312000000009</v>
       </c>
-      <c r="H313" s="205"/>
+      <c r="H313" s="206"/>
     </row>
     <row r="314" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A314" s="92"/>
@@ -11748,11 +11718,11 @@
       <c r="F314" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G314" s="205">
+      <c r="G314" s="206">
         <f t="shared" si="24"/>
         <v>5560.0281000000004</v>
       </c>
-      <c r="H314" s="205"/>
+      <c r="H314" s="206"/>
     </row>
     <row r="315" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A315" s="92"/>
@@ -11772,11 +11742,11 @@
       <c r="F315" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G315" s="205">
+      <c r="G315" s="206">
         <f t="shared" si="24"/>
         <v>10551.644400000001</v>
       </c>
-      <c r="H315" s="205"/>
+      <c r="H315" s="206"/>
     </row>
     <row r="316" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A316" s="92"/>
@@ -11796,11 +11766,11 @@
       <c r="F316" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G316" s="205">
+      <c r="G316" s="206">
         <f t="shared" si="24"/>
         <v>29077.065600000002</v>
       </c>
-      <c r="H316" s="205"/>
+      <c r="H316" s="206"/>
     </row>
     <row r="317" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A317" s="92"/>
@@ -11820,11 +11790,11 @@
       <c r="F317" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G317" s="205">
+      <c r="G317" s="206">
         <f t="shared" si="24"/>
         <v>9518.8962000000029</v>
       </c>
-      <c r="H317" s="205"/>
+      <c r="H317" s="206"/>
     </row>
     <row r="318" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A318" s="92"/>
@@ -11844,11 +11814,11 @@
       <c r="F318" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G318" s="205">
+      <c r="G318" s="206">
         <f t="shared" si="24"/>
         <v>25878.748500000005</v>
       </c>
-      <c r="H318" s="205"/>
+      <c r="H318" s="206"/>
     </row>
     <row r="319" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A319" s="92"/>
@@ -11868,11 +11838,11 @@
       <c r="F319" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G319" s="205">
+      <c r="G319" s="206">
         <f t="shared" si="24"/>
         <v>21807.799199999998</v>
       </c>
-      <c r="H319" s="205"/>
+      <c r="H319" s="206"/>
     </row>
     <row r="320" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A320" s="92"/>
@@ -11892,11 +11862,11 @@
       <c r="F320" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G320" s="205">
+      <c r="G320" s="206">
         <f t="shared" si="24"/>
         <v>20282.694299999999</v>
       </c>
-      <c r="H320" s="205"/>
+      <c r="H320" s="206"/>
     </row>
     <row r="321" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A321" s="92"/>
@@ -11916,11 +11886,11 @@
       <c r="F321" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G321" s="205">
+      <c r="G321" s="206">
         <f t="shared" si="24"/>
         <v>10551.644400000001</v>
       </c>
-      <c r="H321" s="205"/>
+      <c r="H321" s="206"/>
     </row>
     <row r="322" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A322" s="92"/>
@@ -11940,11 +11910,11 @@
       <c r="F322" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G322" s="205">
+      <c r="G322" s="206">
         <f t="shared" si="24"/>
         <v>29077.065600000002</v>
       </c>
-      <c r="H322" s="205"/>
+      <c r="H322" s="206"/>
     </row>
     <row r="323" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A323" s="92"/>
@@ -11964,11 +11934,11 @@
       <c r="F323" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G323" s="205">
+      <c r="G323" s="206">
         <f t="shared" si="24"/>
         <v>9518.8962000000029</v>
       </c>
-      <c r="H323" s="205"/>
+      <c r="H323" s="206"/>
     </row>
     <row r="324" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A324" s="92"/>
@@ -11988,11 +11958,11 @@
       <c r="F324" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G324" s="205">
+      <c r="G324" s="206">
         <f t="shared" si="24"/>
         <v>25878.748500000005</v>
       </c>
-      <c r="H324" s="205"/>
+      <c r="H324" s="206"/>
     </row>
     <row r="325" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A325" s="92"/>
@@ -12012,11 +11982,11 @@
       <c r="F325" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G325" s="205">
+      <c r="G325" s="206">
         <f t="shared" si="24"/>
         <v>7413.3708000000006</v>
       </c>
-      <c r="H325" s="205"/>
+      <c r="H325" s="206"/>
     </row>
     <row r="326" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A326" s="92"/>
@@ -12036,11 +12006,11 @@
       <c r="F326" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G326" s="205">
+      <c r="G326" s="206">
         <f t="shared" si="24"/>
         <v>3706.6854000000003</v>
       </c>
-      <c r="H326" s="205"/>
+      <c r="H326" s="206"/>
     </row>
     <row r="327" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A327" s="92"/>
@@ -12060,11 +12030,11 @@
       <c r="F327" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G327" s="205">
+      <c r="G327" s="206">
         <f t="shared" si="24"/>
         <v>10551.644400000001</v>
       </c>
-      <c r="H327" s="205"/>
+      <c r="H327" s="206"/>
     </row>
     <row r="328" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A328" s="92"/>
@@ -12084,11 +12054,11 @@
       <c r="F328" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G328" s="205">
+      <c r="G328" s="206">
         <f t="shared" si="24"/>
         <v>436.31610000000006</v>
       </c>
-      <c r="H328" s="205"/>
+      <c r="H328" s="206"/>
     </row>
     <row r="329" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A329" s="92"/>
@@ -12108,11 +12078,11 @@
       <c r="F329" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G329" s="205">
+      <c r="G329" s="206">
         <f t="shared" si="24"/>
         <v>5051.6598000000013</v>
       </c>
-      <c r="H329" s="205"/>
+      <c r="H329" s="206"/>
     </row>
     <row r="330" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A330" s="92"/>
@@ -12132,11 +12102,11 @@
       <c r="F330" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G330" s="205">
+      <c r="G330" s="206">
         <f t="shared" si="24"/>
         <v>10551.644400000001</v>
       </c>
-      <c r="H330" s="205"/>
+      <c r="H330" s="206"/>
     </row>
     <row r="331" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A331" s="92"/>
@@ -12156,11 +12126,11 @@
       <c r="F331" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G331" s="205">
+      <c r="G331" s="206">
         <f t="shared" si="24"/>
         <v>29077.065600000002</v>
       </c>
-      <c r="H331" s="205"/>
+      <c r="H331" s="206"/>
     </row>
     <row r="332" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A332" s="92"/>
@@ -12180,11 +12150,11 @@
       <c r="F332" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G332" s="205">
+      <c r="G332" s="206">
         <f t="shared" si="24"/>
         <v>9518.8962000000029</v>
       </c>
-      <c r="H332" s="205"/>
+      <c r="H332" s="206"/>
     </row>
     <row r="333" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A333" s="92"/>
@@ -12204,11 +12174,11 @@
       <c r="F333" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G333" s="205">
+      <c r="G333" s="206">
         <f t="shared" si="24"/>
         <v>25878.748500000005</v>
       </c>
-      <c r="H333" s="205"/>
+      <c r="H333" s="206"/>
     </row>
     <row r="334" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A334" s="92"/>
@@ -12228,11 +12198,11 @@
       <c r="F334" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G334" s="205">
+      <c r="G334" s="206">
         <f t="shared" si="24"/>
         <v>1529.1078000000002</v>
       </c>
-      <c r="H334" s="205"/>
+      <c r="H334" s="206"/>
     </row>
     <row r="335" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A335" s="92"/>
@@ -12252,11 +12222,11 @@
       <c r="F335" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G335" s="205">
+      <c r="G335" s="206">
         <f t="shared" si="24"/>
         <v>1272.9222000000002</v>
       </c>
-      <c r="H335" s="205"/>
+      <c r="H335" s="206"/>
     </row>
     <row r="336" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A336" s="92"/>
@@ -12307,306 +12277,306 @@
       <c r="B340" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C340" s="226" t="s">
+      <c r="C340" s="229" t="s">
         <v>395</v>
       </c>
-      <c r="D340" s="226"/>
-      <c r="E340" s="226" t="s">
+      <c r="D340" s="229"/>
+      <c r="E340" s="229" t="s">
         <v>394</v>
       </c>
-      <c r="F340" s="226"/>
-      <c r="G340" s="226" t="s">
+      <c r="F340" s="229"/>
+      <c r="G340" s="229" t="s">
         <v>422</v>
       </c>
-      <c r="H340" s="226"/>
+      <c r="H340" s="229"/>
     </row>
     <row r="341" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A341" s="96"/>
       <c r="B341" s="102">
         <v>1</v>
       </c>
-      <c r="C341" s="227">
+      <c r="C341" s="252">
         <v>2</v>
       </c>
-      <c r="D341" s="227"/>
-      <c r="E341" s="227">
+      <c r="D341" s="252"/>
+      <c r="E341" s="252">
         <v>3</v>
       </c>
-      <c r="F341" s="227"/>
-      <c r="G341" s="227">
+      <c r="F341" s="252"/>
+      <c r="G341" s="252">
         <v>4</v>
       </c>
-      <c r="H341" s="227"/>
+      <c r="H341" s="252"/>
     </row>
     <row r="342" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="96"/>
       <c r="B342" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C342" s="220" t="s">
+      <c r="C342" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D342" s="220"/>
-      <c r="E342" s="220" t="s">
+      <c r="D342" s="214"/>
+      <c r="E342" s="214" t="s">
         <v>223</v>
       </c>
-      <c r="F342" s="220"/>
-      <c r="G342" s="224">
+      <c r="F342" s="214"/>
+      <c r="G342" s="212">
         <v>3000</v>
       </c>
-      <c r="H342" s="225"/>
+      <c r="H342" s="213"/>
     </row>
     <row r="343" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="96"/>
       <c r="B343" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C343" s="220" t="s">
+      <c r="C343" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D343" s="220"/>
-      <c r="E343" s="220" t="s">
+      <c r="D343" s="214"/>
+      <c r="E343" s="214" t="s">
         <v>223</v>
       </c>
-      <c r="F343" s="220"/>
-      <c r="G343" s="224">
+      <c r="F343" s="214"/>
+      <c r="G343" s="212">
         <v>2000</v>
       </c>
-      <c r="H343" s="225"/>
+      <c r="H343" s="213"/>
     </row>
     <row r="344" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="96"/>
       <c r="B344" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C344" s="220" t="s">
+      <c r="C344" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D344" s="220"/>
-      <c r="E344" s="220" t="s">
+      <c r="D344" s="214"/>
+      <c r="E344" s="214" t="s">
         <v>226</v>
       </c>
-      <c r="F344" s="220"/>
-      <c r="G344" s="224">
+      <c r="F344" s="214"/>
+      <c r="G344" s="212">
         <v>1000</v>
       </c>
-      <c r="H344" s="225"/>
+      <c r="H344" s="213"/>
     </row>
     <row r="345" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="96"/>
       <c r="B345" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C345" s="220" t="s">
+      <c r="C345" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D345" s="220"/>
-      <c r="E345" s="220" t="s">
+      <c r="D345" s="214"/>
+      <c r="E345" s="214" t="s">
         <v>228</v>
       </c>
-      <c r="F345" s="220"/>
-      <c r="G345" s="224">
+      <c r="F345" s="214"/>
+      <c r="G345" s="212">
         <v>350</v>
       </c>
-      <c r="H345" s="225"/>
+      <c r="H345" s="213"/>
     </row>
     <row r="346" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="96"/>
       <c r="B346" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C346" s="220" t="s">
+      <c r="C346" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D346" s="220"/>
-      <c r="E346" s="220" t="s">
+      <c r="D346" s="214"/>
+      <c r="E346" s="214" t="s">
         <v>230</v>
       </c>
-      <c r="F346" s="220"/>
-      <c r="G346" s="224">
+      <c r="F346" s="214"/>
+      <c r="G346" s="212">
         <v>300</v>
       </c>
-      <c r="H346" s="225"/>
+      <c r="H346" s="213"/>
     </row>
     <row r="347" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="96"/>
       <c r="B347" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C347" s="220" t="s">
+      <c r="C347" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D347" s="220"/>
-      <c r="E347" s="220" t="s">
+      <c r="D347" s="214"/>
+      <c r="E347" s="214" t="s">
         <v>232</v>
       </c>
-      <c r="F347" s="220"/>
-      <c r="G347" s="224">
+      <c r="F347" s="214"/>
+      <c r="G347" s="212">
         <v>350</v>
       </c>
-      <c r="H347" s="225"/>
+      <c r="H347" s="213"/>
     </row>
     <row r="348" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="96"/>
       <c r="B348" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C348" s="220" t="s">
+      <c r="C348" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D348" s="220"/>
-      <c r="E348" s="220" t="s">
+      <c r="D348" s="214"/>
+      <c r="E348" s="214" t="s">
         <v>234</v>
       </c>
-      <c r="F348" s="220"/>
-      <c r="G348" s="224">
+      <c r="F348" s="214"/>
+      <c r="G348" s="212">
         <v>350</v>
       </c>
-      <c r="H348" s="225"/>
+      <c r="H348" s="213"/>
     </row>
     <row r="349" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="96"/>
       <c r="B349" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C349" s="220" t="s">
+      <c r="C349" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D349" s="220"/>
-      <c r="E349" s="220" t="s">
+      <c r="D349" s="214"/>
+      <c r="E349" s="214" t="s">
         <v>236</v>
       </c>
-      <c r="F349" s="220"/>
-      <c r="G349" s="224">
+      <c r="F349" s="214"/>
+      <c r="G349" s="212">
         <v>1300</v>
       </c>
-      <c r="H349" s="225"/>
+      <c r="H349" s="213"/>
     </row>
     <row r="350" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="96"/>
       <c r="B350" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C350" s="220" t="s">
+      <c r="C350" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D350" s="220"/>
-      <c r="E350" s="220" t="s">
+      <c r="D350" s="214"/>
+      <c r="E350" s="214" t="s">
         <v>238</v>
       </c>
-      <c r="F350" s="220"/>
-      <c r="G350" s="224">
+      <c r="F350" s="214"/>
+      <c r="G350" s="212">
         <v>1300</v>
       </c>
-      <c r="H350" s="225"/>
+      <c r="H350" s="213"/>
     </row>
     <row r="351" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="96"/>
       <c r="B351" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C351" s="220" t="s">
+      <c r="C351" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D351" s="220"/>
-      <c r="E351" s="220" t="s">
+      <c r="D351" s="214"/>
+      <c r="E351" s="214" t="s">
         <v>348</v>
       </c>
-      <c r="F351" s="220"/>
-      <c r="G351" s="224">
+      <c r="F351" s="214"/>
+      <c r="G351" s="212">
         <v>400</v>
       </c>
-      <c r="H351" s="225"/>
+      <c r="H351" s="213"/>
     </row>
     <row r="352" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="96"/>
       <c r="B352" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C352" s="220" t="s">
+      <c r="C352" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D352" s="220"/>
-      <c r="E352" s="220" t="s">
+      <c r="D352" s="214"/>
+      <c r="E352" s="214" t="s">
         <v>241</v>
       </c>
-      <c r="F352" s="220"/>
-      <c r="G352" s="224">
+      <c r="F352" s="214"/>
+      <c r="G352" s="212">
         <v>350</v>
       </c>
-      <c r="H352" s="225"/>
+      <c r="H352" s="213"/>
     </row>
     <row r="353" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="96"/>
       <c r="B353" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C353" s="220" t="s">
+      <c r="C353" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D353" s="220"/>
-      <c r="E353" s="220" t="s">
+      <c r="D353" s="214"/>
+      <c r="E353" s="214" t="s">
         <v>243</v>
       </c>
-      <c r="F353" s="220"/>
-      <c r="G353" s="224">
+      <c r="F353" s="214"/>
+      <c r="G353" s="212">
         <v>400</v>
       </c>
-      <c r="H353" s="225"/>
+      <c r="H353" s="213"/>
     </row>
     <row r="354" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="96"/>
       <c r="B354" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C354" s="220" t="s">
+      <c r="C354" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D354" s="220"/>
-      <c r="E354" s="220" t="s">
+      <c r="D354" s="214"/>
+      <c r="E354" s="214" t="s">
         <v>346</v>
       </c>
-      <c r="F354" s="220"/>
-      <c r="G354" s="224">
+      <c r="F354" s="214"/>
+      <c r="G354" s="212">
         <v>4000</v>
       </c>
-      <c r="H354" s="225"/>
+      <c r="H354" s="213"/>
     </row>
     <row r="355" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="96"/>
       <c r="B355" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C355" s="220" t="s">
+      <c r="C355" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D355" s="220"/>
-      <c r="E355" s="220" t="s">
+      <c r="D355" s="214"/>
+      <c r="E355" s="214" t="s">
         <v>246</v>
       </c>
-      <c r="F355" s="220"/>
-      <c r="G355" s="224">
+      <c r="F355" s="214"/>
+      <c r="G355" s="212">
         <v>500</v>
       </c>
-      <c r="H355" s="225"/>
+      <c r="H355" s="213"/>
     </row>
     <row r="356" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="96"/>
       <c r="B356" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C356" s="220" t="s">
+      <c r="C356" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D356" s="220"/>
-      <c r="E356" s="220" t="s">
+      <c r="D356" s="214"/>
+      <c r="E356" s="214" t="s">
         <v>280</v>
       </c>
-      <c r="F356" s="220"/>
-      <c r="G356" s="224">
+      <c r="F356" s="214"/>
+      <c r="G356" s="212">
         <v>500</v>
       </c>
-      <c r="H356" s="225"/>
+      <c r="H356" s="213"/>
     </row>
     <row r="357" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A357" s="96"/>
@@ -12635,378 +12605,378 @@
       <c r="B359" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C359" s="223" t="s">
+      <c r="C359" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="D359" s="223"/>
-      <c r="E359" s="220" t="s">
+      <c r="D359" s="220"/>
+      <c r="E359" s="214" t="s">
         <v>257</v>
       </c>
-      <c r="F359" s="220"/>
-      <c r="G359" s="224">
+      <c r="F359" s="214"/>
+      <c r="G359" s="212">
         <v>4500</v>
       </c>
-      <c r="H359" s="225"/>
+      <c r="H359" s="213"/>
     </row>
     <row r="360" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="96"/>
       <c r="B360" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C360" s="223" t="s">
+      <c r="C360" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="D360" s="223"/>
-      <c r="E360" s="220" t="s">
+      <c r="D360" s="220"/>
+      <c r="E360" s="214" t="s">
         <v>257</v>
       </c>
-      <c r="F360" s="220"/>
-      <c r="G360" s="224">
+      <c r="F360" s="214"/>
+      <c r="G360" s="212">
         <v>300</v>
       </c>
-      <c r="H360" s="225"/>
+      <c r="H360" s="213"/>
     </row>
     <row r="361" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="96"/>
       <c r="B361" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="C361" s="223" t="s">
+      <c r="C361" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="D361" s="223"/>
-      <c r="E361" s="220" t="s">
+      <c r="D361" s="220"/>
+      <c r="E361" s="214" t="s">
         <v>248</v>
       </c>
-      <c r="F361" s="220"/>
-      <c r="G361" s="224">
+      <c r="F361" s="214"/>
+      <c r="G361" s="212">
         <v>2500</v>
       </c>
-      <c r="H361" s="225"/>
+      <c r="H361" s="213"/>
     </row>
     <row r="362" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="96"/>
       <c r="B362" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C362" s="220" t="s">
+      <c r="C362" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D362" s="220"/>
-      <c r="E362" s="220" t="s">
+      <c r="D362" s="214"/>
+      <c r="E362" s="214" t="s">
         <v>250</v>
       </c>
-      <c r="F362" s="220"/>
-      <c r="G362" s="224">
+      <c r="F362" s="214"/>
+      <c r="G362" s="212">
         <v>700</v>
       </c>
-      <c r="H362" s="225"/>
+      <c r="H362" s="213"/>
     </row>
     <row r="363" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="96"/>
       <c r="B363" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C363" s="220" t="s">
+      <c r="C363" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D363" s="220"/>
-      <c r="E363" s="220" t="s">
+      <c r="D363" s="214"/>
+      <c r="E363" s="214" t="s">
         <v>252</v>
       </c>
-      <c r="F363" s="220"/>
-      <c r="G363" s="224">
+      <c r="F363" s="214"/>
+      <c r="G363" s="212">
         <v>500</v>
       </c>
-      <c r="H363" s="225"/>
+      <c r="H363" s="213"/>
     </row>
     <row r="364" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="96"/>
       <c r="B364" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="C364" s="220" t="s">
+      <c r="C364" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D364" s="220"/>
-      <c r="E364" s="220" t="s">
+      <c r="D364" s="214"/>
+      <c r="E364" s="214" t="s">
         <v>254</v>
       </c>
-      <c r="F364" s="220"/>
-      <c r="G364" s="224">
+      <c r="F364" s="214"/>
+      <c r="G364" s="212">
         <v>2000</v>
       </c>
-      <c r="H364" s="225"/>
+      <c r="H364" s="213"/>
     </row>
     <row r="365" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="96"/>
       <c r="B365" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C365" s="220" t="s">
+      <c r="C365" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D365" s="220"/>
-      <c r="E365" s="220" t="s">
+      <c r="D365" s="214"/>
+      <c r="E365" s="214" t="s">
         <v>255</v>
       </c>
-      <c r="F365" s="220"/>
-      <c r="G365" s="224">
+      <c r="F365" s="214"/>
+      <c r="G365" s="212">
         <v>500</v>
       </c>
-      <c r="H365" s="225"/>
+      <c r="H365" s="213"/>
     </row>
     <row r="366" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="96"/>
       <c r="B366" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C366" s="220" t="s">
+      <c r="C366" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D366" s="220"/>
-      <c r="E366" s="220" t="s">
+      <c r="D366" s="214"/>
+      <c r="E366" s="214" t="s">
         <v>257</v>
       </c>
-      <c r="F366" s="220"/>
-      <c r="G366" s="224">
+      <c r="F366" s="214"/>
+      <c r="G366" s="212">
         <v>6000</v>
       </c>
-      <c r="H366" s="225"/>
+      <c r="H366" s="213"/>
     </row>
     <row r="367" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="96"/>
       <c r="B367" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C367" s="220" t="s">
+      <c r="C367" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D367" s="220"/>
-      <c r="E367" s="220" t="s">
+      <c r="D367" s="214"/>
+      <c r="E367" s="214" t="s">
         <v>257</v>
       </c>
-      <c r="F367" s="220"/>
-      <c r="G367" s="224">
+      <c r="F367" s="214"/>
+      <c r="G367" s="212">
         <v>4000</v>
       </c>
-      <c r="H367" s="225"/>
+      <c r="H367" s="213"/>
     </row>
     <row r="368" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="96"/>
       <c r="B368" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="C368" s="220" t="s">
+      <c r="C368" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D368" s="220"/>
-      <c r="E368" s="220" t="s">
+      <c r="D368" s="214"/>
+      <c r="E368" s="214" t="s">
         <v>255</v>
       </c>
-      <c r="F368" s="220"/>
-      <c r="G368" s="224">
+      <c r="F368" s="214"/>
+      <c r="G368" s="212">
         <v>500</v>
       </c>
-      <c r="H368" s="225"/>
+      <c r="H368" s="213"/>
     </row>
     <row r="369" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="96"/>
       <c r="B369" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C369" s="220" t="s">
+      <c r="C369" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D369" s="220"/>
-      <c r="E369" s="220" t="s">
+      <c r="D369" s="214"/>
+      <c r="E369" s="214" t="s">
         <v>255</v>
       </c>
-      <c r="F369" s="220"/>
-      <c r="G369" s="224">
+      <c r="F369" s="214"/>
+      <c r="G369" s="212">
         <v>500</v>
       </c>
-      <c r="H369" s="225"/>
+      <c r="H369" s="213"/>
     </row>
     <row r="370" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="96"/>
       <c r="B370" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C370" s="220" t="s">
+      <c r="C370" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D370" s="220"/>
-      <c r="E370" s="220" t="s">
+      <c r="D370" s="214"/>
+      <c r="E370" s="214" t="s">
         <v>261</v>
       </c>
-      <c r="F370" s="220"/>
-      <c r="G370" s="224">
+      <c r="F370" s="214"/>
+      <c r="G370" s="212">
         <v>500</v>
       </c>
-      <c r="H370" s="225"/>
+      <c r="H370" s="213"/>
     </row>
     <row r="371" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="96"/>
       <c r="B371" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="C371" s="220" t="s">
+      <c r="C371" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D371" s="220"/>
-      <c r="E371" s="220" t="s">
+      <c r="D371" s="214"/>
+      <c r="E371" s="214" t="s">
         <v>255</v>
       </c>
-      <c r="F371" s="220"/>
-      <c r="G371" s="224">
+      <c r="F371" s="214"/>
+      <c r="G371" s="212">
         <v>400</v>
       </c>
-      <c r="H371" s="225"/>
+      <c r="H371" s="213"/>
     </row>
     <row r="372" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="96"/>
       <c r="B372" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C372" s="220" t="s">
+      <c r="C372" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D372" s="220"/>
-      <c r="E372" s="220" t="s">
+      <c r="D372" s="214"/>
+      <c r="E372" s="214" t="s">
         <v>263</v>
       </c>
-      <c r="F372" s="220"/>
-      <c r="G372" s="229">
+      <c r="F372" s="214"/>
+      <c r="G372" s="217">
         <v>500</v>
       </c>
-      <c r="H372" s="230"/>
+      <c r="H372" s="218"/>
     </row>
     <row r="373" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="96"/>
       <c r="B373" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C373" s="220" t="s">
+      <c r="C373" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D373" s="220"/>
-      <c r="E373" s="220" t="s">
+      <c r="D373" s="214"/>
+      <c r="E373" s="214" t="s">
         <v>265</v>
       </c>
-      <c r="F373" s="220"/>
-      <c r="G373" s="229">
+      <c r="F373" s="214"/>
+      <c r="G373" s="217">
         <v>500</v>
       </c>
-      <c r="H373" s="230"/>
+      <c r="H373" s="218"/>
     </row>
     <row r="374" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="96"/>
       <c r="B374" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C374" s="220" t="s">
+      <c r="C374" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D374" s="220"/>
-      <c r="E374" s="220" t="s">
+      <c r="D374" s="214"/>
+      <c r="E374" s="214" t="s">
         <v>257</v>
       </c>
-      <c r="F374" s="220"/>
-      <c r="G374" s="229">
+      <c r="F374" s="214"/>
+      <c r="G374" s="217">
         <v>500</v>
       </c>
-      <c r="H374" s="230"/>
+      <c r="H374" s="218"/>
     </row>
     <row r="375" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="96"/>
       <c r="B375" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="C375" s="220" t="s">
+      <c r="C375" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D375" s="220"/>
-      <c r="E375" s="220" t="s">
+      <c r="D375" s="214"/>
+      <c r="E375" s="214" t="s">
         <v>263</v>
       </c>
-      <c r="F375" s="220"/>
-      <c r="G375" s="229">
+      <c r="F375" s="214"/>
+      <c r="G375" s="217">
         <v>500</v>
       </c>
-      <c r="H375" s="230"/>
+      <c r="H375" s="218"/>
     </row>
     <row r="376" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="96"/>
       <c r="B376" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C376" s="220" t="s">
+      <c r="C376" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D376" s="220"/>
-      <c r="E376" s="220" t="s">
+      <c r="D376" s="214"/>
+      <c r="E376" s="214" t="s">
         <v>268</v>
       </c>
-      <c r="F376" s="220"/>
-      <c r="G376" s="224">
+      <c r="F376" s="214"/>
+      <c r="G376" s="212">
         <v>3000</v>
       </c>
-      <c r="H376" s="225"/>
+      <c r="H376" s="213"/>
     </row>
     <row r="377" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="96"/>
       <c r="B377" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="C377" s="220" t="s">
+      <c r="C377" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D377" s="220"/>
-      <c r="E377" s="220" t="s">
+      <c r="D377" s="214"/>
+      <c r="E377" s="214" t="s">
         <v>263</v>
       </c>
-      <c r="F377" s="220"/>
-      <c r="G377" s="229">
+      <c r="F377" s="214"/>
+      <c r="G377" s="217">
         <v>300</v>
       </c>
-      <c r="H377" s="230"/>
+      <c r="H377" s="218"/>
     </row>
     <row r="378" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="96"/>
       <c r="B378" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C378" s="220" t="s">
+      <c r="C378" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D378" s="220"/>
-      <c r="E378" s="220" t="s">
+      <c r="D378" s="214"/>
+      <c r="E378" s="214" t="s">
         <v>263</v>
       </c>
-      <c r="F378" s="220"/>
-      <c r="G378" s="229">
+      <c r="F378" s="214"/>
+      <c r="G378" s="217">
         <v>700</v>
       </c>
-      <c r="H378" s="230"/>
+      <c r="H378" s="218"/>
     </row>
     <row r="379" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="96"/>
       <c r="B379" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C379" s="220" t="s">
+      <c r="C379" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D379" s="220"/>
-      <c r="E379" s="220" t="s">
+      <c r="D379" s="214"/>
+      <c r="E379" s="214" t="s">
         <v>347</v>
       </c>
-      <c r="F379" s="220"/>
-      <c r="G379" s="224">
+      <c r="F379" s="214"/>
+      <c r="G379" s="212">
         <v>7000</v>
       </c>
-      <c r="H379" s="225"/>
+      <c r="H379" s="213"/>
     </row>
     <row r="380" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A380" s="96"/>
@@ -13035,54 +13005,54 @@
       <c r="B382" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="C382" s="220" t="s">
+      <c r="C382" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D382" s="220"/>
-      <c r="E382" s="220" t="s">
+      <c r="D382" s="214"/>
+      <c r="E382" s="214" t="s">
         <v>292</v>
       </c>
-      <c r="F382" s="220"/>
-      <c r="G382" s="224">
+      <c r="F382" s="214"/>
+      <c r="G382" s="212">
         <v>2500</v>
       </c>
-      <c r="H382" s="225"/>
+      <c r="H382" s="213"/>
     </row>
     <row r="383" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="96"/>
       <c r="B383" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C383" s="220" t="s">
+      <c r="C383" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D383" s="220"/>
-      <c r="E383" s="220" t="s">
+      <c r="D383" s="214"/>
+      <c r="E383" s="214" t="s">
         <v>292</v>
       </c>
-      <c r="F383" s="220"/>
-      <c r="G383" s="224">
+      <c r="F383" s="214"/>
+      <c r="G383" s="212">
         <v>500</v>
       </c>
-      <c r="H383" s="225"/>
+      <c r="H383" s="213"/>
     </row>
     <row r="384" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="96"/>
       <c r="B384" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C384" s="220" t="s">
+      <c r="C384" s="214" t="s">
         <v>291</v>
       </c>
-      <c r="D384" s="220"/>
-      <c r="E384" s="220" t="s">
+      <c r="D384" s="214"/>
+      <c r="E384" s="214" t="s">
         <v>292</v>
       </c>
-      <c r="F384" s="220"/>
-      <c r="G384" s="224">
+      <c r="F384" s="214"/>
+      <c r="G384" s="212">
         <v>3500</v>
       </c>
-      <c r="H384" s="225"/>
+      <c r="H384" s="213"/>
     </row>
     <row r="385" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A385" s="96"/>
@@ -13096,37 +13066,37 @@
     </row>
     <row r="386" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A386" s="96"/>
-      <c r="B386" s="228"/>
-      <c r="C386" s="228"/>
-      <c r="D386" s="228"/>
-      <c r="E386" s="228"/>
-      <c r="F386" s="228"/>
-      <c r="G386" s="228"/>
-      <c r="H386" s="228"/>
+      <c r="B386" s="251"/>
+      <c r="C386" s="251"/>
+      <c r="D386" s="251"/>
+      <c r="E386" s="251"/>
+      <c r="F386" s="251"/>
+      <c r="G386" s="251"/>
+      <c r="H386" s="251"/>
     </row>
     <row r="387" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A387" s="96"/>
-      <c r="B387" s="217" t="s">
+      <c r="B387" s="256" t="s">
         <v>427</v>
       </c>
-      <c r="C387" s="218"/>
-      <c r="D387" s="218"/>
-      <c r="E387" s="218"/>
-      <c r="F387" s="218"/>
-      <c r="G387" s="218"/>
-      <c r="H387" s="218"/>
+      <c r="C387" s="257"/>
+      <c r="D387" s="257"/>
+      <c r="E387" s="257"/>
+      <c r="F387" s="257"/>
+      <c r="G387" s="257"/>
+      <c r="H387" s="257"/>
     </row>
     <row r="388" spans="1:8" ht="31.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="96"/>
-      <c r="B388" s="217" t="s">
+      <c r="B388" s="256" t="s">
         <v>435</v>
       </c>
-      <c r="C388" s="218"/>
-      <c r="D388" s="218"/>
-      <c r="E388" s="218"/>
-      <c r="F388" s="218"/>
-      <c r="G388" s="218"/>
-      <c r="H388" s="218"/>
+      <c r="C388" s="257"/>
+      <c r="D388" s="257"/>
+      <c r="E388" s="257"/>
+      <c r="F388" s="257"/>
+      <c r="G388" s="257"/>
+      <c r="H388" s="257"/>
     </row>
     <row r="389" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="96"/>
@@ -13140,97 +13110,97 @@
     </row>
     <row r="390" spans="1:8" ht="25.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="96"/>
-      <c r="B390" s="216" t="s">
+      <c r="B390" s="215" t="s">
         <v>459</v>
       </c>
-      <c r="C390" s="215"/>
-      <c r="D390" s="215"/>
-      <c r="E390" s="215"/>
-      <c r="F390" s="215"/>
-      <c r="G390" s="215"/>
-      <c r="H390" s="215"/>
+      <c r="C390" s="216"/>
+      <c r="D390" s="216"/>
+      <c r="E390" s="216"/>
+      <c r="F390" s="216"/>
+      <c r="G390" s="216"/>
+      <c r="H390" s="216"/>
     </row>
     <row r="391" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A391" s="96"/>
-      <c r="B391" s="221" t="s">
+      <c r="B391" s="253" t="s">
         <v>465</v>
       </c>
-      <c r="C391" s="221"/>
-      <c r="D391" s="221"/>
-      <c r="E391" s="221"/>
-      <c r="F391" s="221"/>
-      <c r="G391" s="221"/>
-      <c r="H391" s="221"/>
+      <c r="C391" s="253"/>
+      <c r="D391" s="253"/>
+      <c r="E391" s="253"/>
+      <c r="F391" s="253"/>
+      <c r="G391" s="253"/>
+      <c r="H391" s="253"/>
     </row>
     <row r="392" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A392" s="96"/>
-      <c r="B392" s="221"/>
-      <c r="C392" s="221"/>
-      <c r="D392" s="221"/>
-      <c r="E392" s="221"/>
-      <c r="F392" s="221"/>
-      <c r="G392" s="221"/>
-      <c r="H392" s="221"/>
+      <c r="B392" s="253"/>
+      <c r="C392" s="253"/>
+      <c r="D392" s="253"/>
+      <c r="E392" s="253"/>
+      <c r="F392" s="253"/>
+      <c r="G392" s="253"/>
+      <c r="H392" s="253"/>
     </row>
     <row r="393" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A393" s="96"/>
-      <c r="B393" s="221"/>
-      <c r="C393" s="221"/>
-      <c r="D393" s="221"/>
-      <c r="E393" s="221"/>
-      <c r="F393" s="221"/>
-      <c r="G393" s="221"/>
-      <c r="H393" s="221"/>
+      <c r="B393" s="253"/>
+      <c r="C393" s="253"/>
+      <c r="D393" s="253"/>
+      <c r="E393" s="253"/>
+      <c r="F393" s="253"/>
+      <c r="G393" s="253"/>
+      <c r="H393" s="253"/>
     </row>
     <row r="394" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A394" s="96"/>
-      <c r="B394" s="221"/>
-      <c r="C394" s="221"/>
-      <c r="D394" s="221"/>
-      <c r="E394" s="221"/>
-      <c r="F394" s="221"/>
-      <c r="G394" s="221"/>
-      <c r="H394" s="221"/>
+      <c r="B394" s="253"/>
+      <c r="C394" s="253"/>
+      <c r="D394" s="253"/>
+      <c r="E394" s="253"/>
+      <c r="F394" s="253"/>
+      <c r="G394" s="253"/>
+      <c r="H394" s="253"/>
     </row>
     <row r="395" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A395" s="96"/>
-      <c r="B395" s="221"/>
-      <c r="C395" s="221"/>
-      <c r="D395" s="221"/>
-      <c r="E395" s="221"/>
-      <c r="F395" s="221"/>
-      <c r="G395" s="221"/>
-      <c r="H395" s="221"/>
+      <c r="B395" s="253"/>
+      <c r="C395" s="253"/>
+      <c r="D395" s="253"/>
+      <c r="E395" s="253"/>
+      <c r="F395" s="253"/>
+      <c r="G395" s="253"/>
+      <c r="H395" s="253"/>
     </row>
     <row r="396" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A396" s="96"/>
-      <c r="B396" s="221"/>
-      <c r="C396" s="221"/>
-      <c r="D396" s="221"/>
-      <c r="E396" s="221"/>
-      <c r="F396" s="221"/>
-      <c r="G396" s="221"/>
-      <c r="H396" s="221"/>
+      <c r="B396" s="253"/>
+      <c r="C396" s="253"/>
+      <c r="D396" s="253"/>
+      <c r="E396" s="253"/>
+      <c r="F396" s="253"/>
+      <c r="G396" s="253"/>
+      <c r="H396" s="253"/>
     </row>
     <row r="397" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="216" t="s">
+      <c r="B397" s="215" t="s">
         <v>436</v>
       </c>
-      <c r="C397" s="216"/>
-      <c r="D397" s="216"/>
-      <c r="E397" s="216"/>
-      <c r="F397" s="216"/>
-      <c r="G397" s="216"/>
-      <c r="H397" s="216"/>
+      <c r="C397" s="215"/>
+      <c r="D397" s="215"/>
+      <c r="E397" s="215"/>
+      <c r="F397" s="215"/>
+      <c r="G397" s="215"/>
+      <c r="H397" s="215"/>
     </row>
     <row r="398" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="216"/>
-      <c r="C398" s="216"/>
-      <c r="D398" s="216"/>
-      <c r="E398" s="216"/>
-      <c r="F398" s="216"/>
-      <c r="G398" s="216"/>
-      <c r="H398" s="216"/>
+      <c r="B398" s="215"/>
+      <c r="C398" s="215"/>
+      <c r="D398" s="215"/>
+      <c r="E398" s="215"/>
+      <c r="F398" s="215"/>
+      <c r="G398" s="215"/>
+      <c r="H398" s="215"/>
     </row>
     <row r="399" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="96"/>
@@ -13246,145 +13216,145 @@
     </row>
     <row r="400" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A400" s="96"/>
-      <c r="B400" s="215" t="s">
+      <c r="B400" s="216" t="s">
         <v>439</v>
       </c>
-      <c r="C400" s="215"/>
-      <c r="D400" s="215"/>
-      <c r="E400" s="215"/>
-      <c r="F400" s="215"/>
-      <c r="G400" s="215"/>
-      <c r="H400" s="215"/>
+      <c r="C400" s="216"/>
+      <c r="D400" s="216"/>
+      <c r="E400" s="216"/>
+      <c r="F400" s="216"/>
+      <c r="G400" s="216"/>
+      <c r="H400" s="216"/>
     </row>
     <row r="401" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A401" s="96"/>
-      <c r="B401" s="215"/>
-      <c r="C401" s="215"/>
-      <c r="D401" s="215"/>
-      <c r="E401" s="215"/>
-      <c r="F401" s="215"/>
-      <c r="G401" s="215"/>
-      <c r="H401" s="215"/>
+      <c r="B401" s="216"/>
+      <c r="C401" s="216"/>
+      <c r="D401" s="216"/>
+      <c r="E401" s="216"/>
+      <c r="F401" s="216"/>
+      <c r="G401" s="216"/>
+      <c r="H401" s="216"/>
     </row>
     <row r="402" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A402" s="96"/>
-      <c r="B402" s="215" t="s">
+      <c r="B402" s="216" t="s">
         <v>438</v>
       </c>
-      <c r="C402" s="215"/>
-      <c r="D402" s="215"/>
-      <c r="E402" s="215"/>
-      <c r="F402" s="215"/>
-      <c r="G402" s="215"/>
-      <c r="H402" s="215"/>
+      <c r="C402" s="216"/>
+      <c r="D402" s="216"/>
+      <c r="E402" s="216"/>
+      <c r="F402" s="216"/>
+      <c r="G402" s="216"/>
+      <c r="H402" s="216"/>
     </row>
     <row r="403" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A403" s="96"/>
-      <c r="B403" s="215"/>
-      <c r="C403" s="215"/>
-      <c r="D403" s="215"/>
-      <c r="E403" s="215"/>
-      <c r="F403" s="215"/>
-      <c r="G403" s="215"/>
-      <c r="H403" s="215"/>
+      <c r="B403" s="216"/>
+      <c r="C403" s="216"/>
+      <c r="D403" s="216"/>
+      <c r="E403" s="216"/>
+      <c r="F403" s="216"/>
+      <c r="G403" s="216"/>
+      <c r="H403" s="216"/>
     </row>
     <row r="404" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A404" s="96"/>
-      <c r="B404" s="215" t="s">
+      <c r="B404" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="C404" s="215"/>
-      <c r="D404" s="215"/>
-      <c r="E404" s="215"/>
-      <c r="F404" s="215"/>
-      <c r="G404" s="215"/>
-      <c r="H404" s="215"/>
+      <c r="C404" s="216"/>
+      <c r="D404" s="216"/>
+      <c r="E404" s="216"/>
+      <c r="F404" s="216"/>
+      <c r="G404" s="216"/>
+      <c r="H404" s="216"/>
     </row>
     <row r="405" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A405" s="96"/>
-      <c r="B405" s="215"/>
-      <c r="C405" s="215"/>
-      <c r="D405" s="215"/>
-      <c r="E405" s="215"/>
-      <c r="F405" s="215"/>
-      <c r="G405" s="215"/>
-      <c r="H405" s="215"/>
+      <c r="B405" s="216"/>
+      <c r="C405" s="216"/>
+      <c r="D405" s="216"/>
+      <c r="E405" s="216"/>
+      <c r="F405" s="216"/>
+      <c r="G405" s="216"/>
+      <c r="H405" s="216"/>
     </row>
     <row r="406" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A406" s="96"/>
-      <c r="B406" s="221" t="s">
+      <c r="B406" s="253" t="s">
         <v>463</v>
       </c>
-      <c r="C406" s="221"/>
-      <c r="D406" s="221"/>
-      <c r="E406" s="221"/>
-      <c r="F406" s="221"/>
-      <c r="G406" s="221"/>
-      <c r="H406" s="221"/>
+      <c r="C406" s="253"/>
+      <c r="D406" s="253"/>
+      <c r="E406" s="253"/>
+      <c r="F406" s="253"/>
+      <c r="G406" s="253"/>
+      <c r="H406" s="253"/>
     </row>
     <row r="407" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A407" s="96"/>
-      <c r="B407" s="221"/>
-      <c r="C407" s="221"/>
-      <c r="D407" s="221"/>
-      <c r="E407" s="221"/>
-      <c r="F407" s="221"/>
-      <c r="G407" s="221"/>
-      <c r="H407" s="221"/>
+      <c r="B407" s="253"/>
+      <c r="C407" s="253"/>
+      <c r="D407" s="253"/>
+      <c r="E407" s="253"/>
+      <c r="F407" s="253"/>
+      <c r="G407" s="253"/>
+      <c r="H407" s="253"/>
     </row>
     <row r="408" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A408" s="96"/>
-      <c r="B408" s="222" t="s">
+      <c r="B408" s="254" t="s">
         <v>460</v>
       </c>
-      <c r="C408" s="222"/>
-      <c r="D408" s="222"/>
-      <c r="E408" s="222"/>
-      <c r="F408" s="222"/>
-      <c r="G408" s="222"/>
-      <c r="H408" s="222"/>
+      <c r="C408" s="254"/>
+      <c r="D408" s="254"/>
+      <c r="E408" s="254"/>
+      <c r="F408" s="254"/>
+      <c r="G408" s="254"/>
+      <c r="H408" s="254"/>
     </row>
     <row r="409" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A409" s="96"/>
-      <c r="B409" s="222"/>
-      <c r="C409" s="222"/>
-      <c r="D409" s="222"/>
-      <c r="E409" s="222"/>
-      <c r="F409" s="222"/>
-      <c r="G409" s="222"/>
-      <c r="H409" s="222"/>
+      <c r="B409" s="254"/>
+      <c r="C409" s="254"/>
+      <c r="D409" s="254"/>
+      <c r="E409" s="254"/>
+      <c r="F409" s="254"/>
+      <c r="G409" s="254"/>
+      <c r="H409" s="254"/>
     </row>
     <row r="410" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A410" s="96"/>
-      <c r="B410" s="222"/>
-      <c r="C410" s="222"/>
-      <c r="D410" s="222"/>
-      <c r="E410" s="222"/>
-      <c r="F410" s="222"/>
-      <c r="G410" s="222"/>
-      <c r="H410" s="222"/>
+      <c r="B410" s="254"/>
+      <c r="C410" s="254"/>
+      <c r="D410" s="254"/>
+      <c r="E410" s="254"/>
+      <c r="F410" s="254"/>
+      <c r="G410" s="254"/>
+      <c r="H410" s="254"/>
     </row>
     <row r="411" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A411" s="96"/>
-      <c r="B411" s="214" t="s">
+      <c r="B411" s="255" t="s">
         <v>440</v>
       </c>
-      <c r="C411" s="214"/>
-      <c r="D411" s="214"/>
-      <c r="E411" s="214"/>
-      <c r="F411" s="214"/>
-      <c r="G411" s="214"/>
-      <c r="H411" s="214"/>
+      <c r="C411" s="255"/>
+      <c r="D411" s="255"/>
+      <c r="E411" s="255"/>
+      <c r="F411" s="255"/>
+      <c r="G411" s="255"/>
+      <c r="H411" s="255"/>
     </row>
     <row r="412" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A412" s="96"/>
-      <c r="B412" s="214"/>
-      <c r="C412" s="214"/>
-      <c r="D412" s="214"/>
-      <c r="E412" s="214"/>
-      <c r="F412" s="214"/>
-      <c r="G412" s="214"/>
-      <c r="H412" s="214"/>
+      <c r="B412" s="255"/>
+      <c r="C412" s="255"/>
+      <c r="D412" s="255"/>
+      <c r="E412" s="255"/>
+      <c r="F412" s="255"/>
+      <c r="G412" s="255"/>
+      <c r="H412" s="255"/>
     </row>
     <row r="413" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A413" s="96"/>
@@ -13447,15 +13417,15 @@
     </row>
     <row r="419" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A419" s="137"/>
-      <c r="B419" s="260" t="s">
+      <c r="B419" s="209" t="s">
         <v>428</v>
       </c>
-      <c r="C419" s="261"/>
-      <c r="D419" s="261"/>
-      <c r="E419" s="261"/>
-      <c r="F419" s="261"/>
-      <c r="G419" s="261"/>
-      <c r="H419" s="262"/>
+      <c r="C419" s="210"/>
+      <c r="D419" s="210"/>
+      <c r="E419" s="210"/>
+      <c r="F419" s="210"/>
+      <c r="G419" s="210"/>
+      <c r="H419" s="211"/>
     </row>
     <row r="420" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B420" s="168"/>
@@ -13468,38 +13438,38 @@
     </row>
     <row r="421" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="97"/>
-      <c r="B421" s="267" t="s">
+      <c r="B421" s="204" t="s">
         <v>466</v>
       </c>
-      <c r="C421" s="267"/>
-      <c r="D421" s="267"/>
-      <c r="E421" s="267"/>
-      <c r="F421" s="267"/>
-      <c r="G421" s="267"/>
+      <c r="C421" s="204"/>
+      <c r="D421" s="204"/>
+      <c r="E421" s="204"/>
+      <c r="F421" s="204"/>
+      <c r="G421" s="204"/>
       <c r="H421" s="170"/>
     </row>
     <row r="422" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="138"/>
-      <c r="B422" s="268" t="s">
+      <c r="B422" s="205" t="s">
         <v>429</v>
       </c>
-      <c r="C422" s="268"/>
-      <c r="D422" s="268"/>
-      <c r="E422" s="268"/>
-      <c r="F422" s="268"/>
-      <c r="G422" s="268"/>
+      <c r="C422" s="205"/>
+      <c r="D422" s="205"/>
+      <c r="E422" s="205"/>
+      <c r="F422" s="205"/>
+      <c r="G422" s="205"/>
       <c r="H422" s="171"/>
     </row>
     <row r="423" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="118"/>
-      <c r="B423" s="258" t="s">
+      <c r="B423" s="207" t="s">
         <v>430</v>
       </c>
-      <c r="C423" s="259"/>
-      <c r="D423" s="259"/>
-      <c r="E423" s="259"/>
-      <c r="F423" s="259"/>
-      <c r="G423" s="259"/>
+      <c r="C423" s="208"/>
+      <c r="D423" s="208"/>
+      <c r="E423" s="208"/>
+      <c r="F423" s="208"/>
+      <c r="G423" s="208"/>
       <c r="H423" s="172"/>
     </row>
     <row r="424" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13529,24 +13499,295 @@
     </row>
   </sheetData>
   <mergeCells count="337">
-    <mergeCell ref="G1:H6"/>
-    <mergeCell ref="B421:G421"/>
-    <mergeCell ref="B422:G422"/>
-    <mergeCell ref="G321:H321"/>
-    <mergeCell ref="G322:H322"/>
-    <mergeCell ref="G323:H323"/>
-    <mergeCell ref="G324:H324"/>
-    <mergeCell ref="G325:H325"/>
-    <mergeCell ref="G326:H326"/>
-    <mergeCell ref="G291:H291"/>
-    <mergeCell ref="G292:H292"/>
-    <mergeCell ref="G293:H293"/>
-    <mergeCell ref="G294:H294"/>
-    <mergeCell ref="G295:H295"/>
-    <mergeCell ref="G296:H296"/>
-    <mergeCell ref="G297:H297"/>
-    <mergeCell ref="G298:H298"/>
-    <mergeCell ref="G299:H299"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="B77:H78"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="B411:H412"/>
+    <mergeCell ref="B400:H401"/>
+    <mergeCell ref="B402:H403"/>
+    <mergeCell ref="B404:H405"/>
+    <mergeCell ref="B397:H398"/>
+    <mergeCell ref="B387:H387"/>
+    <mergeCell ref="B388:H388"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C365:D365"/>
+    <mergeCell ref="C366:D366"/>
+    <mergeCell ref="C367:D367"/>
+    <mergeCell ref="E365:F365"/>
+    <mergeCell ref="E366:F366"/>
+    <mergeCell ref="E367:F367"/>
+    <mergeCell ref="B406:H407"/>
+    <mergeCell ref="B408:H410"/>
+    <mergeCell ref="B391:H396"/>
+    <mergeCell ref="E368:F368"/>
+    <mergeCell ref="E369:F369"/>
+    <mergeCell ref="E370:F370"/>
+    <mergeCell ref="E371:F371"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="C368:D368"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="C372:D372"/>
+    <mergeCell ref="C384:D384"/>
+    <mergeCell ref="E377:F377"/>
+    <mergeCell ref="E378:F378"/>
+    <mergeCell ref="E379:F379"/>
+    <mergeCell ref="E375:F375"/>
+    <mergeCell ref="E359:F359"/>
+    <mergeCell ref="E360:F360"/>
+    <mergeCell ref="E361:F361"/>
+    <mergeCell ref="E362:F362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="E364:F364"/>
+    <mergeCell ref="C359:D359"/>
+    <mergeCell ref="C349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="C351:D351"/>
+    <mergeCell ref="C352:D352"/>
+    <mergeCell ref="C353:D353"/>
+    <mergeCell ref="C354:D354"/>
+    <mergeCell ref="C355:D355"/>
+    <mergeCell ref="E356:F356"/>
+    <mergeCell ref="C356:D356"/>
+    <mergeCell ref="C360:D360"/>
+    <mergeCell ref="C361:D361"/>
+    <mergeCell ref="C362:D362"/>
+    <mergeCell ref="C363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="E354:F354"/>
+    <mergeCell ref="E355:F355"/>
+    <mergeCell ref="C347:D347"/>
+    <mergeCell ref="C348:D348"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="E344:F344"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="E345:F345"/>
+    <mergeCell ref="C345:D345"/>
+    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="C341:D341"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="E347:F347"/>
+    <mergeCell ref="E348:F348"/>
+    <mergeCell ref="E349:F349"/>
+    <mergeCell ref="E350:F350"/>
+    <mergeCell ref="E351:F351"/>
+    <mergeCell ref="E352:F352"/>
+    <mergeCell ref="E383:F383"/>
+    <mergeCell ref="E384:F384"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="C383:D383"/>
+    <mergeCell ref="B386:H386"/>
+    <mergeCell ref="G378:H378"/>
+    <mergeCell ref="G368:H368"/>
+    <mergeCell ref="G369:H369"/>
+    <mergeCell ref="G370:H370"/>
+    <mergeCell ref="C374:D374"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E373:F373"/>
+    <mergeCell ref="E374:F374"/>
+    <mergeCell ref="E382:F382"/>
+    <mergeCell ref="G375:H375"/>
+    <mergeCell ref="G376:H376"/>
+    <mergeCell ref="G377:H377"/>
+    <mergeCell ref="G373:H373"/>
+    <mergeCell ref="G374:H374"/>
+    <mergeCell ref="E376:F376"/>
+    <mergeCell ref="C342:D342"/>
+    <mergeCell ref="F280:H280"/>
+    <mergeCell ref="F271:H271"/>
+    <mergeCell ref="F272:H272"/>
+    <mergeCell ref="F273:H273"/>
+    <mergeCell ref="F274:H274"/>
+    <mergeCell ref="F275:H275"/>
+    <mergeCell ref="F276:H276"/>
+    <mergeCell ref="F277:H277"/>
+    <mergeCell ref="F278:H278"/>
+    <mergeCell ref="F279:H279"/>
+    <mergeCell ref="G284:H284"/>
+    <mergeCell ref="G285:H285"/>
+    <mergeCell ref="G286:H286"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="G313:H313"/>
+    <mergeCell ref="G314:H314"/>
+    <mergeCell ref="G315:H315"/>
+    <mergeCell ref="G316:H316"/>
+    <mergeCell ref="G317:H317"/>
+    <mergeCell ref="G318:H318"/>
+    <mergeCell ref="G340:H340"/>
+    <mergeCell ref="G341:H341"/>
+    <mergeCell ref="E340:F340"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="F264:H264"/>
+    <mergeCell ref="F265:H265"/>
+    <mergeCell ref="F266:H266"/>
+    <mergeCell ref="F267:H267"/>
+    <mergeCell ref="F268:H268"/>
+    <mergeCell ref="F269:H269"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F263:H263"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="F261:H261"/>
+    <mergeCell ref="F260:H260"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="F270:H270"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="B175:H176"/>
+    <mergeCell ref="G290:H290"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="G287:H287"/>
+    <mergeCell ref="G288:H288"/>
+    <mergeCell ref="B281:G281"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G246:H246"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F223:H223"/>
+    <mergeCell ref="F222:H222"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B177:H177"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="G247:H247"/>
+    <mergeCell ref="F224:H224"/>
+    <mergeCell ref="C236:H236"/>
+    <mergeCell ref="G348:H348"/>
+    <mergeCell ref="G349:H349"/>
+    <mergeCell ref="G350:H350"/>
+    <mergeCell ref="G249:H249"/>
+    <mergeCell ref="G250:H250"/>
+    <mergeCell ref="G251:H251"/>
+    <mergeCell ref="G252:H252"/>
+    <mergeCell ref="G240:H240"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="G242:H242"/>
+    <mergeCell ref="G243:H243"/>
+    <mergeCell ref="G244:H244"/>
+    <mergeCell ref="G245:H245"/>
+    <mergeCell ref="G309:H309"/>
+    <mergeCell ref="G310:H310"/>
+    <mergeCell ref="G311:H311"/>
+    <mergeCell ref="G312:H312"/>
+    <mergeCell ref="G289:H289"/>
+    <mergeCell ref="G248:H248"/>
+    <mergeCell ref="B253:H254"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="G367:H367"/>
+    <mergeCell ref="G364:H364"/>
+    <mergeCell ref="G346:H346"/>
+    <mergeCell ref="G351:H351"/>
+    <mergeCell ref="G352:H352"/>
+    <mergeCell ref="G353:H353"/>
+    <mergeCell ref="G354:H354"/>
+    <mergeCell ref="G355:H355"/>
+    <mergeCell ref="G356:H356"/>
+    <mergeCell ref="G359:H359"/>
+    <mergeCell ref="G360:H360"/>
+    <mergeCell ref="G361:H361"/>
+    <mergeCell ref="G347:H347"/>
+    <mergeCell ref="G363:H363"/>
+    <mergeCell ref="G300:H300"/>
+    <mergeCell ref="G301:H301"/>
+    <mergeCell ref="G302:H302"/>
+    <mergeCell ref="G303:H303"/>
+    <mergeCell ref="G304:H304"/>
+    <mergeCell ref="G305:H305"/>
+    <mergeCell ref="G306:H306"/>
+    <mergeCell ref="G307:H307"/>
+    <mergeCell ref="G308:H308"/>
     <mergeCell ref="B423:G423"/>
     <mergeCell ref="B419:H419"/>
     <mergeCell ref="G327:H327"/>
@@ -13571,301 +13812,30 @@
     <mergeCell ref="C346:D346"/>
     <mergeCell ref="B390:H390"/>
     <mergeCell ref="C373:D373"/>
+    <mergeCell ref="G1:H6"/>
+    <mergeCell ref="B421:G421"/>
+    <mergeCell ref="B422:G422"/>
+    <mergeCell ref="G321:H321"/>
+    <mergeCell ref="G322:H322"/>
+    <mergeCell ref="G323:H323"/>
+    <mergeCell ref="G324:H324"/>
+    <mergeCell ref="G325:H325"/>
+    <mergeCell ref="G326:H326"/>
+    <mergeCell ref="G291:H291"/>
+    <mergeCell ref="G292:H292"/>
+    <mergeCell ref="G293:H293"/>
+    <mergeCell ref="G294:H294"/>
+    <mergeCell ref="G295:H295"/>
+    <mergeCell ref="G296:H296"/>
+    <mergeCell ref="G297:H297"/>
+    <mergeCell ref="G298:H298"/>
+    <mergeCell ref="G299:H299"/>
     <mergeCell ref="G365:H365"/>
     <mergeCell ref="G372:H372"/>
     <mergeCell ref="G371:H371"/>
     <mergeCell ref="G319:H319"/>
     <mergeCell ref="G320:H320"/>
     <mergeCell ref="G362:H362"/>
-    <mergeCell ref="G300:H300"/>
-    <mergeCell ref="G301:H301"/>
-    <mergeCell ref="G302:H302"/>
-    <mergeCell ref="G303:H303"/>
-    <mergeCell ref="G304:H304"/>
-    <mergeCell ref="G305:H305"/>
-    <mergeCell ref="G306:H306"/>
-    <mergeCell ref="G307:H307"/>
-    <mergeCell ref="G308:H308"/>
-    <mergeCell ref="G367:H367"/>
-    <mergeCell ref="G364:H364"/>
-    <mergeCell ref="G346:H346"/>
-    <mergeCell ref="G351:H351"/>
-    <mergeCell ref="G352:H352"/>
-    <mergeCell ref="G353:H353"/>
-    <mergeCell ref="G354:H354"/>
-    <mergeCell ref="G355:H355"/>
-    <mergeCell ref="G356:H356"/>
-    <mergeCell ref="G359:H359"/>
-    <mergeCell ref="G360:H360"/>
-    <mergeCell ref="G361:H361"/>
-    <mergeCell ref="G247:H247"/>
-    <mergeCell ref="F224:H224"/>
-    <mergeCell ref="C236:H236"/>
-    <mergeCell ref="G348:H348"/>
-    <mergeCell ref="G349:H349"/>
-    <mergeCell ref="G350:H350"/>
-    <mergeCell ref="G249:H249"/>
-    <mergeCell ref="G250:H250"/>
-    <mergeCell ref="G251:H251"/>
-    <mergeCell ref="G252:H252"/>
-    <mergeCell ref="G240:H240"/>
-    <mergeCell ref="G241:H241"/>
-    <mergeCell ref="G242:H242"/>
-    <mergeCell ref="G243:H243"/>
-    <mergeCell ref="G244:H244"/>
-    <mergeCell ref="G245:H245"/>
-    <mergeCell ref="G309:H309"/>
-    <mergeCell ref="G310:H310"/>
-    <mergeCell ref="G311:H311"/>
-    <mergeCell ref="G312:H312"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G246:H246"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F223:H223"/>
-    <mergeCell ref="F222:H222"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B177:H177"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="B175:H176"/>
-    <mergeCell ref="G290:H290"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="G287:H287"/>
-    <mergeCell ref="G288:H288"/>
-    <mergeCell ref="B281:G281"/>
-    <mergeCell ref="G289:H289"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="F264:H264"/>
-    <mergeCell ref="F265:H265"/>
-    <mergeCell ref="F266:H266"/>
-    <mergeCell ref="F267:H267"/>
-    <mergeCell ref="F268:H268"/>
-    <mergeCell ref="F269:H269"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F263:H263"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="F261:H261"/>
-    <mergeCell ref="F260:H260"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="F270:H270"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="G248:H248"/>
-    <mergeCell ref="B253:H254"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="C342:D342"/>
-    <mergeCell ref="F280:H280"/>
-    <mergeCell ref="F271:H271"/>
-    <mergeCell ref="F272:H272"/>
-    <mergeCell ref="F273:H273"/>
-    <mergeCell ref="F274:H274"/>
-    <mergeCell ref="F275:H275"/>
-    <mergeCell ref="F276:H276"/>
-    <mergeCell ref="F277:H277"/>
-    <mergeCell ref="F278:H278"/>
-    <mergeCell ref="F279:H279"/>
-    <mergeCell ref="G284:H284"/>
-    <mergeCell ref="G285:H285"/>
-    <mergeCell ref="G286:H286"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="G313:H313"/>
-    <mergeCell ref="G314:H314"/>
-    <mergeCell ref="G315:H315"/>
-    <mergeCell ref="G316:H316"/>
-    <mergeCell ref="G317:H317"/>
-    <mergeCell ref="G318:H318"/>
-    <mergeCell ref="E383:F383"/>
-    <mergeCell ref="E384:F384"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="C383:D383"/>
-    <mergeCell ref="B386:H386"/>
-    <mergeCell ref="G378:H378"/>
-    <mergeCell ref="G368:H368"/>
-    <mergeCell ref="G369:H369"/>
-    <mergeCell ref="G370:H370"/>
-    <mergeCell ref="C374:D374"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E373:F373"/>
-    <mergeCell ref="E374:F374"/>
-    <mergeCell ref="E382:F382"/>
-    <mergeCell ref="G375:H375"/>
-    <mergeCell ref="G376:H376"/>
-    <mergeCell ref="G377:H377"/>
-    <mergeCell ref="G373:H373"/>
-    <mergeCell ref="G374:H374"/>
-    <mergeCell ref="G347:H347"/>
-    <mergeCell ref="G363:H363"/>
-    <mergeCell ref="E376:F376"/>
-    <mergeCell ref="G340:H340"/>
-    <mergeCell ref="G341:H341"/>
-    <mergeCell ref="E340:F340"/>
-    <mergeCell ref="C340:D340"/>
-    <mergeCell ref="C341:D341"/>
-    <mergeCell ref="E341:F341"/>
-    <mergeCell ref="E347:F347"/>
-    <mergeCell ref="E348:F348"/>
-    <mergeCell ref="E349:F349"/>
-    <mergeCell ref="E350:F350"/>
-    <mergeCell ref="E351:F351"/>
-    <mergeCell ref="E352:F352"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="E354:F354"/>
-    <mergeCell ref="E355:F355"/>
-    <mergeCell ref="C347:D347"/>
-    <mergeCell ref="C348:D348"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="E344:F344"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="C344:D344"/>
-    <mergeCell ref="E345:F345"/>
-    <mergeCell ref="C345:D345"/>
-    <mergeCell ref="E359:F359"/>
-    <mergeCell ref="E360:F360"/>
-    <mergeCell ref="E361:F361"/>
-    <mergeCell ref="E362:F362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="E364:F364"/>
-    <mergeCell ref="C359:D359"/>
-    <mergeCell ref="C349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="C351:D351"/>
-    <mergeCell ref="C352:D352"/>
-    <mergeCell ref="C353:D353"/>
-    <mergeCell ref="C354:D354"/>
-    <mergeCell ref="C355:D355"/>
-    <mergeCell ref="E356:F356"/>
-    <mergeCell ref="C356:D356"/>
-    <mergeCell ref="C360:D360"/>
-    <mergeCell ref="C361:D361"/>
-    <mergeCell ref="C362:D362"/>
-    <mergeCell ref="C363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="C365:D365"/>
-    <mergeCell ref="C366:D366"/>
-    <mergeCell ref="C367:D367"/>
-    <mergeCell ref="E365:F365"/>
-    <mergeCell ref="E366:F366"/>
-    <mergeCell ref="E367:F367"/>
-    <mergeCell ref="B406:H407"/>
-    <mergeCell ref="B408:H410"/>
-    <mergeCell ref="B391:H396"/>
-    <mergeCell ref="E368:F368"/>
-    <mergeCell ref="E369:F369"/>
-    <mergeCell ref="E370:F370"/>
-    <mergeCell ref="E371:F371"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="C368:D368"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="C370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="C372:D372"/>
-    <mergeCell ref="C384:D384"/>
-    <mergeCell ref="E377:F377"/>
-    <mergeCell ref="E378:F378"/>
-    <mergeCell ref="E379:F379"/>
-    <mergeCell ref="E375:F375"/>
-    <mergeCell ref="B411:H412"/>
-    <mergeCell ref="B400:H401"/>
-    <mergeCell ref="B402:H403"/>
-    <mergeCell ref="B404:H405"/>
-    <mergeCell ref="B397:H398"/>
-    <mergeCell ref="B387:H387"/>
-    <mergeCell ref="B388:H388"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="B77:H78"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/src/Components/Price/ПРАЙС-ЛИСТ от 01.04.2025.xlsx
+++ b/src/Components/Price/ПРАЙС-ЛИСТ от 01.04.2025.xlsx
@@ -2522,9 +2522,6 @@
     </r>
   </si>
   <si>
-    <t>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (</t>
-  </si>
-  <si>
     <t>Примечание – При показателе консистенции менее 0,25 или коэффициенте пористости более 1 к цене комплексных физико-механических испытаний применяется коэффициент 1,3 согласно примечанию к таблице 63 Справочника базовых цен.</t>
   </si>
   <si>
@@ -2546,9 +2543,6 @@
     <t>Цена испытания в приборе трехосного сжатия и срезовом приборе, руб</t>
   </si>
   <si>
-    <t>01.04.2025 г.</t>
-  </si>
-  <si>
     <t>Определение потери прочности при сейсмическом воздействии методом трехосных сжатий (глинистые грунты)</t>
   </si>
   <si>
@@ -2571,6 +2565,12 @@
   </si>
   <si>
     <t>66§5 ÷ 3</t>
+  </si>
+  <si>
+    <t>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (</t>
+  </si>
+  <si>
+    <t>21.04.2025 г.</t>
   </si>
 </sst>
 </file>
@@ -4558,6 +4558,30 @@
     <xf numFmtId="4" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -4567,9 +4591,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4585,128 +4606,107 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5147,8 +5147,8 @@
   </sheetPr>
   <dimension ref="A1:I426"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A160" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5163,40 +5163,40 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E1" s="113"/>
       <c r="F1" s="113"/>
-      <c r="G1" s="203" t="s">
+      <c r="G1" s="211" t="s">
         <v>431</v>
       </c>
-      <c r="H1" s="203"/>
+      <c r="H1" s="211"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="113"/>
       <c r="F2" s="113"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E3" s="113"/>
       <c r="F3" s="113"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
     </row>
     <row r="4" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="113"/>
       <c r="F4" s="113"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" s="113"/>
       <c r="F5" s="113"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E6" s="113"/>
       <c r="F6" s="113"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
     </row>
     <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="114"/>
@@ -5225,7 +5225,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="113"/>
       <c r="B9" s="184" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C9" s="184"/>
       <c r="D9" s="184"/>
@@ -5293,15 +5293,15 @@
       </c>
       <c r="E14" s="29" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
       </c>
       <c r="F14" s="187" t="s">
         <v>387</v>
       </c>
-      <c r="G14" s="231" t="s">
+      <c r="G14" s="243" t="s">
         <v>388</v>
       </c>
-      <c r="H14" s="231"/>
+      <c r="H14" s="243"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
@@ -5338,16 +5338,16 @@
       </c>
       <c r="E16" s="32">
         <f>D16*Лист2!$B$3</f>
-        <v>414.846</v>
+        <v>423.96600000000001</v>
       </c>
       <c r="F16" s="49">
         <v>0.45</v>
       </c>
-      <c r="G16" s="206">
+      <c r="G16" s="207">
         <f>E16*F16</f>
-        <v>186.6807</v>
-      </c>
-      <c r="H16" s="206"/>
+        <v>190.78470000000002</v>
+      </c>
+      <c r="H16" s="207"/>
     </row>
     <row r="17" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
@@ -5362,16 +5362,16 @@
       </c>
       <c r="E17" s="32">
         <f>D17*Лист2!$B$3</f>
-        <v>291.12</v>
+        <v>297.52</v>
       </c>
       <c r="F17" s="49">
         <v>0.45</v>
       </c>
-      <c r="G17" s="206">
+      <c r="G17" s="207">
         <f t="shared" ref="G17:G64" si="0">E17*F17</f>
-        <v>131.00400000000002</v>
-      </c>
-      <c r="H17" s="206"/>
+        <v>133.88399999999999</v>
+      </c>
+      <c r="H17" s="207"/>
     </row>
     <row r="18" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
@@ -5386,16 +5386,16 @@
       </c>
       <c r="E18" s="32">
         <f>D18*Лист2!$B$3</f>
-        <v>705.96600000000001</v>
+        <v>721.48599999999988</v>
       </c>
       <c r="F18" s="49">
         <v>0.45</v>
       </c>
-      <c r="G18" s="206">
+      <c r="G18" s="207">
         <f t="shared" si="0"/>
-        <v>317.68470000000002</v>
-      </c>
-      <c r="H18" s="206"/>
+        <v>324.66869999999994</v>
+      </c>
+      <c r="H18" s="207"/>
     </row>
     <row r="19" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
@@ -5410,16 +5410,16 @@
       </c>
       <c r="E19" s="32">
         <f>D19*Лист2!$B$3</f>
-        <v>524.01600000000008</v>
+        <v>535.53599999999994</v>
       </c>
       <c r="F19" s="49">
         <v>0.45</v>
       </c>
-      <c r="G19" s="206">
+      <c r="G19" s="207">
         <f t="shared" si="0"/>
-        <v>235.80720000000005</v>
-      </c>
-      <c r="H19" s="206"/>
+        <v>240.99119999999999</v>
+      </c>
+      <c r="H19" s="207"/>
     </row>
     <row r="20" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -5434,16 +5434,16 @@
       </c>
       <c r="E20" s="32">
         <f>D20*Лист2!$B$3</f>
-        <v>1324.596</v>
+        <v>1353.7159999999999</v>
       </c>
       <c r="F20" s="49">
         <v>0.45</v>
       </c>
-      <c r="G20" s="206">
+      <c r="G20" s="207">
         <f t="shared" si="0"/>
-        <v>596.06820000000005</v>
-      </c>
-      <c r="H20" s="206"/>
+        <v>609.17219999999998</v>
+      </c>
+      <c r="H20" s="207"/>
     </row>
     <row r="21" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
@@ -5458,16 +5458,16 @@
       </c>
       <c r="E21" s="32">
         <f>D21*Лист2!$B$3</f>
-        <v>1470.1559999999999</v>
+        <v>1502.4759999999999</v>
       </c>
       <c r="F21" s="49">
         <v>0.45</v>
       </c>
-      <c r="G21" s="206">
+      <c r="G21" s="207">
         <f t="shared" si="0"/>
-        <v>661.5702</v>
-      </c>
-      <c r="H21" s="206"/>
+        <v>676.11419999999998</v>
+      </c>
+      <c r="H21" s="207"/>
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
@@ -5482,16 +5482,16 @@
       </c>
       <c r="E22" s="32">
         <f>D22*Лист2!$B$3</f>
-        <v>1426.4880000000001</v>
+        <v>1457.848</v>
       </c>
       <c r="F22" s="49">
         <v>0.45</v>
       </c>
-      <c r="G22" s="206">
+      <c r="G22" s="207">
         <f t="shared" si="0"/>
-        <v>641.91960000000006</v>
-      </c>
-      <c r="H22" s="206"/>
+        <v>656.03160000000003</v>
+      </c>
+      <c r="H22" s="207"/>
     </row>
     <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
@@ -5506,16 +5506,16 @@
       </c>
       <c r="E23" s="32">
         <f>D23*Лист2!$B$3</f>
-        <v>997.08600000000001</v>
+        <v>1019.0059999999999</v>
       </c>
       <c r="F23" s="49">
         <v>0.45</v>
       </c>
-      <c r="G23" s="206">
+      <c r="G23" s="207">
         <f t="shared" si="0"/>
-        <v>448.68870000000004</v>
-      </c>
-      <c r="H23" s="206"/>
+        <v>458.55269999999996</v>
+      </c>
+      <c r="H23" s="207"/>
     </row>
     <row r="24" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
@@ -5530,16 +5530,16 @@
       </c>
       <c r="E24" s="32">
         <f>D24*Лист2!$B$3</f>
-        <v>516.73799999999994</v>
+        <v>528.09799999999996</v>
       </c>
       <c r="F24" s="49">
         <v>0.45</v>
       </c>
-      <c r="G24" s="206">
+      <c r="G24" s="207">
         <f t="shared" si="0"/>
-        <v>232.53209999999999</v>
-      </c>
-      <c r="H24" s="206"/>
+        <v>237.64409999999998</v>
+      </c>
+      <c r="H24" s="207"/>
     </row>
     <row r="25" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
@@ -5554,16 +5554,16 @@
       </c>
       <c r="E25" s="32">
         <f>D25*Лист2!$B$3</f>
-        <v>363.9</v>
+        <v>371.9</v>
       </c>
       <c r="F25" s="49">
         <v>0.45</v>
       </c>
-      <c r="G25" s="206">
+      <c r="G25" s="207">
         <f t="shared" si="0"/>
-        <v>163.755</v>
-      </c>
-      <c r="H25" s="206"/>
+        <v>167.35499999999999</v>
+      </c>
+      <c r="H25" s="207"/>
     </row>
     <row r="26" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
@@ -5578,16 +5578,16 @@
       </c>
       <c r="E26" s="32">
         <f>D26*Лист2!$B$3</f>
-        <v>3427.9380000000001</v>
+        <v>3503.2979999999998</v>
       </c>
       <c r="F26" s="49">
         <v>0.45</v>
       </c>
-      <c r="G26" s="206">
+      <c r="G26" s="207">
         <f t="shared" si="0"/>
-        <v>1542.5721000000001</v>
-      </c>
-      <c r="H26" s="206"/>
+        <v>1576.4840999999999</v>
+      </c>
+      <c r="H26" s="207"/>
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
@@ -5602,16 +5602,16 @@
       </c>
       <c r="E27" s="32">
         <f>D27*Лист2!$B$3</f>
-        <v>4956.3179999999993</v>
+        <v>5065.2779999999993</v>
       </c>
       <c r="F27" s="49">
         <v>0.45</v>
       </c>
-      <c r="G27" s="206">
+      <c r="G27" s="207">
         <f t="shared" si="0"/>
-        <v>2230.3430999999996</v>
-      </c>
-      <c r="H27" s="206"/>
+        <v>2279.3750999999997</v>
+      </c>
+      <c r="H27" s="207"/>
     </row>
     <row r="28" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
@@ -5626,16 +5626,16 @@
       </c>
       <c r="E28" s="32">
         <f>D28*Лист2!$B$3</f>
-        <v>1186.3140000000001</v>
+        <v>1212.394</v>
       </c>
       <c r="F28" s="49">
         <v>0.45</v>
       </c>
-      <c r="G28" s="206">
+      <c r="G28" s="207">
         <f t="shared" si="0"/>
-        <v>533.84130000000005</v>
-      </c>
-      <c r="H28" s="206"/>
+        <v>545.57730000000004</v>
+      </c>
+      <c r="H28" s="207"/>
     </row>
     <row r="29" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
@@ -5650,16 +5650,16 @@
       </c>
       <c r="E29" s="32">
         <f>D29*Лист2!$B$3</f>
-        <v>1324.596</v>
+        <v>1353.7159999999999</v>
       </c>
       <c r="F29" s="49">
         <v>0.45</v>
       </c>
-      <c r="G29" s="206">
+      <c r="G29" s="207">
         <f>E29*F29</f>
-        <v>596.06820000000005</v>
-      </c>
-      <c r="H29" s="206"/>
+        <v>609.17219999999998</v>
+      </c>
+      <c r="H29" s="207"/>
     </row>
     <row r="30" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
@@ -5674,16 +5674,16 @@
       </c>
       <c r="E30" s="32">
         <f>D30*Лист2!$B$3</f>
-        <v>982.53</v>
+        <v>1004.1299999999999</v>
       </c>
       <c r="F30" s="49">
         <v>0.45</v>
       </c>
-      <c r="G30" s="206">
+      <c r="G30" s="207">
         <f t="shared" si="0"/>
-        <v>442.13850000000002</v>
-      </c>
-      <c r="H30" s="206"/>
+        <v>451.85849999999994</v>
+      </c>
+      <c r="H30" s="207"/>
     </row>
     <row r="31" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
@@ -5698,16 +5698,16 @@
       </c>
       <c r="E31" s="32">
         <f>D31*Лист2!$B$3</f>
-        <v>625.90800000000002</v>
+        <v>639.66799999999989</v>
       </c>
       <c r="F31" s="49">
         <v>0.45</v>
       </c>
-      <c r="G31" s="206">
+      <c r="G31" s="207">
         <f>E31*F31</f>
-        <v>281.65860000000004</v>
-      </c>
-      <c r="H31" s="206"/>
+        <v>287.85059999999999</v>
+      </c>
+      <c r="H31" s="207"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
@@ -5722,16 +5722,16 @@
       </c>
       <c r="E32" s="32">
         <f>D32*Лист2!$B$3</f>
-        <v>356.62200000000001</v>
+        <v>364.46199999999999</v>
       </c>
       <c r="F32" s="49">
         <v>0.45</v>
       </c>
-      <c r="G32" s="206">
+      <c r="G32" s="207">
         <f>E32*F32</f>
-        <v>160.47990000000001</v>
-      </c>
-      <c r="H32" s="206"/>
+        <v>164.00790000000001</v>
+      </c>
+      <c r="H32" s="207"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
@@ -5746,16 +5746,16 @@
       </c>
       <c r="E33" s="32">
         <f>D33*Лист2!$B$3</f>
-        <v>560.40600000000006</v>
+        <v>572.726</v>
       </c>
       <c r="F33" s="49">
         <v>0.45</v>
       </c>
-      <c r="G33" s="206">
+      <c r="G33" s="207">
         <f>E33*F33</f>
-        <v>252.18270000000004</v>
-      </c>
-      <c r="H33" s="206"/>
+        <v>257.72669999999999</v>
+      </c>
+      <c r="H33" s="207"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
@@ -5770,16 +5770,16 @@
       </c>
       <c r="E34" s="32">
         <f>D34*Лист2!$B$3</f>
-        <v>5080.0439999999999</v>
+        <v>5191.7239999999993</v>
       </c>
       <c r="F34" s="49">
         <v>0.45</v>
       </c>
-      <c r="G34" s="206">
+      <c r="G34" s="207">
         <f>E34*F34</f>
-        <v>2286.0198</v>
-      </c>
-      <c r="H34" s="206"/>
+        <v>2336.2757999999999</v>
+      </c>
+      <c r="H34" s="207"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="E38" s="29" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>387</v>
@@ -5875,18 +5875,18 @@
       </c>
       <c r="E40" s="32">
         <f>D40*Лист2!$B$3</f>
-        <v>9825.2999999999993</v>
+        <v>10041.299999999999</v>
       </c>
       <c r="F40" s="98">
         <v>0.4</v>
       </c>
       <c r="G40" s="32">
         <f t="shared" si="0"/>
-        <v>3930.12</v>
+        <v>4016.52</v>
       </c>
       <c r="H40" s="32">
         <f>G40-G40*0.15</f>
-        <v>3340.6019999999999</v>
+        <v>3414.0419999999999</v>
       </c>
       <c r="I40" s="103"/>
     </row>
@@ -5903,18 +5903,18 @@
       </c>
       <c r="E41" s="32">
         <f>D41*Лист2!$B$3</f>
-        <v>16411.89</v>
+        <v>16772.689999999999</v>
       </c>
       <c r="F41" s="98">
         <v>0.4</v>
       </c>
       <c r="G41" s="32">
         <f t="shared" si="0"/>
-        <v>6564.7560000000003</v>
+        <v>6709.076</v>
       </c>
       <c r="H41" s="32">
         <f t="shared" ref="H41:H74" si="1">G41-G41*0.15</f>
-        <v>5580.0426000000007</v>
+        <v>5702.7146000000002</v>
       </c>
       <c r="I41" s="103"/>
     </row>
@@ -5931,18 +5931,18 @@
       </c>
       <c r="E42" s="32">
         <f>D42*Лист2!$B$3</f>
-        <v>8326.0320000000011</v>
+        <v>8509.0720000000001</v>
       </c>
       <c r="F42" s="98">
         <v>0.4</v>
       </c>
       <c r="G42" s="32">
         <f t="shared" si="0"/>
-        <v>3330.4128000000005</v>
+        <v>3403.6288000000004</v>
       </c>
       <c r="H42" s="32">
         <f t="shared" si="1"/>
-        <v>2830.8508800000004</v>
+        <v>2893.0844800000004</v>
       </c>
       <c r="I42" s="103"/>
     </row>
@@ -5959,18 +5959,18 @@
       </c>
       <c r="E43" s="32">
         <f>D43*Лист2!$B$3</f>
-        <v>11266.344000000001</v>
+        <v>11514.023999999999</v>
       </c>
       <c r="F43" s="98">
         <v>0.4</v>
       </c>
       <c r="G43" s="32">
         <f t="shared" si="0"/>
-        <v>4506.5376000000006</v>
+        <v>4605.6095999999998</v>
       </c>
       <c r="H43" s="32">
         <f t="shared" si="1"/>
-        <v>3830.5569600000003</v>
+        <v>3914.7681599999996</v>
       </c>
       <c r="I43" s="103"/>
     </row>
@@ -5987,18 +5987,18 @@
       </c>
       <c r="E44" s="32">
         <f>D44*Лист2!$B$3</f>
-        <v>19264.865999999998</v>
+        <v>19688.385999999999</v>
       </c>
       <c r="F44" s="98">
         <v>0.4</v>
       </c>
       <c r="G44" s="32">
         <f t="shared" si="0"/>
-        <v>7705.9463999999998</v>
+        <v>7875.3544000000002</v>
       </c>
       <c r="H44" s="32">
         <f t="shared" si="1"/>
-        <v>6550.0544399999999</v>
+        <v>6694.0512400000007</v>
       </c>
       <c r="I44" s="103"/>
     </row>
@@ -6015,18 +6015,18 @@
       </c>
       <c r="E45" s="32">
         <f>D45*Лист2!$B$3</f>
-        <v>9781.6320000000014</v>
+        <v>9996.6720000000005</v>
       </c>
       <c r="F45" s="98">
         <v>0.4</v>
       </c>
       <c r="G45" s="32">
         <f t="shared" si="0"/>
-        <v>3912.6528000000008</v>
+        <v>3998.6688000000004</v>
       </c>
       <c r="H45" s="32">
         <f t="shared" si="1"/>
-        <v>3325.7548800000004</v>
+        <v>3398.8684800000001</v>
       </c>
       <c r="I45" s="103"/>
     </row>
@@ -6043,18 +6043,18 @@
       </c>
       <c r="E46" s="32">
         <f>D46*Лист2!$B$3</f>
-        <v>7416.2820000000002</v>
+        <v>7579.3220000000001</v>
       </c>
       <c r="F46" s="98">
         <v>0.4</v>
       </c>
       <c r="G46" s="32">
         <f t="shared" si="0"/>
-        <v>2966.5128000000004</v>
+        <v>3031.7288000000003</v>
       </c>
       <c r="H46" s="32">
         <f t="shared" si="1"/>
-        <v>2521.5358800000004</v>
+        <v>2576.9694800000002</v>
       </c>
       <c r="I46" s="103"/>
     </row>
@@ -6071,18 +6071,18 @@
       </c>
       <c r="E47" s="32">
         <f>D47*Лист2!$B$3</f>
-        <v>10735.05</v>
+        <v>10971.05</v>
       </c>
       <c r="F47" s="98">
         <v>0.4</v>
       </c>
       <c r="G47" s="32">
         <f t="shared" si="0"/>
-        <v>4294.0199999999995</v>
+        <v>4388.42</v>
       </c>
       <c r="H47" s="32">
         <f t="shared" si="1"/>
-        <v>3649.9169999999995</v>
+        <v>3730.1570000000002</v>
       </c>
       <c r="I47" s="103"/>
     </row>
@@ -6099,18 +6099,18 @@
       </c>
       <c r="E48" s="32">
         <f>D48*Лист2!$B$3</f>
-        <v>26837.625</v>
+        <v>27427.625</v>
       </c>
       <c r="F48" s="98">
         <v>0.4</v>
       </c>
       <c r="G48" s="32">
         <f t="shared" si="0"/>
-        <v>10735.050000000001</v>
+        <v>10971.050000000001</v>
       </c>
       <c r="H48" s="32">
         <f t="shared" si="1"/>
-        <v>9124.7925000000014</v>
+        <v>9325.3925000000017</v>
       </c>
       <c r="I48" s="103"/>
     </row>
@@ -6127,18 +6127,18 @@
       </c>
       <c r="E49" s="32">
         <f>D49*Лист2!$B$3</f>
-        <v>13282.35</v>
+        <v>13574.349999999999</v>
       </c>
       <c r="F49" s="98">
         <v>0.4</v>
       </c>
       <c r="G49" s="32">
         <f>E49*F49</f>
-        <v>5312.9400000000005</v>
+        <v>5429.74</v>
       </c>
       <c r="H49" s="32">
         <f t="shared" si="1"/>
-        <v>4515.9990000000007</v>
+        <v>4615.2789999999995</v>
       </c>
       <c r="I49" s="103"/>
     </row>
@@ -6155,18 +6155,18 @@
       </c>
       <c r="E50" s="32">
         <f>D50*Лист2!$B$3</f>
-        <v>9432.2880000000005</v>
+        <v>9639.6479999999992</v>
       </c>
       <c r="F50" s="98">
         <v>0.4</v>
       </c>
       <c r="G50" s="32">
         <f t="shared" si="0"/>
-        <v>3772.9152000000004</v>
+        <v>3855.8591999999999</v>
       </c>
       <c r="H50" s="32">
         <f t="shared" si="1"/>
-        <v>3206.9779200000003</v>
+        <v>3277.4803199999997</v>
       </c>
       <c r="I50" s="103"/>
     </row>
@@ -6183,18 +6183,18 @@
       </c>
       <c r="E51" s="32">
         <f>D51*Лист2!$B$3</f>
-        <v>14665.17</v>
+        <v>14987.57</v>
       </c>
       <c r="F51" s="98">
         <v>0.4</v>
       </c>
       <c r="G51" s="32">
         <f t="shared" si="0"/>
-        <v>5866.0680000000002</v>
+        <v>5995.0280000000002</v>
       </c>
       <c r="H51" s="32">
         <f t="shared" si="1"/>
-        <v>4986.1578</v>
+        <v>5095.7737999999999</v>
       </c>
       <c r="I51" s="103"/>
     </row>
@@ -6211,18 +6211,18 @@
       </c>
       <c r="E52" s="32">
         <f>D52*Лист2!$B$3</f>
-        <v>16375.5</v>
+        <v>16735.5</v>
       </c>
       <c r="F52" s="98">
         <v>0.4</v>
       </c>
       <c r="G52" s="32">
         <f t="shared" si="0"/>
-        <v>6550.2000000000007</v>
+        <v>6694.2000000000007</v>
       </c>
       <c r="H52" s="32">
         <f t="shared" si="1"/>
-        <v>5567.670000000001</v>
+        <v>5690.0700000000006</v>
       </c>
       <c r="I52" s="103"/>
     </row>
@@ -6239,18 +6239,18 @@
       </c>
       <c r="E53" s="32">
         <f>D53*Лист2!$B$3</f>
-        <v>14046.54</v>
+        <v>14355.339999999998</v>
       </c>
       <c r="F53" s="98">
         <v>0.4</v>
       </c>
       <c r="G53" s="32">
         <f t="shared" si="0"/>
-        <v>5618.6160000000009</v>
+        <v>5742.1359999999995</v>
       </c>
       <c r="H53" s="32">
         <f t="shared" si="1"/>
-        <v>4775.8236000000006</v>
+        <v>4880.8155999999999</v>
       </c>
       <c r="I53" s="103"/>
     </row>
@@ -6267,18 +6267,18 @@
       </c>
       <c r="E54" s="32">
         <f>D54*Лист2!$B$3</f>
-        <v>22896.588000000003</v>
+        <v>23399.948</v>
       </c>
       <c r="F54" s="98">
         <v>0.4</v>
       </c>
       <c r="G54" s="32">
         <f t="shared" si="0"/>
-        <v>9158.6352000000024</v>
+        <v>9359.9791999999998</v>
       </c>
       <c r="H54" s="32">
         <f t="shared" si="1"/>
-        <v>7784.8399200000022</v>
+        <v>7955.9823200000001</v>
       </c>
       <c r="I54" s="103"/>
     </row>
@@ -6295,18 +6295,18 @@
       </c>
       <c r="E55" s="32">
         <f>D55*Лист2!$B$3</f>
-        <v>12962.118</v>
+        <v>13247.078</v>
       </c>
       <c r="F55" s="98">
         <v>0.4</v>
       </c>
       <c r="G55" s="32">
         <f t="shared" si="0"/>
-        <v>5184.8472000000002</v>
+        <v>5298.8312000000005</v>
       </c>
       <c r="H55" s="32">
         <f t="shared" si="1"/>
-        <v>4407.1201200000005</v>
+        <v>4504.0065200000008</v>
       </c>
       <c r="I55" s="103"/>
     </row>
@@ -6323,18 +6323,18 @@
       </c>
       <c r="E56" s="32">
         <f>D56*Лист2!$B$3</f>
-        <v>16026.155999999999</v>
+        <v>16378.475999999999</v>
       </c>
       <c r="F56" s="98">
         <v>0.4</v>
       </c>
       <c r="G56" s="32">
         <f>E56*F56</f>
-        <v>6410.4624000000003</v>
+        <v>6551.3904000000002</v>
       </c>
       <c r="H56" s="32">
         <f t="shared" si="1"/>
-        <v>5448.8930400000008</v>
+        <v>5568.6818400000002</v>
       </c>
       <c r="I56" s="103"/>
     </row>
@@ -6351,18 +6351,18 @@
       </c>
       <c r="E57" s="32">
         <f>D57*Лист2!$B$3</f>
-        <v>25735.008000000002</v>
+        <v>26300.768</v>
       </c>
       <c r="F57" s="98">
         <v>0.4</v>
       </c>
       <c r="G57" s="32">
         <f t="shared" si="0"/>
-        <v>10294.003200000001</v>
+        <v>10520.307200000001</v>
       </c>
       <c r="H57" s="32">
         <f t="shared" si="1"/>
-        <v>8749.9027200000019</v>
+        <v>8942.261120000001</v>
       </c>
       <c r="I57" s="103"/>
     </row>
@@ -6379,18 +6379,18 @@
       </c>
       <c r="E58" s="32">
         <f>D58*Лист2!$B$3</f>
-        <v>14541.444000000001</v>
+        <v>14861.124</v>
       </c>
       <c r="F58" s="98">
         <v>0.4</v>
       </c>
       <c r="G58" s="32">
         <f t="shared" si="0"/>
-        <v>5816.5776000000005</v>
+        <v>5944.4495999999999</v>
       </c>
       <c r="H58" s="32">
         <f t="shared" si="1"/>
-        <v>4944.0909600000005</v>
+        <v>5052.7821599999997</v>
       </c>
       <c r="I58" s="103"/>
     </row>
@@ -6407,14 +6407,14 @@
       </c>
       <c r="E59" s="32">
         <f>D59*Лист2!$B$3</f>
-        <v>7416.2820000000002</v>
+        <v>7579.3220000000001</v>
       </c>
       <c r="F59" s="98">
         <v>0.4</v>
       </c>
       <c r="G59" s="32">
         <f t="shared" si="0"/>
-        <v>2966.5128000000004</v>
+        <v>3031.7288000000003</v>
       </c>
       <c r="H59" s="32"/>
     </row>
@@ -6431,14 +6431,14 @@
       </c>
       <c r="E60" s="32">
         <f>D60*Лист2!$B$3</f>
-        <v>633.18599999999992</v>
+        <v>647.10599999999988</v>
       </c>
       <c r="F60" s="98">
         <v>0.4</v>
       </c>
       <c r="G60" s="32">
         <f t="shared" si="0"/>
-        <v>253.27439999999999</v>
+        <v>258.84239999999994</v>
       </c>
       <c r="H60" s="32"/>
     </row>
@@ -6455,14 +6455,14 @@
       </c>
       <c r="E61" s="32">
         <f>D61*Лист2!$B$3</f>
-        <v>1048.0320000000002</v>
+        <v>1071.0719999999999</v>
       </c>
       <c r="F61" s="98">
         <v>0.4</v>
       </c>
       <c r="G61" s="32">
         <f t="shared" si="0"/>
-        <v>419.21280000000007</v>
+        <v>428.42879999999997</v>
       </c>
       <c r="H61" s="32"/>
     </row>
@@ -6479,14 +6479,14 @@
       </c>
       <c r="E62" s="32">
         <f>D62*Лист2!$B$3</f>
-        <v>1957.7819999999999</v>
+        <v>2000.8219999999997</v>
       </c>
       <c r="F62" s="98">
         <v>0.4</v>
       </c>
       <c r="G62" s="32">
         <f t="shared" si="0"/>
-        <v>783.11279999999999</v>
+        <v>800.32879999999989</v>
       </c>
       <c r="H62" s="32"/>
     </row>
@@ -6503,14 +6503,14 @@
       </c>
       <c r="E63" s="32">
         <f>D63*Лист2!$B$3</f>
-        <v>2729.25</v>
+        <v>2789.25</v>
       </c>
       <c r="F63" s="98">
         <v>0.4</v>
       </c>
       <c r="G63" s="32">
         <f t="shared" si="0"/>
-        <v>1091.7</v>
+        <v>1115.7</v>
       </c>
       <c r="H63" s="32"/>
     </row>
@@ -6527,14 +6527,14 @@
       </c>
       <c r="E64" s="32">
         <f>D64*Лист2!$B$3</f>
-        <v>1957.7819999999999</v>
+        <v>2000.8219999999997</v>
       </c>
       <c r="F64" s="98">
         <v>0.4</v>
       </c>
       <c r="G64" s="32">
         <f t="shared" si="0"/>
-        <v>783.11279999999999</v>
+        <v>800.32879999999989</v>
       </c>
       <c r="H64" s="31"/>
     </row>
@@ -6551,18 +6551,18 @@
       </c>
       <c r="E65" s="34">
         <f>D65*Лист2!$B$3</f>
-        <v>14577.834000000001</v>
+        <v>14898.314</v>
       </c>
       <c r="F65" s="98">
         <v>0.4</v>
       </c>
       <c r="G65" s="34">
         <f>E65*F65</f>
-        <v>5831.133600000001</v>
+        <v>5959.3256000000001</v>
       </c>
       <c r="H65" s="34">
         <f t="shared" si="1"/>
-        <v>4956.4635600000011</v>
+        <v>5065.4267600000003</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
@@ -6578,18 +6578,18 @@
       </c>
       <c r="E66" s="34">
         <f>D66*Лист2!$B$3</f>
-        <v>16091.657999999999</v>
+        <v>16445.417999999998</v>
       </c>
       <c r="F66" s="98">
         <v>0.4</v>
       </c>
       <c r="G66" s="34">
         <f>E66*F66</f>
-        <v>6436.6632</v>
+        <v>6578.1671999999999</v>
       </c>
       <c r="H66" s="34">
         <f t="shared" si="1"/>
-        <v>5471.1637200000005</v>
+        <v>5591.4421199999997</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
@@ -6605,18 +6605,18 @@
       </c>
       <c r="E67" s="34">
         <f>D67*Лист2!$B$3</f>
-        <v>16557.45</v>
+        <v>16921.45</v>
       </c>
       <c r="F67" s="98">
         <v>0.4</v>
       </c>
       <c r="G67" s="34">
         <f>E67*F67</f>
-        <v>6622.9800000000005</v>
+        <v>6768.5800000000008</v>
       </c>
       <c r="H67" s="34">
         <f t="shared" si="1"/>
-        <v>5629.5330000000004</v>
+        <v>5753.2930000000006</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
@@ -6632,18 +6632,18 @@
       </c>
       <c r="E68" s="34">
         <f>D68*Лист2!$B$3</f>
-        <v>18071.274000000001</v>
+        <v>18468.554</v>
       </c>
       <c r="F68" s="98">
         <v>0.4</v>
       </c>
       <c r="G68" s="34">
         <f t="shared" ref="G68:G74" si="2">E68*F68</f>
-        <v>7228.5096000000012</v>
+        <v>7387.4216000000006</v>
       </c>
       <c r="H68" s="34">
         <f t="shared" si="1"/>
-        <v>6144.2331600000016</v>
+        <v>6279.3083600000009</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
@@ -6659,18 +6659,18 @@
       </c>
       <c r="E69" s="34">
         <f>D69*Лист2!$B$3</f>
-        <v>23427.881999999998</v>
+        <v>23942.921999999999</v>
       </c>
       <c r="F69" s="98">
         <v>0.4</v>
       </c>
       <c r="G69" s="34">
         <f t="shared" si="2"/>
-        <v>9371.1527999999998</v>
+        <v>9577.1687999999995</v>
       </c>
       <c r="H69" s="34">
         <f t="shared" si="1"/>
-        <v>7965.4798799999999</v>
+        <v>8140.5934799999995</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
@@ -6686,18 +6686,18 @@
       </c>
       <c r="E70" s="34">
         <f>D70*Лист2!$B$3</f>
-        <v>24941.705999999998</v>
+        <v>25490.025999999998</v>
       </c>
       <c r="F70" s="98">
         <v>0.4</v>
       </c>
       <c r="G70" s="34">
         <f t="shared" si="2"/>
-        <v>9976.6823999999997</v>
+        <v>10196.010399999999</v>
       </c>
       <c r="H70" s="34">
         <f t="shared" si="1"/>
-        <v>8480.1800399999993</v>
+        <v>8666.608839999999</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6713,18 +6713,18 @@
       </c>
       <c r="E71" s="34">
         <f>D71*Лист2!$B$3</f>
-        <v>9592.4040000000005</v>
+        <v>9803.2839999999997</v>
       </c>
       <c r="F71" s="98">
         <v>0.4</v>
       </c>
       <c r="G71" s="34">
         <f t="shared" si="2"/>
-        <v>3836.9616000000005</v>
+        <v>3921.3136</v>
       </c>
       <c r="H71" s="34">
         <f t="shared" si="1"/>
-        <v>3261.4173600000004</v>
+        <v>3333.1165599999999</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -6740,18 +6740,18 @@
       </c>
       <c r="E72" s="34">
         <f>D72*Лист2!$B$3</f>
-        <v>10873.332</v>
+        <v>11112.371999999999</v>
       </c>
       <c r="F72" s="98">
         <v>0.4</v>
       </c>
       <c r="G72" s="34">
         <f t="shared" si="2"/>
-        <v>4349.3328000000001</v>
+        <v>4444.9488000000001</v>
       </c>
       <c r="H72" s="34">
         <f t="shared" si="1"/>
-        <v>3696.9328800000003</v>
+        <v>3778.2064800000003</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6767,18 +6767,18 @@
       </c>
       <c r="E73" s="34">
         <f>D73*Лист2!$B$3</f>
-        <v>16178.994000000001</v>
+        <v>16534.673999999999</v>
       </c>
       <c r="F73" s="98">
         <v>0.4</v>
       </c>
       <c r="G73" s="34">
         <f t="shared" si="2"/>
-        <v>6471.597600000001</v>
+        <v>6613.8696</v>
       </c>
       <c r="H73" s="34">
         <f t="shared" si="1"/>
-        <v>5500.8579600000012</v>
+        <v>5621.7891600000003</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6794,18 +6794,18 @@
       </c>
       <c r="E74" s="34">
         <f>D74*Лист2!$B$3</f>
-        <v>17459.922000000002</v>
+        <v>17843.761999999999</v>
       </c>
       <c r="F74" s="98">
         <v>0.4</v>
       </c>
       <c r="G74" s="34">
         <f t="shared" si="2"/>
-        <v>6983.9688000000015</v>
+        <v>7137.5047999999997</v>
       </c>
       <c r="H74" s="34">
         <f t="shared" si="1"/>
-        <v>5936.3734800000011</v>
+        <v>6066.8790799999997</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -6839,7 +6839,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="30"/>
       <c r="B77" s="262" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C77" s="263"/>
       <c r="D77" s="263"/>
@@ -6903,15 +6903,15 @@
       </c>
       <c r="E82" s="101" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
       </c>
       <c r="F82" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G82" s="231" t="s">
+      <c r="G82" s="243" t="s">
         <v>388</v>
       </c>
-      <c r="H82" s="231"/>
+      <c r="H82" s="243"/>
     </row>
     <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="38"/>
@@ -6948,16 +6948,16 @@
       </c>
       <c r="E84" s="99">
         <f>D84*Лист2!$B$3</f>
-        <v>3311.4900000000002</v>
+        <v>3384.29</v>
       </c>
       <c r="F84" s="49">
         <v>0.45</v>
       </c>
-      <c r="G84" s="206">
+      <c r="G84" s="207">
         <f t="shared" ref="G84:G106" si="3">E84*F84</f>
-        <v>1490.1705000000002</v>
-      </c>
-      <c r="H84" s="206"/>
+        <v>1522.9304999999999</v>
+      </c>
+      <c r="H84" s="207"/>
     </row>
     <row r="85" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="30"/>
@@ -6972,16 +6972,16 @@
       </c>
       <c r="E85" s="99">
         <f>D85*Лист2!$B$3</f>
-        <v>2911.2</v>
+        <v>2975.2</v>
       </c>
       <c r="F85" s="49">
         <v>0.45</v>
       </c>
-      <c r="G85" s="206">
+      <c r="G85" s="207">
         <f t="shared" si="3"/>
-        <v>1310.04</v>
-      </c>
-      <c r="H85" s="206"/>
+        <v>1338.84</v>
+      </c>
+      <c r="H85" s="207"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="30"/>
@@ -6996,16 +6996,16 @@
       </c>
       <c r="E86" s="99">
         <f>D86*Лист2!$B$3</f>
-        <v>138.28199999999998</v>
+        <v>141.32199999999997</v>
       </c>
       <c r="F86" s="49">
         <v>0.45</v>
       </c>
-      <c r="G86" s="206">
+      <c r="G86" s="207">
         <f t="shared" si="3"/>
-        <v>62.226899999999993</v>
-      </c>
-      <c r="H86" s="206"/>
+        <v>63.594899999999988</v>
+      </c>
+      <c r="H86" s="207"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="30"/>
@@ -7020,16 +7020,16 @@
       </c>
       <c r="E87" s="99">
         <f>D87*Лист2!$B$3</f>
-        <v>211.06199999999998</v>
+        <v>215.70199999999997</v>
       </c>
       <c r="F87" s="49">
         <v>0.45</v>
       </c>
-      <c r="G87" s="206">
+      <c r="G87" s="207">
         <f t="shared" si="3"/>
-        <v>94.977899999999991</v>
-      </c>
-      <c r="H87" s="206"/>
+        <v>97.065899999999985</v>
+      </c>
+      <c r="H87" s="207"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="30"/>
@@ -7044,16 +7044,16 @@
       </c>
       <c r="E88" s="99">
         <f>D88*Лист2!$B$3</f>
-        <v>247.452</v>
+        <v>252.89199999999997</v>
       </c>
       <c r="F88" s="49">
         <v>0.45</v>
       </c>
-      <c r="G88" s="206">
+      <c r="G88" s="207">
         <f t="shared" si="3"/>
-        <v>111.35340000000001</v>
-      </c>
-      <c r="H88" s="206"/>
+        <v>113.80139999999999</v>
+      </c>
+      <c r="H88" s="207"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="30"/>
@@ -7068,16 +7068,16 @@
       </c>
       <c r="E89" s="99">
         <f>D89*Лист2!$B$3</f>
-        <v>1179.0360000000001</v>
+        <v>1204.9559999999999</v>
       </c>
       <c r="F89" s="49">
         <v>0.45</v>
       </c>
-      <c r="G89" s="206">
+      <c r="G89" s="207">
         <f t="shared" si="3"/>
-        <v>530.56620000000009</v>
-      </c>
-      <c r="H89" s="206"/>
+        <v>542.23019999999997</v>
+      </c>
+      <c r="H89" s="207"/>
     </row>
     <row r="90" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="30"/>
@@ -7092,16 +7092,16 @@
       </c>
       <c r="E90" s="99">
         <f>D90*Лист2!$B$3</f>
-        <v>516.73799999999994</v>
+        <v>528.09799999999996</v>
       </c>
       <c r="F90" s="49">
         <v>0.45</v>
       </c>
-      <c r="G90" s="206">
+      <c r="G90" s="207">
         <f t="shared" si="3"/>
-        <v>232.53209999999999</v>
-      </c>
-      <c r="H90" s="206"/>
+        <v>237.64409999999998</v>
+      </c>
+      <c r="H90" s="207"/>
     </row>
     <row r="91" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="30"/>
@@ -7116,16 +7116,16 @@
       </c>
       <c r="E91" s="99">
         <f>D91*Лист2!$B$3</f>
-        <v>997.08600000000001</v>
+        <v>1019.0059999999999</v>
       </c>
       <c r="F91" s="49">
         <v>0.45</v>
       </c>
-      <c r="G91" s="206">
+      <c r="G91" s="207">
         <f t="shared" si="3"/>
-        <v>448.68870000000004</v>
-      </c>
-      <c r="H91" s="206"/>
+        <v>458.55269999999996</v>
+      </c>
+      <c r="H91" s="207"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="30"/>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="E95" s="108" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
       </c>
       <c r="F95" s="108" t="s">
         <v>387</v>
@@ -7221,18 +7221,18 @@
       </c>
       <c r="E97" s="99">
         <f>D97*Лист2!$B$3</f>
-        <v>6884.9879999999994</v>
+        <v>7036.347999999999</v>
       </c>
       <c r="F97" s="98">
         <v>0.4</v>
       </c>
       <c r="G97" s="32">
         <f t="shared" si="3"/>
-        <v>2753.9951999999998</v>
+        <v>2814.5391999999997</v>
       </c>
       <c r="H97" s="99">
         <f t="shared" ref="H97:H102" si="4">G97-G97*0.15</f>
-        <v>2340.8959199999999</v>
+        <v>2392.3583199999998</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -7248,18 +7248,18 @@
       </c>
       <c r="E98" s="99">
         <f>D98*Лист2!$B$3</f>
-        <v>10582.212000000001</v>
+        <v>10814.851999999999</v>
       </c>
       <c r="F98" s="98">
         <v>0.4</v>
       </c>
       <c r="G98" s="32">
         <f t="shared" si="3"/>
-        <v>4232.8848000000007</v>
+        <v>4325.9407999999994</v>
       </c>
       <c r="H98" s="99">
         <f t="shared" si="4"/>
-        <v>3597.9520800000005</v>
+        <v>3677.0496799999996</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -7275,18 +7275,18 @@
       </c>
       <c r="E99" s="99">
         <f>D99*Лист2!$B$3</f>
-        <v>5975.2379999999994</v>
+        <v>6106.597999999999</v>
       </c>
       <c r="F99" s="98">
         <v>0.4</v>
       </c>
       <c r="G99" s="32">
         <f t="shared" si="3"/>
-        <v>2390.0951999999997</v>
+        <v>2442.6391999999996</v>
       </c>
       <c r="H99" s="99">
         <f t="shared" si="4"/>
-        <v>2031.5809199999999</v>
+        <v>2076.2433199999996</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -7302,18 +7302,18 @@
       </c>
       <c r="E100" s="99">
         <f>D100*Лист2!$B$3</f>
-        <v>7081.4939999999997</v>
+        <v>7237.1739999999991</v>
       </c>
       <c r="F100" s="98">
         <v>0.4</v>
       </c>
       <c r="G100" s="32">
         <f t="shared" si="3"/>
-        <v>2832.5976000000001</v>
+        <v>2894.8696</v>
       </c>
       <c r="H100" s="99">
         <f t="shared" si="4"/>
-        <v>2407.7079600000002</v>
+        <v>2460.6391600000002</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -7329,18 +7329,18 @@
       </c>
       <c r="E101" s="99">
         <f>D101*Лист2!$B$3</f>
-        <v>9163.0020000000004</v>
+        <v>9364.4419999999991</v>
       </c>
       <c r="F101" s="98">
         <v>0.4</v>
       </c>
       <c r="G101" s="32">
         <f t="shared" si="3"/>
-        <v>3665.2008000000005</v>
+        <v>3745.7767999999996</v>
       </c>
       <c r="H101" s="99">
         <f t="shared" si="4"/>
-        <v>3115.4206800000006</v>
+        <v>3183.9102799999996</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -7356,18 +7356,18 @@
       </c>
       <c r="E102" s="99">
         <f>D102*Лист2!$B$3</f>
-        <v>764.19</v>
+        <v>780.99</v>
       </c>
       <c r="F102" s="98">
         <v>0.4</v>
       </c>
       <c r="G102" s="32">
         <f t="shared" si="3"/>
-        <v>305.67600000000004</v>
+        <v>312.39600000000002</v>
       </c>
       <c r="H102" s="99">
         <f t="shared" si="4"/>
-        <v>259.82460000000003</v>
+        <v>265.53660000000002</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7383,18 +7383,18 @@
       </c>
       <c r="E103" s="42">
         <f>D103*Лист2!$B$3</f>
-        <v>9927.1920000000009</v>
+        <v>10145.432000000001</v>
       </c>
       <c r="F103" s="98">
         <v>0.4</v>
       </c>
       <c r="G103" s="34">
         <f t="shared" si="3"/>
-        <v>3970.8768000000005</v>
+        <v>4058.1728000000003</v>
       </c>
       <c r="H103" s="42">
         <f>G103-G103*0.15</f>
-        <v>3375.2452800000005</v>
+        <v>3449.4468800000004</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7410,18 +7410,18 @@
       </c>
       <c r="E104" s="42">
         <f>D104*Лист2!$B$3</f>
-        <v>14199.378000000001</v>
+        <v>14511.537999999999</v>
       </c>
       <c r="F104" s="98">
         <v>0.4</v>
       </c>
       <c r="G104" s="34">
         <f t="shared" si="3"/>
-        <v>5679.7512000000006</v>
+        <v>5804.6152000000002</v>
       </c>
       <c r="H104" s="42">
         <f t="shared" ref="H104:H106" si="5">G104-G104*0.15</f>
-        <v>4827.7885200000001</v>
+        <v>4933.92292</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7437,18 +7437,18 @@
       </c>
       <c r="E105" s="42">
         <f>D105*Лист2!$B$3</f>
-        <v>7649.1779999999999</v>
+        <v>7817.3379999999988</v>
       </c>
       <c r="F105" s="98">
         <v>0.4</v>
       </c>
       <c r="G105" s="34">
         <f t="shared" si="3"/>
-        <v>3059.6712000000002</v>
+        <v>3126.9351999999999</v>
       </c>
       <c r="H105" s="42">
         <f t="shared" si="5"/>
-        <v>2600.7205200000003</v>
+        <v>2657.8949199999997</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7464,18 +7464,18 @@
       </c>
       <c r="E106" s="42">
         <f>D106*Лист2!$B$3</f>
-        <v>11346.402</v>
+        <v>11595.842000000001</v>
       </c>
       <c r="F106" s="98">
         <v>0.4</v>
       </c>
       <c r="G106" s="34">
         <f t="shared" si="3"/>
-        <v>4538.5608000000002</v>
+        <v>4638.3368</v>
       </c>
       <c r="H106" s="42">
         <f t="shared" si="5"/>
-        <v>3857.7766799999999</v>
+        <v>3942.58628</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -7523,15 +7523,15 @@
       </c>
       <c r="E110" s="101" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
       </c>
       <c r="F110" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G110" s="229" t="s">
+      <c r="G110" s="233" t="s">
         <v>388</v>
       </c>
-      <c r="H110" s="229"/>
+      <c r="H110" s="233"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="47"/>
@@ -7550,10 +7550,10 @@
       <c r="F111" s="48">
         <v>5</v>
       </c>
-      <c r="G111" s="252">
+      <c r="G111" s="249">
         <v>6</v>
       </c>
-      <c r="H111" s="252"/>
+      <c r="H111" s="249"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="30"/>
@@ -7568,14 +7568,14 @@
       </c>
       <c r="E112" s="99">
         <f>D112*Лист2!$B$3</f>
-        <v>436.68</v>
+        <v>446.28</v>
       </c>
       <c r="F112" s="49">
         <v>0.45</v>
       </c>
       <c r="G112" s="219">
         <f t="shared" ref="G112:G123" si="6">E112*F112</f>
-        <v>196.506</v>
+        <v>200.82599999999999</v>
       </c>
       <c r="H112" s="219"/>
     </row>
@@ -7592,14 +7592,14 @@
       </c>
       <c r="E113" s="99">
         <f>D113*Лист2!$B$3</f>
-        <v>138.28199999999998</v>
+        <v>141.32199999999997</v>
       </c>
       <c r="F113" s="49">
         <v>0.45</v>
       </c>
       <c r="G113" s="219">
         <f t="shared" si="6"/>
-        <v>62.226899999999993</v>
+        <v>63.594899999999988</v>
       </c>
       <c r="H113" s="219"/>
     </row>
@@ -7616,14 +7616,14 @@
       </c>
       <c r="E114" s="99">
         <f>D114*Лист2!$B$3</f>
-        <v>582.24</v>
+        <v>595.04</v>
       </c>
       <c r="F114" s="49">
         <v>0.45</v>
       </c>
       <c r="G114" s="219">
         <f t="shared" si="6"/>
-        <v>262.00800000000004</v>
+        <v>267.76799999999997</v>
       </c>
       <c r="H114" s="219"/>
     </row>
@@ -7640,14 +7640,14 @@
       </c>
       <c r="E115" s="99">
         <f>D115*Лист2!$B$3</f>
-        <v>8893.7160000000003</v>
+        <v>9089.235999999999</v>
       </c>
       <c r="F115" s="49">
         <v>0.45</v>
       </c>
       <c r="G115" s="219">
         <f t="shared" si="6"/>
-        <v>4002.1722000000004</v>
+        <v>4090.1561999999994</v>
       </c>
       <c r="H115" s="219"/>
     </row>
@@ -7664,14 +7664,14 @@
       </c>
       <c r="E116" s="99">
         <f>D116*Лист2!$B$3</f>
-        <v>10698.66</v>
+        <v>10933.859999999999</v>
       </c>
       <c r="F116" s="49">
         <v>0.45</v>
       </c>
       <c r="G116" s="219">
         <f t="shared" si="6"/>
-        <v>4814.3969999999999</v>
+        <v>4920.2369999999992</v>
       </c>
       <c r="H116" s="219"/>
     </row>
@@ -7688,14 +7688,14 @@
       </c>
       <c r="E117" s="99">
         <f>D117*Лист2!$B$3</f>
-        <v>8893.7160000000003</v>
+        <v>9089.235999999999</v>
       </c>
       <c r="F117" s="49">
         <v>0.85</v>
       </c>
       <c r="G117" s="219">
         <f t="shared" si="6"/>
-        <v>7559.6585999999998</v>
+        <v>7725.8505999999988</v>
       </c>
       <c r="H117" s="219"/>
     </row>
@@ -7712,14 +7712,14 @@
       </c>
       <c r="E118" s="99">
         <f>D118*Лист2!$B$3</f>
-        <v>10698.66</v>
+        <v>10933.859999999999</v>
       </c>
       <c r="F118" s="49">
         <v>0.85</v>
       </c>
       <c r="G118" s="219">
         <f t="shared" si="6"/>
-        <v>9093.860999999999</v>
+        <v>9293.780999999999</v>
       </c>
       <c r="H118" s="219"/>
     </row>
@@ -7736,14 +7736,14 @@
       </c>
       <c r="E119" s="99">
         <f>D119*Лист2!$B$3</f>
-        <v>12176.094000000001</v>
+        <v>12443.773999999999</v>
       </c>
       <c r="F119" s="49">
         <v>0.45</v>
       </c>
       <c r="G119" s="219">
         <f t="shared" si="6"/>
-        <v>5479.2423000000008</v>
+        <v>5599.6983</v>
       </c>
       <c r="H119" s="219"/>
     </row>
@@ -7760,14 +7760,14 @@
       </c>
       <c r="E120" s="99">
         <f>D120*Лист2!$B$3</f>
-        <v>15174.630000000001</v>
+        <v>15508.23</v>
       </c>
       <c r="F120" s="49">
         <v>0.45</v>
       </c>
       <c r="G120" s="219">
         <f t="shared" si="6"/>
-        <v>6828.5835000000006</v>
+        <v>6978.7034999999996</v>
       </c>
       <c r="H120" s="219"/>
     </row>
@@ -7784,14 +7784,14 @@
       </c>
       <c r="E121" s="99">
         <f>D121*Лист2!$B$3</f>
-        <v>12176.094000000001</v>
+        <v>12443.773999999999</v>
       </c>
       <c r="F121" s="49">
         <v>0.85</v>
       </c>
       <c r="G121" s="219">
         <f t="shared" si="6"/>
-        <v>10349.679900000001</v>
+        <v>10577.207899999999</v>
       </c>
       <c r="H121" s="219"/>
     </row>
@@ -7808,14 +7808,14 @@
       </c>
       <c r="E122" s="99">
         <f>D122*Лист2!$B$3</f>
-        <v>15174.630000000001</v>
+        <v>15508.23</v>
       </c>
       <c r="F122" s="49">
         <v>0.85</v>
       </c>
       <c r="G122" s="219">
         <f t="shared" si="6"/>
-        <v>12898.435500000001</v>
+        <v>13181.995499999999</v>
       </c>
       <c r="H122" s="219"/>
     </row>
@@ -7832,14 +7832,14 @@
       </c>
       <c r="E123" s="99">
         <f>D123*Лист2!$B$3</f>
-        <v>6739.4279999999999</v>
+        <v>6887.5879999999988</v>
       </c>
       <c r="F123" s="50">
         <v>0.55000000000000004</v>
       </c>
       <c r="G123" s="219">
         <f t="shared" si="6"/>
-        <v>3706.6854000000003</v>
+        <v>3788.1733999999997</v>
       </c>
       <c r="H123" s="219"/>
     </row>
@@ -7866,7 +7866,7 @@
     <row r="126" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="30"/>
       <c r="B126" s="156" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C126" s="157"/>
       <c r="D126" s="157"/>
@@ -7888,13 +7888,13 @@
       </c>
       <c r="E127" s="101" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
-      </c>
-      <c r="F127" s="229" t="s">
-        <v>468</v>
-      </c>
-      <c r="G127" s="229"/>
-      <c r="H127" s="229"/>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
+      </c>
+      <c r="F127" s="233" t="s">
+        <v>467</v>
+      </c>
+      <c r="G127" s="233"/>
+      <c r="H127" s="233"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="30"/>
@@ -7910,11 +7910,11 @@
       <c r="E128" s="102">
         <v>4</v>
       </c>
-      <c r="F128" s="224">
+      <c r="F128" s="228">
         <v>5</v>
       </c>
-      <c r="G128" s="225"/>
-      <c r="H128" s="226"/>
+      <c r="G128" s="229"/>
+      <c r="H128" s="230"/>
     </row>
     <row r="129" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="30"/>
@@ -7929,11 +7929,11 @@
       </c>
       <c r="E129" s="99">
         <f>D129*Лист2!$B$3</f>
-        <v>8893.7160000000003</v>
+        <v>9089.235999999999</v>
       </c>
       <c r="F129" s="219">
         <f>E129*4</f>
-        <v>35574.864000000001</v>
+        <v>36356.943999999996</v>
       </c>
       <c r="G129" s="219"/>
       <c r="H129" s="219"/>
@@ -7951,11 +7951,11 @@
       </c>
       <c r="E130" s="99">
         <f>D130*Лист2!$B$3</f>
-        <v>10698.66</v>
+        <v>10933.859999999999</v>
       </c>
       <c r="F130" s="219">
         <f>E130*4</f>
-        <v>42794.64</v>
+        <v>43735.439999999995</v>
       </c>
       <c r="G130" s="219"/>
       <c r="H130" s="219"/>
@@ -7973,11 +7973,11 @@
       </c>
       <c r="E131" s="99">
         <f>D131*Лист2!$B$3</f>
-        <v>12176.094000000001</v>
+        <v>12443.773999999999</v>
       </c>
       <c r="F131" s="219">
         <f>E131*3</f>
-        <v>36528.282000000007</v>
+        <v>37331.322</v>
       </c>
       <c r="G131" s="219"/>
       <c r="H131" s="219"/>
@@ -7995,11 +7995,11 @@
       </c>
       <c r="E132" s="99">
         <f>D132*Лист2!$B$3</f>
-        <v>15174.630000000001</v>
+        <v>15508.23</v>
       </c>
       <c r="F132" s="219">
         <f>E132*3</f>
-        <v>45523.89</v>
+        <v>46524.69</v>
       </c>
       <c r="G132" s="219"/>
       <c r="H132" s="219"/>
@@ -8017,11 +8017,11 @@
       </c>
       <c r="E133" s="99">
         <f>D133*Лист2!$B$3</f>
-        <v>12176.094000000001</v>
+        <v>12443.773999999999</v>
       </c>
       <c r="F133" s="219">
         <f>E133*3.5</f>
-        <v>42616.329000000005</v>
+        <v>43553.208999999995</v>
       </c>
       <c r="G133" s="219"/>
       <c r="H133" s="219"/>
@@ -8039,11 +8039,11 @@
       </c>
       <c r="E134" s="99">
         <f>D134*Лист2!$B$3</f>
-        <v>15174.630000000001</v>
+        <v>15508.23</v>
       </c>
       <c r="F134" s="219">
         <f>E134*3.5</f>
-        <v>53111.205000000002</v>
+        <v>54278.805</v>
       </c>
       <c r="G134" s="219"/>
       <c r="H134" s="219"/>
@@ -8061,11 +8061,11 @@
       </c>
       <c r="E135" s="99">
         <f>D135*Лист2!$B$3</f>
-        <v>12176.094000000001</v>
+        <v>12443.773999999999</v>
       </c>
       <c r="F135" s="219">
         <f>E135*1.2</f>
-        <v>14611.312800000002</v>
+        <v>14932.528799999998</v>
       </c>
       <c r="G135" s="219"/>
       <c r="H135" s="219"/>
@@ -8083,11 +8083,11 @@
       </c>
       <c r="E136" s="99">
         <f>D136*Лист2!$B$3</f>
-        <v>15174.630000000001</v>
+        <v>15508.23</v>
       </c>
       <c r="F136" s="219">
         <f>E136*1.2</f>
-        <v>18209.556</v>
+        <v>18609.876</v>
       </c>
       <c r="G136" s="219"/>
       <c r="H136" s="219"/>
@@ -8105,11 +8105,11 @@
       </c>
       <c r="E137" s="99">
         <f>D137*Лист2!$B$3</f>
-        <v>10698.66</v>
+        <v>10933.859999999999</v>
       </c>
       <c r="F137" s="219">
         <f>E137*3.3</f>
-        <v>35305.577999999994</v>
+        <v>36081.737999999998</v>
       </c>
       <c r="G137" s="219"/>
       <c r="H137" s="219"/>
@@ -8127,11 +8127,11 @@
       </c>
       <c r="E138" s="99">
         <f>D138*Лист2!$B$3</f>
-        <v>10698.66</v>
+        <v>10933.859999999999</v>
       </c>
       <c r="F138" s="219">
         <f>E138*3.3</f>
-        <v>35305.577999999994</v>
+        <v>36081.737999999998</v>
       </c>
       <c r="G138" s="219"/>
       <c r="H138" s="219"/>
@@ -8149,11 +8149,11 @@
       </c>
       <c r="E139" s="99">
         <f>D139*Лист2!$B$3</f>
-        <v>10698.66</v>
+        <v>10933.859999999999</v>
       </c>
       <c r="F139" s="219">
         <f>E139*5</f>
-        <v>53493.3</v>
+        <v>54669.299999999996</v>
       </c>
       <c r="G139" s="219"/>
       <c r="H139" s="219"/>
@@ -8171,11 +8171,11 @@
       </c>
       <c r="E140" s="99">
         <f>D140*Лист2!$B$3</f>
-        <v>6739.4279999999999</v>
+        <v>6887.5879999999988</v>
       </c>
       <c r="F140" s="219">
         <f>E140*2</f>
-        <v>13478.856</v>
+        <v>13775.175999999998</v>
       </c>
       <c r="G140" s="219"/>
       <c r="H140" s="219"/>
@@ -8225,13 +8225,13 @@
       </c>
       <c r="E144" s="101" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
-      </c>
-      <c r="F144" s="229" t="s">
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
+      </c>
+      <c r="F144" s="233" t="s">
         <v>425</v>
       </c>
-      <c r="G144" s="229"/>
-      <c r="H144" s="229"/>
+      <c r="G144" s="233"/>
+      <c r="H144" s="233"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="30"/>
@@ -8247,11 +8247,11 @@
       <c r="E145" s="102">
         <v>4</v>
       </c>
-      <c r="F145" s="224">
+      <c r="F145" s="228">
         <v>5</v>
       </c>
-      <c r="G145" s="225"/>
-      <c r="H145" s="226"/>
+      <c r="G145" s="229"/>
+      <c r="H145" s="230"/>
     </row>
     <row r="146" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A146" s="30"/>
@@ -8266,11 +8266,11 @@
       </c>
       <c r="E146" s="99">
         <f>D146*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F146" s="219">
         <f>E146*1</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="G146" s="219"/>
       <c r="H146" s="219"/>
@@ -8297,12 +8297,12 @@
     </row>
     <row r="149" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="43"/>
-      <c r="B149" s="227"/>
-      <c r="C149" s="227"/>
-      <c r="D149" s="227"/>
-      <c r="E149" s="227"/>
-      <c r="F149" s="227"/>
-      <c r="G149" s="227"/>
+      <c r="B149" s="231"/>
+      <c r="C149" s="231"/>
+      <c r="D149" s="231"/>
+      <c r="E149" s="231"/>
+      <c r="F149" s="231"/>
+      <c r="G149" s="231"/>
       <c r="H149" s="118"/>
     </row>
     <row r="150" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="E152" s="101" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
       </c>
       <c r="F152" s="101" t="s">
         <v>387</v>
@@ -8391,18 +8391,18 @@
       </c>
       <c r="E154" s="99">
         <f>D154*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F154" s="32">
         <v>0.25</v>
       </c>
       <c r="G154" s="32">
         <f t="shared" ref="G154:G158" si="7">E154*F154</f>
-        <v>13489.772999999999</v>
+        <v>13786.332999999999</v>
       </c>
       <c r="H154" s="99">
         <f>G154-G154*0.15</f>
-        <v>11466.307049999999</v>
+        <v>11718.383049999999</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
@@ -8418,18 +8418,18 @@
       </c>
       <c r="E155" s="99">
         <f>D155*Лист2!$B$3</f>
-        <v>29978.081999999999</v>
+        <v>30637.121999999996</v>
       </c>
       <c r="F155" s="32">
         <v>0.25</v>
       </c>
       <c r="G155" s="32">
         <f t="shared" si="7"/>
-        <v>7494.5204999999996</v>
+        <v>7659.2804999999989</v>
       </c>
       <c r="H155" s="99">
         <f t="shared" ref="H155:H158" si="8">G155-G155*0.15</f>
-        <v>6370.3424249999998</v>
+        <v>6510.3884249999992</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
@@ -8445,18 +8445,18 @@
       </c>
       <c r="E156" s="99">
         <f>D156*Лист2!$B$3</f>
-        <v>12205.206</v>
+        <v>12473.525999999998</v>
       </c>
       <c r="F156" s="32">
         <v>0.25</v>
       </c>
       <c r="G156" s="32">
         <f t="shared" si="7"/>
-        <v>3051.3015</v>
+        <v>3118.3814999999995</v>
       </c>
       <c r="H156" s="99">
         <f t="shared" si="8"/>
-        <v>2593.6062750000001</v>
+        <v>2650.6242749999997</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
@@ -8472,18 +8472,18 @@
       </c>
       <c r="E157" s="99">
         <f>D157*Лист2!$B$3</f>
-        <v>27401.670000000002</v>
+        <v>28004.07</v>
       </c>
       <c r="F157" s="32">
         <v>0.25</v>
       </c>
       <c r="G157" s="32">
         <f t="shared" si="7"/>
-        <v>6850.4175000000005</v>
+        <v>7001.0174999999999</v>
       </c>
       <c r="H157" s="99">
         <f t="shared" si="8"/>
-        <v>5822.8548750000009</v>
+        <v>5950.8648750000002</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8499,18 +8499,18 @@
       </c>
       <c r="E158" s="99">
         <f>D158*Лист2!$B$3</f>
-        <v>6368.25</v>
+        <v>6508.25</v>
       </c>
       <c r="F158" s="32">
         <v>0.25</v>
       </c>
       <c r="G158" s="32">
         <f t="shared" si="7"/>
-        <v>1592.0625</v>
+        <v>1627.0625</v>
       </c>
       <c r="H158" s="99">
         <f t="shared" si="8"/>
-        <v>1353.253125</v>
+        <v>1383.003125</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -8558,15 +8558,15 @@
       </c>
       <c r="E162" s="101" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
       </c>
       <c r="F162" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G162" s="231" t="s">
+      <c r="G162" s="243" t="s">
         <v>388</v>
       </c>
-      <c r="H162" s="231"/>
+      <c r="H162" s="243"/>
     </row>
     <row r="163" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="53"/>
@@ -8603,16 +8603,16 @@
       </c>
       <c r="E164" s="99">
         <f>D164*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F164" s="49">
         <v>0.45</v>
       </c>
-      <c r="G164" s="206">
+      <c r="G164" s="207">
         <f t="shared" ref="G164:G170" si="9">E164*F164</f>
-        <v>24281.591399999998</v>
-      </c>
-      <c r="H164" s="206"/>
+        <v>24815.399399999998</v>
+      </c>
+      <c r="H164" s="207"/>
     </row>
     <row r="165" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A165" s="53"/>
@@ -8627,16 +8627,16 @@
       </c>
       <c r="E165" s="99">
         <f>D165*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F165" s="49">
         <v>0.45</v>
       </c>
-      <c r="G165" s="206">
+      <c r="G165" s="207">
         <f t="shared" si="9"/>
-        <v>24281.591399999998</v>
-      </c>
-      <c r="H165" s="206"/>
+        <v>24815.399399999998</v>
+      </c>
+      <c r="H165" s="207"/>
     </row>
     <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="56"/>
@@ -8651,16 +8651,16 @@
       </c>
       <c r="E166" s="99">
         <f>D166*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F166" s="49">
         <v>0.45</v>
       </c>
-      <c r="G166" s="206">
+      <c r="G166" s="207">
         <f t="shared" si="9"/>
-        <v>24281.591399999998</v>
-      </c>
-      <c r="H166" s="206"/>
+        <v>24815.399399999998</v>
+      </c>
+      <c r="H166" s="207"/>
     </row>
     <row r="167" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="56"/>
@@ -8675,16 +8675,16 @@
       </c>
       <c r="E167" s="99">
         <f>D167*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F167" s="49">
         <v>0.45</v>
       </c>
-      <c r="G167" s="206">
+      <c r="G167" s="207">
         <f t="shared" si="9"/>
-        <v>24281.591399999998</v>
-      </c>
-      <c r="H167" s="206"/>
+        <v>24815.399399999998</v>
+      </c>
+      <c r="H167" s="207"/>
     </row>
     <row r="168" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="56"/>
@@ -8699,16 +8699,16 @@
       </c>
       <c r="E168" s="99">
         <f>D168*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F168" s="49">
         <v>0.45</v>
       </c>
-      <c r="G168" s="206">
+      <c r="G168" s="207">
         <f t="shared" si="9"/>
-        <v>24281.591399999998</v>
-      </c>
-      <c r="H168" s="206"/>
+        <v>24815.399399999998</v>
+      </c>
+      <c r="H168" s="207"/>
     </row>
     <row r="169" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="56"/>
@@ -8723,16 +8723,16 @@
       </c>
       <c r="E169" s="58">
         <f>D169*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F169" s="110">
         <v>0.45</v>
       </c>
-      <c r="G169" s="230">
+      <c r="G169" s="242">
         <f t="shared" si="9"/>
-        <v>24281.591399999998</v>
-      </c>
-      <c r="H169" s="230"/>
+        <v>24815.399399999998</v>
+      </c>
+      <c r="H169" s="242"/>
     </row>
     <row r="170" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="56"/>
@@ -8747,144 +8747,144 @@
       </c>
       <c r="E170" s="197">
         <f>D170*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F170" s="197">
         <v>0.45</v>
       </c>
-      <c r="G170" s="206">
+      <c r="G170" s="207">
         <f t="shared" si="9"/>
-        <v>24281.591399999998</v>
-      </c>
-      <c r="H170" s="206"/>
+        <v>24815.399399999998</v>
+      </c>
+      <c r="H170" s="207"/>
     </row>
     <row r="171" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A171" s="56"/>
       <c r="B171" s="198" t="s">
+        <v>472</v>
+      </c>
+      <c r="C171" s="199" t="s">
         <v>474</v>
-      </c>
-      <c r="C171" s="199" t="s">
-        <v>476</v>
       </c>
       <c r="D171" s="199">
         <v>247.13</v>
       </c>
       <c r="E171" s="202">
         <f>D171*Лист2!$B$3</f>
-        <v>17986.1214</v>
+        <v>18381.529399999999</v>
       </c>
       <c r="F171" s="197">
         <v>0.25</v>
       </c>
       <c r="G171" s="259">
         <f>E171*F171</f>
-        <v>4496.53035</v>
+        <v>4595.3823499999999</v>
       </c>
       <c r="H171" s="260"/>
     </row>
     <row r="172" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A172" s="56"/>
       <c r="B172" s="198" t="s">
+        <v>473</v>
+      </c>
+      <c r="C172" s="199" t="s">
         <v>475</v>
-      </c>
-      <c r="C172" s="199" t="s">
-        <v>477</v>
       </c>
       <c r="D172" s="199">
         <v>137.30000000000001</v>
       </c>
       <c r="E172" s="202">
         <f>D172*Лист2!$B$3</f>
-        <v>9992.6940000000013</v>
+        <v>10212.374</v>
       </c>
       <c r="F172" s="197">
         <v>0.25</v>
       </c>
       <c r="G172" s="259">
         <f t="shared" ref="G172:G173" si="10">E172*F172</f>
-        <v>2498.1735000000003</v>
+        <v>2553.0934999999999</v>
       </c>
       <c r="H172" s="260"/>
     </row>
     <row r="173" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A173" s="56"/>
       <c r="B173" s="198" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C173" s="200" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D173" s="201">
         <v>494.26</v>
       </c>
       <c r="E173" s="202">
         <f>D173*Лист2!$B$3</f>
-        <v>35972.2428</v>
+        <v>36763.058799999999</v>
       </c>
       <c r="F173" s="197">
         <v>0.25</v>
       </c>
       <c r="G173" s="259">
         <f t="shared" si="10"/>
-        <v>8993.0607</v>
+        <v>9190.7646999999997</v>
       </c>
       <c r="H173" s="260"/>
     </row>
     <row r="174" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A174" s="56"/>
       <c r="B174" s="198" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C174" s="200" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D174" s="201">
         <v>274.60000000000002</v>
       </c>
       <c r="E174" s="202">
         <f>D174*Лист2!$B$3</f>
-        <v>19985.388000000003</v>
+        <v>20424.748</v>
       </c>
       <c r="F174" s="197">
         <v>0.25</v>
       </c>
       <c r="G174" s="259">
         <f>E174*F174</f>
-        <v>4996.3470000000007</v>
+        <v>5106.1869999999999</v>
       </c>
       <c r="H174" s="260"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="56"/>
-      <c r="B175" s="232" t="s">
-        <v>464</v>
-      </c>
-      <c r="C175" s="233"/>
-      <c r="D175" s="233"/>
-      <c r="E175" s="233"/>
-      <c r="F175" s="233"/>
-      <c r="G175" s="233"/>
-      <c r="H175" s="234"/>
+      <c r="B175" s="244" t="s">
+        <v>463</v>
+      </c>
+      <c r="C175" s="245"/>
+      <c r="D175" s="245"/>
+      <c r="E175" s="245"/>
+      <c r="F175" s="245"/>
+      <c r="G175" s="245"/>
+      <c r="H175" s="246"/>
     </row>
     <row r="176" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="36"/>
-      <c r="B176" s="235"/>
-      <c r="C176" s="236"/>
-      <c r="D176" s="236"/>
-      <c r="E176" s="236"/>
-      <c r="F176" s="236"/>
-      <c r="G176" s="236"/>
-      <c r="H176" s="237"/>
+      <c r="B176" s="225"/>
+      <c r="C176" s="226"/>
+      <c r="D176" s="226"/>
+      <c r="E176" s="226"/>
+      <c r="F176" s="226"/>
+      <c r="G176" s="226"/>
+      <c r="H176" s="227"/>
     </row>
     <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="36"/>
-      <c r="B177" s="228"/>
-      <c r="C177" s="228"/>
-      <c r="D177" s="228"/>
-      <c r="E177" s="228"/>
-      <c r="F177" s="228"/>
-      <c r="G177" s="228"/>
-      <c r="H177" s="228"/>
+      <c r="B177" s="232"/>
+      <c r="C177" s="232"/>
+      <c r="D177" s="232"/>
+      <c r="E177" s="232"/>
+      <c r="F177" s="232"/>
+      <c r="G177" s="232"/>
+      <c r="H177" s="232"/>
     </row>
     <row r="178" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="36"/>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="E180" s="101" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
       </c>
       <c r="F180" s="101" t="s">
         <v>387</v>
@@ -8994,18 +8994,18 @@
       </c>
       <c r="E184" s="99">
         <f>D184*Лист2!$B$3</f>
-        <v>9825.2999999999993</v>
+        <v>10041.299999999999</v>
       </c>
       <c r="F184" s="98">
         <v>0.4</v>
       </c>
       <c r="G184" s="32">
         <f t="shared" ref="G184:G188" si="11">E184*F184</f>
-        <v>3930.12</v>
+        <v>4016.52</v>
       </c>
       <c r="H184" s="99">
         <f>G184-G184*0.15</f>
-        <v>3340.6019999999999</v>
+        <v>3414.0419999999999</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
@@ -9021,18 +9021,18 @@
       </c>
       <c r="E185" s="99">
         <f>D185*Лист2!$B$3</f>
-        <v>9432.2880000000005</v>
+        <v>9639.6479999999992</v>
       </c>
       <c r="F185" s="98">
         <v>0.4</v>
       </c>
       <c r="G185" s="32">
         <f t="shared" si="11"/>
-        <v>3772.9152000000004</v>
+        <v>3855.8591999999999</v>
       </c>
       <c r="H185" s="99">
         <f t="shared" ref="H185:H188" si="12">G185-G185*0.15</f>
-        <v>3206.9779200000003</v>
+        <v>3277.4803199999997</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -9048,18 +9048,18 @@
       </c>
       <c r="E186" s="99">
         <f>D186*Лист2!$B$3</f>
-        <v>17986.1214</v>
+        <v>18381.529399999999</v>
       </c>
       <c r="F186" s="32">
         <v>0.3</v>
       </c>
       <c r="G186" s="32">
         <f t="shared" si="11"/>
-        <v>5395.8364199999996</v>
+        <v>5514.4588199999998</v>
       </c>
       <c r="H186" s="99">
         <f t="shared" si="12"/>
-        <v>4586.4609569999993</v>
+        <v>4687.2899969999999</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9075,18 +9075,18 @@
       </c>
       <c r="E187" s="58">
         <f>D187*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F187" s="32">
         <v>0.3</v>
       </c>
       <c r="G187" s="32">
         <f t="shared" si="11"/>
-        <v>16187.727599999998</v>
+        <v>16543.599599999998</v>
       </c>
       <c r="H187" s="58">
         <f t="shared" si="12"/>
-        <v>13759.568459999999</v>
+        <v>14062.059659999999</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -9102,18 +9102,18 @@
       </c>
       <c r="E188" s="61">
         <f>D188*Лист2!$B$3</f>
-        <v>17986.1214</v>
+        <v>18381.529399999999</v>
       </c>
       <c r="F188" s="32">
         <v>0.3</v>
       </c>
       <c r="G188" s="32">
         <f t="shared" si="11"/>
-        <v>5395.8364199999996</v>
+        <v>5514.4588199999998</v>
       </c>
       <c r="H188" s="61">
         <f t="shared" si="12"/>
-        <v>4586.4609569999993</v>
+        <v>4687.2899969999999</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -9151,18 +9151,18 @@
       </c>
       <c r="E191" s="99">
         <f>D191*Лист2!$B$3</f>
-        <v>6884.9879999999994</v>
+        <v>7036.347999999999</v>
       </c>
       <c r="F191" s="190">
         <v>0.4</v>
       </c>
       <c r="G191" s="32">
         <f t="shared" ref="G191:G195" si="13">E191*F191</f>
-        <v>2753.9951999999998</v>
+        <v>2814.5391999999997</v>
       </c>
       <c r="H191" s="99">
         <f>G191-G191*0.15</f>
-        <v>2340.8959199999999</v>
+        <v>2392.3583199999998</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9178,18 +9178,18 @@
       </c>
       <c r="E192" s="99">
         <f>D192*Лист2!$B$3</f>
-        <v>5975.2379999999994</v>
+        <v>6106.597999999999</v>
       </c>
       <c r="F192" s="190">
         <v>0.4</v>
       </c>
       <c r="G192" s="32">
         <f t="shared" si="13"/>
-        <v>2390.0951999999997</v>
+        <v>2442.6391999999996</v>
       </c>
       <c r="H192" s="99">
         <f t="shared" ref="H192:H195" si="14">G192-G192*0.15</f>
-        <v>2031.5809199999999</v>
+        <v>2076.2433199999996</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -9205,18 +9205,18 @@
       </c>
       <c r="E193" s="99">
         <f>D193*Лист2!$B$3</f>
-        <v>9992.6940000000013</v>
+        <v>10212.374</v>
       </c>
       <c r="F193" s="32">
         <v>0.3</v>
       </c>
       <c r="G193" s="32">
         <f t="shared" si="13"/>
-        <v>2997.8082000000004</v>
+        <v>3063.7121999999999</v>
       </c>
       <c r="H193" s="99">
         <f t="shared" si="14"/>
-        <v>2548.1369700000005</v>
+        <v>2604.1553699999999</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9232,18 +9232,18 @@
       </c>
       <c r="E194" s="99">
         <f>D194*Лист2!$B$3</f>
-        <v>29978.081999999999</v>
+        <v>30637.121999999996</v>
       </c>
       <c r="F194" s="32">
         <v>0.3</v>
       </c>
       <c r="G194" s="32">
         <f t="shared" si="13"/>
-        <v>8993.4245999999985</v>
+        <v>9191.136599999998</v>
       </c>
       <c r="H194" s="99">
         <f t="shared" si="14"/>
-        <v>7644.4109099999987</v>
+        <v>7812.4661099999985</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -9259,18 +9259,18 @@
       </c>
       <c r="E195" s="99">
         <f>D195*Лист2!$B$3</f>
-        <v>9992.6940000000013</v>
+        <v>10212.374</v>
       </c>
       <c r="F195" s="32">
         <v>0.3</v>
       </c>
       <c r="G195" s="32">
         <f t="shared" si="13"/>
-        <v>2997.8082000000004</v>
+        <v>3063.7121999999999</v>
       </c>
       <c r="H195" s="99">
         <f t="shared" si="14"/>
-        <v>2548.1369700000005</v>
+        <v>2604.1553699999999</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -9320,18 +9320,18 @@
       </c>
       <c r="E199" s="65">
         <f>D199*Лист2!$B$3</f>
-        <v>9825.2999999999993</v>
+        <v>10041.299999999999</v>
       </c>
       <c r="F199" s="190">
         <v>0.4</v>
       </c>
       <c r="G199" s="32">
         <f t="shared" ref="G199:G204" si="15">E199*F199</f>
-        <v>3930.12</v>
+        <v>4016.52</v>
       </c>
       <c r="H199" s="124">
         <f>G199-G199*0.15</f>
-        <v>3340.6019999999999</v>
+        <v>3414.0419999999999</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
@@ -9347,18 +9347,18 @@
       </c>
       <c r="E200" s="65">
         <f>D200*Лист2!$B$3</f>
-        <v>9432.2880000000005</v>
+        <v>9639.6479999999992</v>
       </c>
       <c r="F200" s="190">
         <v>0.4</v>
       </c>
       <c r="G200" s="32">
         <f t="shared" si="15"/>
-        <v>3772.9152000000004</v>
+        <v>3855.8591999999999</v>
       </c>
       <c r="H200" s="124">
         <f t="shared" ref="H200:H204" si="16">G200-G200*0.15</f>
-        <v>3206.9779200000003</v>
+        <v>3277.4803199999997</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -9374,18 +9374,18 @@
       </c>
       <c r="E201" s="65">
         <f>D201*Лист2!$B$3</f>
-        <v>17986.1214</v>
+        <v>18381.529399999999</v>
       </c>
       <c r="F201" s="32">
         <v>0.3</v>
       </c>
       <c r="G201" s="32">
         <f t="shared" si="15"/>
-        <v>5395.8364199999996</v>
+        <v>5514.4588199999998</v>
       </c>
       <c r="H201" s="124">
         <f t="shared" si="16"/>
-        <v>4586.4609569999993</v>
+        <v>4687.2899969999999</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9401,18 +9401,18 @@
       </c>
       <c r="E202" s="68">
         <f>D202*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F202" s="32">
         <v>0.3</v>
       </c>
       <c r="G202" s="32">
         <f t="shared" si="15"/>
-        <v>16187.727599999998</v>
+        <v>16543.599599999998</v>
       </c>
       <c r="H202" s="68">
         <f t="shared" si="16"/>
-        <v>13759.568459999999</v>
+        <v>14062.059659999999</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -9428,18 +9428,18 @@
       </c>
       <c r="E203" s="70">
         <f>D203*Лист2!$B$3</f>
-        <v>17986.1214</v>
+        <v>18381.529399999999</v>
       </c>
       <c r="F203" s="32">
         <v>0.3</v>
       </c>
       <c r="G203" s="32">
         <f t="shared" si="15"/>
-        <v>5395.8364199999996</v>
+        <v>5514.4588199999998</v>
       </c>
       <c r="H203" s="125">
         <f t="shared" si="16"/>
-        <v>4586.4609569999993</v>
+        <v>4687.2899969999999</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -9455,18 +9455,18 @@
       </c>
       <c r="E204" s="72">
         <f>D204*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F204" s="99">
         <v>0.45</v>
       </c>
       <c r="G204" s="32">
         <f t="shared" si="15"/>
-        <v>24281.591399999998</v>
+        <v>24815.399399999998</v>
       </c>
       <c r="H204" s="126">
         <f t="shared" si="16"/>
-        <v>20639.35269</v>
+        <v>21093.089489999998</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -9504,18 +9504,18 @@
       </c>
       <c r="E207" s="65">
         <f>D207*Лист2!$B$3</f>
-        <v>6884.9879999999994</v>
+        <v>7036.347999999999</v>
       </c>
       <c r="F207" s="190">
         <v>0.4</v>
       </c>
       <c r="G207" s="32">
         <f t="shared" ref="G207:G212" si="17">E207*F207</f>
-        <v>2753.9951999999998</v>
+        <v>2814.5391999999997</v>
       </c>
       <c r="H207" s="124">
         <f>G207-G207*0.15</f>
-        <v>2340.8959199999999</v>
+        <v>2392.3583199999998</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9531,18 +9531,18 @@
       </c>
       <c r="E208" s="65">
         <f>D208*Лист2!$B$3</f>
-        <v>5975.2379999999994</v>
+        <v>6106.597999999999</v>
       </c>
       <c r="F208" s="190">
         <v>0.4</v>
       </c>
       <c r="G208" s="32">
         <f t="shared" si="17"/>
-        <v>2390.0951999999997</v>
+        <v>2442.6391999999996</v>
       </c>
       <c r="H208" s="124">
         <f t="shared" ref="H208:H212" si="18">G208-G208*0.15</f>
-        <v>2031.5809199999999</v>
+        <v>2076.2433199999996</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -9558,18 +9558,18 @@
       </c>
       <c r="E209" s="65">
         <f>D209*Лист2!$B$3</f>
-        <v>9992.6940000000013</v>
+        <v>10212.374</v>
       </c>
       <c r="F209" s="32">
         <v>0.3</v>
       </c>
       <c r="G209" s="32">
         <f t="shared" si="17"/>
-        <v>2997.8082000000004</v>
+        <v>3063.7121999999999</v>
       </c>
       <c r="H209" s="124">
         <f t="shared" si="18"/>
-        <v>2548.1369700000005</v>
+        <v>2604.1553699999999</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9585,18 +9585,18 @@
       </c>
       <c r="E210" s="65">
         <f>D210*Лист2!$B$3</f>
-        <v>29978.081999999999</v>
+        <v>30637.121999999996</v>
       </c>
       <c r="F210" s="32">
         <v>0.3</v>
       </c>
       <c r="G210" s="32">
         <f t="shared" si="17"/>
-        <v>8993.4245999999985</v>
+        <v>9191.136599999998</v>
       </c>
       <c r="H210" s="124">
         <f t="shared" si="18"/>
-        <v>7644.4109099999987</v>
+        <v>7812.4661099999985</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -9612,18 +9612,18 @@
       </c>
       <c r="E211" s="65">
         <f>D211*Лист2!$B$3</f>
-        <v>9992.6940000000013</v>
+        <v>10212.374</v>
       </c>
       <c r="F211" s="32">
         <v>0.3</v>
       </c>
       <c r="G211" s="32">
         <f t="shared" si="17"/>
-        <v>2997.8082000000004</v>
+        <v>3063.7121999999999</v>
       </c>
       <c r="H211" s="124">
         <f t="shared" si="18"/>
-        <v>2548.1369700000005</v>
+        <v>2604.1553699999999</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -9639,18 +9639,18 @@
       </c>
       <c r="E212" s="61">
         <f>D212*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F212" s="99">
         <v>0.45</v>
       </c>
       <c r="G212" s="32">
         <f t="shared" si="17"/>
-        <v>24281.591399999998</v>
+        <v>24815.399399999998</v>
       </c>
       <c r="H212" s="61">
         <f t="shared" si="18"/>
-        <v>20639.35269</v>
+        <v>21093.089489999998</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -9660,8 +9660,8 @@
       <c r="D213" s="103"/>
       <c r="E213" s="103"/>
       <c r="F213" s="103"/>
-      <c r="G213" s="240"/>
-      <c r="H213" s="240"/>
+      <c r="G213" s="250"/>
+      <c r="H213" s="250"/>
     </row>
     <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A214" s="36"/>
@@ -9688,18 +9688,18 @@
       </c>
       <c r="E215" s="76">
         <f>D215*Лист2!$B$3</f>
-        <v>9825.2999999999993</v>
+        <v>10041.299999999999</v>
       </c>
       <c r="F215" s="190">
         <v>0.4</v>
       </c>
       <c r="G215" s="32">
         <f t="shared" ref="G215:G219" si="19">E215*F215</f>
-        <v>3930.12</v>
+        <v>4016.52</v>
       </c>
       <c r="H215" s="76">
         <f>G215-G215*0.15</f>
-        <v>3340.6019999999999</v>
+        <v>3414.0419999999999</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -9715,18 +9715,18 @@
       </c>
       <c r="E216" s="65">
         <f>D216*Лист2!$B$3</f>
-        <v>17986.1214</v>
+        <v>18381.529399999999</v>
       </c>
       <c r="F216" s="32">
         <v>0.3</v>
       </c>
       <c r="G216" s="32">
         <f t="shared" si="19"/>
-        <v>5395.8364199999996</v>
+        <v>5514.4588199999998</v>
       </c>
       <c r="H216" s="124">
         <f t="shared" ref="H216:H219" si="20">G216-G216*0.15</f>
-        <v>4586.4609569999993</v>
+        <v>4687.2899969999999</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -9742,18 +9742,18 @@
       </c>
       <c r="E217" s="65">
         <f>D217*Лист2!$B$3</f>
-        <v>35972.970600000001</v>
+        <v>36763.802599999995</v>
       </c>
       <c r="F217" s="32">
         <v>0.3</v>
       </c>
       <c r="G217" s="32">
         <f t="shared" si="19"/>
-        <v>10791.891180000001</v>
+        <v>11029.140779999998</v>
       </c>
       <c r="H217" s="124">
         <f t="shared" si="20"/>
-        <v>9173.1075030000011</v>
+        <v>9374.7696629999991</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9769,18 +9769,18 @@
       </c>
       <c r="E218" s="65">
         <f>D218*Лист2!$B$3</f>
-        <v>16375.5</v>
+        <v>16735.5</v>
       </c>
       <c r="F218" s="190">
         <v>0.4</v>
       </c>
       <c r="G218" s="32">
         <f t="shared" si="19"/>
-        <v>6550.2000000000007</v>
+        <v>6694.2000000000007</v>
       </c>
       <c r="H218" s="124">
         <f t="shared" si="20"/>
-        <v>5567.670000000001</v>
+        <v>5690.0700000000006</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -9796,18 +9796,18 @@
       </c>
       <c r="E219" s="65">
         <f>D219*Лист2!$B$3</f>
-        <v>14497.776</v>
+        <v>14816.495999999997</v>
       </c>
       <c r="F219" s="190">
         <v>0.4</v>
       </c>
       <c r="G219" s="32">
         <f t="shared" si="19"/>
-        <v>5799.1104000000005</v>
+        <v>5926.5983999999989</v>
       </c>
       <c r="H219" s="124">
         <f t="shared" si="20"/>
-        <v>4929.2438400000001</v>
+        <v>5037.6086399999995</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -9845,13 +9845,13 @@
       </c>
       <c r="E222" s="100" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
-      </c>
-      <c r="F222" s="222" t="s">
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
+      </c>
+      <c r="F222" s="220" t="s">
         <v>426</v>
       </c>
-      <c r="G222" s="222"/>
-      <c r="H222" s="222"/>
+      <c r="G222" s="220"/>
+      <c r="H222" s="220"/>
     </row>
     <row r="223" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="36"/>
@@ -9867,11 +9867,11 @@
       <c r="E223" s="102">
         <v>4</v>
       </c>
-      <c r="F223" s="224">
+      <c r="F223" s="228">
         <v>5</v>
       </c>
-      <c r="G223" s="225"/>
-      <c r="H223" s="226"/>
+      <c r="G223" s="229"/>
+      <c r="H223" s="230"/>
     </row>
     <row r="224" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="36"/>
@@ -9886,14 +9886,14 @@
       </c>
       <c r="E224" s="104">
         <f>D224*Лист2!$B$3</f>
-        <v>12176.094000000001</v>
-      </c>
-      <c r="F224" s="220">
+        <v>12443.773999999999</v>
+      </c>
+      <c r="F224" s="247">
         <f>E224*3.5</f>
-        <v>42616.329000000005</v>
-      </c>
-      <c r="G224" s="220"/>
-      <c r="H224" s="220"/>
+        <v>43553.208999999995</v>
+      </c>
+      <c r="G224" s="247"/>
+      <c r="H224" s="247"/>
     </row>
     <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="36"/>
@@ -9930,7 +9930,7 @@
       </c>
       <c r="E227" s="23" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
       </c>
       <c r="F227" s="25" t="s">
         <v>387</v>
@@ -9979,18 +9979,18 @@
       </c>
       <c r="E229" s="82">
         <f>D229*Лист2!$B$3</f>
-        <v>16375.5</v>
+        <v>16735.5</v>
       </c>
       <c r="F229" s="190">
         <v>0.4</v>
       </c>
       <c r="G229" s="32">
         <f t="shared" ref="G229:G232" si="21">E229*F229</f>
-        <v>6550.2000000000007</v>
+        <v>6694.2000000000007</v>
       </c>
       <c r="H229" s="129">
         <f>G229-G229*0.15</f>
-        <v>5567.670000000001</v>
+        <v>5690.0700000000006</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -10006,18 +10006,18 @@
       </c>
       <c r="E230" s="82">
         <f>D230*Лист2!$B$3</f>
-        <v>14497.776</v>
+        <v>14816.495999999997</v>
       </c>
       <c r="F230" s="190">
         <v>0.4</v>
       </c>
       <c r="G230" s="32">
         <f t="shared" si="21"/>
-        <v>5799.1104000000005</v>
+        <v>5926.5983999999989</v>
       </c>
       <c r="H230" s="129">
         <f t="shared" ref="H230:H232" si="22">G230-G230*0.15</f>
-        <v>4929.2438400000001</v>
+        <v>5037.6086399999995</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -10033,18 +10033,18 @@
       </c>
       <c r="E231" s="82">
         <f>D231*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
+        <v>55145.331999999995</v>
       </c>
       <c r="F231" s="32">
         <v>0.25</v>
       </c>
       <c r="G231" s="32">
         <f t="shared" si="21"/>
-        <v>13489.772999999999</v>
+        <v>13786.332999999999</v>
       </c>
       <c r="H231" s="129">
         <f t="shared" si="22"/>
-        <v>11466.307049999999</v>
+        <v>11718.383049999999</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -10060,18 +10060,18 @@
       </c>
       <c r="E232" s="82">
         <f>D232*Лист2!$B$3</f>
-        <v>12205.206</v>
+        <v>12473.525999999998</v>
       </c>
       <c r="F232" s="32">
         <v>0.25</v>
       </c>
       <c r="G232" s="32">
         <f t="shared" si="21"/>
-        <v>3051.3015</v>
+        <v>3118.3814999999995</v>
       </c>
       <c r="H232" s="129">
         <f t="shared" si="22"/>
-        <v>2593.6062750000001</v>
+        <v>2650.6242749999997</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -10111,14 +10111,14 @@
       <c r="B236" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="C236" s="221" t="s">
+      <c r="C236" s="248" t="s">
         <v>373</v>
       </c>
-      <c r="D236" s="221"/>
-      <c r="E236" s="221"/>
-      <c r="F236" s="221"/>
-      <c r="G236" s="221"/>
-      <c r="H236" s="221"/>
+      <c r="D236" s="248"/>
+      <c r="E236" s="248"/>
+      <c r="F236" s="248"/>
+      <c r="G236" s="248"/>
+      <c r="H236" s="248"/>
     </row>
     <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="36"/>
@@ -10165,15 +10165,15 @@
       </c>
       <c r="E240" s="83" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
       </c>
       <c r="F240" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="G240" s="222" t="s">
+      <c r="G240" s="220" t="s">
         <v>388</v>
       </c>
-      <c r="H240" s="222"/>
+      <c r="H240" s="220"/>
     </row>
     <row r="241" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="36"/>
@@ -10192,10 +10192,10 @@
       <c r="F241" s="106">
         <v>5</v>
       </c>
-      <c r="G241" s="223">
+      <c r="G241" s="221">
         <v>6</v>
       </c>
-      <c r="H241" s="223"/>
+      <c r="H241" s="221"/>
     </row>
     <row r="242" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A242" s="36"/>
@@ -10210,14 +10210,14 @@
       </c>
       <c r="E242" s="65">
         <f>D242*Лист2!$B$3</f>
-        <v>9163.0020000000004</v>
+        <v>9364.4419999999991</v>
       </c>
       <c r="F242" s="50">
         <v>0.45</v>
       </c>
       <c r="G242" s="219">
         <f t="shared" ref="G242:G252" si="23">E242*F242</f>
-        <v>4123.3509000000004</v>
+        <v>4213.9988999999996</v>
       </c>
       <c r="H242" s="219"/>
     </row>
@@ -10234,14 +10234,14 @@
       </c>
       <c r="E243" s="65">
         <f>D243*Лист2!$B$3</f>
-        <v>7598.2320000000009</v>
+        <v>7765.2719999999999</v>
       </c>
       <c r="F243" s="50">
         <v>0.45</v>
       </c>
       <c r="G243" s="219">
         <f t="shared" si="23"/>
-        <v>3419.2044000000005</v>
+        <v>3494.3724000000002</v>
       </c>
       <c r="H243" s="219"/>
     </row>
@@ -10258,14 +10258,14 @@
       </c>
       <c r="E244" s="65">
         <f>D244*Лист2!$B$3</f>
-        <v>276.56399999999996</v>
+        <v>282.64399999999995</v>
       </c>
       <c r="F244" s="50">
         <v>0.45</v>
       </c>
       <c r="G244" s="219">
         <f t="shared" si="23"/>
-        <v>124.45379999999999</v>
+        <v>127.18979999999998</v>
       </c>
       <c r="H244" s="219"/>
     </row>
@@ -10282,14 +10282,14 @@
       </c>
       <c r="E245" s="65">
         <f>D245*Лист2!$B$3</f>
-        <v>4243.0739999999996</v>
+        <v>4336.3539999999994</v>
       </c>
       <c r="F245" s="50">
         <v>0.45</v>
       </c>
       <c r="G245" s="219">
         <f t="shared" si="23"/>
-        <v>1909.3833</v>
+        <v>1951.3592999999998</v>
       </c>
       <c r="H245" s="219"/>
     </row>
@@ -10306,14 +10306,14 @@
       </c>
       <c r="E246" s="65">
         <f>D246*Лист2!$B$3</f>
-        <v>1564.77</v>
+        <v>1599.1699999999998</v>
       </c>
       <c r="F246" s="50">
         <v>0.45</v>
       </c>
       <c r="G246" s="219">
         <f t="shared" si="23"/>
-        <v>704.14650000000006</v>
+        <v>719.62649999999996</v>
       </c>
       <c r="H246" s="219"/>
     </row>
@@ -10330,14 +10330,14 @@
       </c>
       <c r="E247" s="65">
         <f>D247*Лист2!$B$3</f>
-        <v>582.24</v>
+        <v>595.04</v>
       </c>
       <c r="F247" s="50">
         <v>0.45</v>
       </c>
       <c r="G247" s="219">
         <f t="shared" si="23"/>
-        <v>262.00800000000004</v>
+        <v>267.76799999999997</v>
       </c>
       <c r="H247" s="219"/>
     </row>
@@ -10354,14 +10354,14 @@
       </c>
       <c r="E248" s="65">
         <f>D248*Лист2!$B$3</f>
-        <v>1491.99</v>
+        <v>1524.79</v>
       </c>
       <c r="F248" s="50">
         <v>0.45</v>
       </c>
       <c r="G248" s="219">
         <f t="shared" si="23"/>
-        <v>671.39549999999997</v>
+        <v>686.15549999999996</v>
       </c>
       <c r="H248" s="219"/>
     </row>
@@ -10378,14 +10378,14 @@
       </c>
       <c r="E249" s="65">
         <f>D249*Лист2!$B$3</f>
-        <v>1848.6119999999999</v>
+        <v>1889.2519999999997</v>
       </c>
       <c r="F249" s="50">
         <v>0.45</v>
       </c>
       <c r="G249" s="219">
         <f t="shared" si="23"/>
-        <v>831.8753999999999</v>
+        <v>850.16339999999991</v>
       </c>
       <c r="H249" s="219"/>
     </row>
@@ -10402,14 +10402,14 @@
       </c>
       <c r="E250" s="65">
         <f>D250*Лист2!$B$3</f>
-        <v>1324.596</v>
+        <v>1353.7159999999999</v>
       </c>
       <c r="F250" s="50">
         <v>0.45</v>
       </c>
       <c r="G250" s="219">
         <f t="shared" si="23"/>
-        <v>596.06820000000005</v>
+        <v>609.17219999999998</v>
       </c>
       <c r="H250" s="219"/>
     </row>
@@ -10426,14 +10426,14 @@
       </c>
       <c r="E251" s="65">
         <f>D251*Лист2!$B$3</f>
-        <v>625.90800000000002</v>
+        <v>639.66799999999989</v>
       </c>
       <c r="F251" s="50">
         <v>0.45</v>
       </c>
       <c r="G251" s="219">
         <f t="shared" si="23"/>
-        <v>281.65860000000004</v>
+        <v>287.85059999999999</v>
       </c>
       <c r="H251" s="219"/>
     </row>
@@ -10450,38 +10450,38 @@
       </c>
       <c r="E252" s="68">
         <f>D252*Лист2!$B$3</f>
-        <v>793.30200000000002</v>
+        <v>810.74199999999996</v>
       </c>
       <c r="F252" s="50">
         <v>0.45</v>
       </c>
       <c r="G252" s="219">
         <f t="shared" si="23"/>
-        <v>356.98590000000002</v>
+        <v>364.83389999999997</v>
       </c>
       <c r="H252" s="219"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="43"/>
-      <c r="B253" s="247" t="s">
+      <c r="B253" s="222" t="s">
         <v>413</v>
       </c>
-      <c r="C253" s="248"/>
-      <c r="D253" s="248"/>
-      <c r="E253" s="248"/>
-      <c r="F253" s="248"/>
-      <c r="G253" s="248"/>
-      <c r="H253" s="249"/>
+      <c r="C253" s="223"/>
+      <c r="D253" s="223"/>
+      <c r="E253" s="223"/>
+      <c r="F253" s="223"/>
+      <c r="G253" s="223"/>
+      <c r="H253" s="224"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="43"/>
-      <c r="B254" s="235"/>
-      <c r="C254" s="236"/>
-      <c r="D254" s="236"/>
-      <c r="E254" s="236"/>
-      <c r="F254" s="236"/>
-      <c r="G254" s="236"/>
-      <c r="H254" s="237"/>
+      <c r="B254" s="225"/>
+      <c r="C254" s="226"/>
+      <c r="D254" s="226"/>
+      <c r="E254" s="226"/>
+      <c r="F254" s="226"/>
+      <c r="G254" s="226"/>
+      <c r="H254" s="227"/>
     </row>
     <row r="255" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="43"/>
@@ -10523,16 +10523,16 @@
       <c r="C258" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="D258" s="222" t="s">
+      <c r="D258" s="220" t="s">
         <v>380</v>
       </c>
-      <c r="E258" s="222"/>
-      <c r="F258" s="222" t="str">
+      <c r="E258" s="220"/>
+      <c r="F258" s="220" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
-      </c>
-      <c r="G258" s="222"/>
-      <c r="H258" s="222"/>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
+      </c>
+      <c r="G258" s="220"/>
+      <c r="H258" s="220"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="43"/>
@@ -10542,15 +10542,15 @@
       <c r="C259" s="8">
         <v>2</v>
       </c>
-      <c r="D259" s="244">
+      <c r="D259" s="236">
         <v>3</v>
       </c>
-      <c r="E259" s="245"/>
-      <c r="F259" s="244">
+      <c r="E259" s="238"/>
+      <c r="F259" s="236">
         <v>4</v>
       </c>
-      <c r="G259" s="246"/>
-      <c r="H259" s="245"/>
+      <c r="G259" s="237"/>
+      <c r="H259" s="238"/>
     </row>
     <row r="260" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A260" s="90"/>
@@ -10560,16 +10560,16 @@
       <c r="C260" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="D260" s="238">
+      <c r="D260" s="234">
         <v>7</v>
       </c>
-      <c r="E260" s="238"/>
-      <c r="F260" s="241">
+      <c r="E260" s="234"/>
+      <c r="F260" s="239">
         <f>D260*Лист2!$B$3</f>
-        <v>509.46000000000004</v>
-      </c>
-      <c r="G260" s="242"/>
-      <c r="H260" s="243"/>
+        <v>520.66</v>
+      </c>
+      <c r="G260" s="240"/>
+      <c r="H260" s="241"/>
     </row>
     <row r="261" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A261" s="90"/>
@@ -10579,16 +10579,16 @@
       <c r="C261" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D261" s="238">
+      <c r="D261" s="234">
         <v>4</v>
       </c>
-      <c r="E261" s="238"/>
-      <c r="F261" s="241">
+      <c r="E261" s="234"/>
+      <c r="F261" s="239">
         <f>D261*Лист2!$B$3</f>
-        <v>291.12</v>
-      </c>
-      <c r="G261" s="242"/>
-      <c r="H261" s="243"/>
+        <v>297.52</v>
+      </c>
+      <c r="G261" s="240"/>
+      <c r="H261" s="241"/>
     </row>
     <row r="262" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="90"/>
@@ -10598,16 +10598,16 @@
       <c r="C262" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D262" s="238">
+      <c r="D262" s="234">
         <v>20.2</v>
       </c>
-      <c r="E262" s="238"/>
-      <c r="F262" s="241">
+      <c r="E262" s="234"/>
+      <c r="F262" s="239">
         <f>D262*Лист2!$B$3</f>
-        <v>1470.1559999999999</v>
-      </c>
-      <c r="G262" s="242"/>
-      <c r="H262" s="243"/>
+        <v>1502.4759999999999</v>
+      </c>
+      <c r="G262" s="240"/>
+      <c r="H262" s="241"/>
     </row>
     <row r="263" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A263" s="28"/>
@@ -10617,16 +10617,16 @@
       <c r="C263" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D263" s="238">
+      <c r="D263" s="234">
         <v>7.2</v>
       </c>
-      <c r="E263" s="238"/>
-      <c r="F263" s="241">
+      <c r="E263" s="234"/>
+      <c r="F263" s="239">
         <f>D263*Лист2!$B$3</f>
-        <v>524.01600000000008</v>
-      </c>
-      <c r="G263" s="242"/>
-      <c r="H263" s="243"/>
+        <v>535.53599999999994</v>
+      </c>
+      <c r="G263" s="240"/>
+      <c r="H263" s="241"/>
     </row>
     <row r="264" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A264" s="123"/>
@@ -10636,16 +10636,16 @@
       <c r="C264" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D264" s="238">
+      <c r="D264" s="234">
         <v>19.600000000000001</v>
       </c>
-      <c r="E264" s="238"/>
-      <c r="F264" s="241">
+      <c r="E264" s="234"/>
+      <c r="F264" s="239">
         <f>D264*Лист2!$B$3</f>
-        <v>1426.4880000000001</v>
-      </c>
-      <c r="G264" s="242"/>
-      <c r="H264" s="243"/>
+        <v>1457.848</v>
+      </c>
+      <c r="G264" s="240"/>
+      <c r="H264" s="241"/>
     </row>
     <row r="265" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A265" s="30"/>
@@ -10655,16 +10655,16 @@
       <c r="C265" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D265" s="238">
+      <c r="D265" s="234">
         <v>40</v>
       </c>
-      <c r="E265" s="238"/>
-      <c r="F265" s="241">
+      <c r="E265" s="234"/>
+      <c r="F265" s="239">
         <f>D265*Лист2!$B$3</f>
-        <v>2911.2</v>
-      </c>
-      <c r="G265" s="242"/>
-      <c r="H265" s="243"/>
+        <v>2975.2</v>
+      </c>
+      <c r="G265" s="240"/>
+      <c r="H265" s="241"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="30"/>
@@ -10674,16 +10674,16 @@
       <c r="C266" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D266" s="238">
+      <c r="D266" s="234">
         <v>8</v>
       </c>
-      <c r="E266" s="238"/>
-      <c r="F266" s="241">
+      <c r="E266" s="234"/>
+      <c r="F266" s="239">
         <f>D266*Лист2!$B$3</f>
-        <v>582.24</v>
-      </c>
-      <c r="G266" s="242"/>
-      <c r="H266" s="243"/>
+        <v>595.04</v>
+      </c>
+      <c r="G266" s="240"/>
+      <c r="H266" s="241"/>
     </row>
     <row r="267" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A267" s="30"/>
@@ -10693,16 +10693,16 @@
       <c r="C267" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D267" s="238">
+      <c r="D267" s="234">
         <v>101.9</v>
       </c>
-      <c r="E267" s="238"/>
-      <c r="F267" s="241">
+      <c r="E267" s="234"/>
+      <c r="F267" s="239">
         <f>D267*Лист2!$B$3</f>
-        <v>7416.2820000000002</v>
-      </c>
-      <c r="G267" s="242"/>
-      <c r="H267" s="243"/>
+        <v>7579.3220000000001</v>
+      </c>
+      <c r="G267" s="240"/>
+      <c r="H267" s="241"/>
     </row>
     <row r="268" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A268" s="30"/>
@@ -10712,16 +10712,16 @@
       <c r="C268" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D268" s="238">
+      <c r="D268" s="234">
         <v>101.9</v>
       </c>
-      <c r="E268" s="238"/>
-      <c r="F268" s="241">
+      <c r="E268" s="234"/>
+      <c r="F268" s="239">
         <f>D268*Лист2!$B$3</f>
-        <v>7416.2820000000002</v>
-      </c>
-      <c r="G268" s="242"/>
-      <c r="H268" s="243"/>
+        <v>7579.3220000000001</v>
+      </c>
+      <c r="G268" s="240"/>
+      <c r="H268" s="241"/>
     </row>
     <row r="269" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A269" s="30"/>
@@ -10731,16 +10731,16 @@
       <c r="C269" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="D269" s="238">
+      <c r="D269" s="234">
         <v>167.7</v>
       </c>
-      <c r="E269" s="238"/>
-      <c r="F269" s="241">
+      <c r="E269" s="234"/>
+      <c r="F269" s="239">
         <f>D269*Лист2!$B$3</f>
-        <v>12205.206</v>
-      </c>
-      <c r="G269" s="242"/>
-      <c r="H269" s="243"/>
+        <v>12473.525999999998</v>
+      </c>
+      <c r="G269" s="240"/>
+      <c r="H269" s="241"/>
     </row>
     <row r="270" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A270" s="30"/>
@@ -10750,16 +10750,16 @@
       <c r="C270" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D270" s="238">
+      <c r="D270" s="234">
         <v>376.5</v>
       </c>
-      <c r="E270" s="238"/>
-      <c r="F270" s="241">
+      <c r="E270" s="234"/>
+      <c r="F270" s="239">
         <f>D270*Лист2!$B$3</f>
-        <v>27401.670000000002</v>
-      </c>
-      <c r="G270" s="242"/>
-      <c r="H270" s="243"/>
+        <v>28004.07</v>
+      </c>
+      <c r="G270" s="240"/>
+      <c r="H270" s="241"/>
     </row>
     <row r="271" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A271" s="30"/>
@@ -10769,16 +10769,16 @@
       <c r="C271" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D271" s="238">
+      <c r="D271" s="234">
         <v>376.5</v>
       </c>
-      <c r="E271" s="238"/>
-      <c r="F271" s="241">
+      <c r="E271" s="234"/>
+      <c r="F271" s="239">
         <f>D271*Лист2!$B$3</f>
-        <v>27401.670000000002</v>
-      </c>
-      <c r="G271" s="242"/>
-      <c r="H271" s="243"/>
+        <v>28004.07</v>
+      </c>
+      <c r="G271" s="240"/>
+      <c r="H271" s="241"/>
     </row>
     <row r="272" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A272" s="30"/>
@@ -10788,16 +10788,16 @@
       <c r="C272" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D272" s="238">
+      <c r="D272" s="234">
         <v>741.4</v>
       </c>
-      <c r="E272" s="238"/>
-      <c r="F272" s="241">
+      <c r="E272" s="234"/>
+      <c r="F272" s="239">
         <f>D272*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
-      </c>
-      <c r="G272" s="242"/>
-      <c r="H272" s="243"/>
+        <v>55145.331999999995</v>
+      </c>
+      <c r="G272" s="240"/>
+      <c r="H272" s="241"/>
     </row>
     <row r="273" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A273" s="30"/>
@@ -10807,16 +10807,16 @@
       <c r="C273" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="D273" s="238">
+      <c r="D273" s="234">
         <v>411.9</v>
       </c>
-      <c r="E273" s="238"/>
-      <c r="F273" s="241">
+      <c r="E273" s="234"/>
+      <c r="F273" s="239">
         <f>D273*Лист2!$B$3</f>
-        <v>29978.081999999999</v>
-      </c>
-      <c r="G273" s="242"/>
-      <c r="H273" s="243"/>
+        <v>30637.121999999996</v>
+      </c>
+      <c r="G273" s="240"/>
+      <c r="H273" s="241"/>
     </row>
     <row r="274" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A274" s="30"/>
@@ -10826,16 +10826,16 @@
       <c r="C274" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="D274" s="238">
+      <c r="D274" s="234">
         <v>114.4</v>
       </c>
-      <c r="E274" s="238"/>
-      <c r="F274" s="241">
+      <c r="E274" s="234"/>
+      <c r="F274" s="239">
         <f>D274*Лист2!$B$3</f>
-        <v>8326.0320000000011</v>
-      </c>
-      <c r="G274" s="242"/>
-      <c r="H274" s="243"/>
+        <v>8509.0720000000001</v>
+      </c>
+      <c r="G274" s="240"/>
+      <c r="H274" s="241"/>
     </row>
     <row r="275" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A275" s="30"/>
@@ -10845,16 +10845,16 @@
       <c r="C275" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D275" s="238">
+      <c r="D275" s="234">
         <v>135</v>
       </c>
-      <c r="E275" s="238"/>
-      <c r="F275" s="241">
+      <c r="E275" s="234"/>
+      <c r="F275" s="239">
         <f>D275*Лист2!$B$3</f>
-        <v>9825.2999999999993</v>
-      </c>
-      <c r="G275" s="242"/>
-      <c r="H275" s="243"/>
+        <v>10041.299999999999</v>
+      </c>
+      <c r="G275" s="240"/>
+      <c r="H275" s="241"/>
     </row>
     <row r="276" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="30"/>
@@ -10864,16 +10864,16 @@
       <c r="C276" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D276" s="238">
+      <c r="D276" s="234">
         <v>741.4</v>
       </c>
-      <c r="E276" s="238"/>
-      <c r="F276" s="241">
+      <c r="E276" s="234"/>
+      <c r="F276" s="239">
         <f>D276*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
-      </c>
-      <c r="G276" s="242"/>
-      <c r="H276" s="243"/>
+        <v>55145.331999999995</v>
+      </c>
+      <c r="G276" s="240"/>
+      <c r="H276" s="241"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="30"/>
@@ -10883,16 +10883,16 @@
       <c r="C277" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D277" s="238">
+      <c r="D277" s="234">
         <v>225.5</v>
       </c>
-      <c r="E277" s="238"/>
-      <c r="F277" s="241">
+      <c r="E277" s="234"/>
+      <c r="F277" s="239">
         <f>D277*Лист2!$B$3</f>
-        <v>16411.89</v>
-      </c>
-      <c r="G277" s="242"/>
-      <c r="H277" s="243"/>
+        <v>16772.689999999999</v>
+      </c>
+      <c r="G277" s="240"/>
+      <c r="H277" s="241"/>
     </row>
     <row r="278" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A278" s="30"/>
@@ -10902,16 +10902,16 @@
       <c r="C278" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D278" s="238">
+      <c r="D278" s="234">
         <v>20.2</v>
       </c>
-      <c r="E278" s="238"/>
-      <c r="F278" s="241">
+      <c r="E278" s="234"/>
+      <c r="F278" s="239">
         <f>D278*Лист2!$B$3</f>
-        <v>1470.1559999999999</v>
-      </c>
-      <c r="G278" s="242"/>
-      <c r="H278" s="243"/>
+        <v>1502.4759999999999</v>
+      </c>
+      <c r="G278" s="240"/>
+      <c r="H278" s="241"/>
     </row>
     <row r="279" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A279" s="30"/>
@@ -10921,16 +10921,16 @@
       <c r="C279" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="238">
+      <c r="D279" s="234">
         <v>18.2</v>
       </c>
-      <c r="E279" s="238"/>
-      <c r="F279" s="241">
+      <c r="E279" s="234"/>
+      <c r="F279" s="239">
         <f>D279*Лист2!$B$3</f>
-        <v>1324.596</v>
-      </c>
-      <c r="G279" s="242"/>
-      <c r="H279" s="243"/>
+        <v>1353.7159999999999</v>
+      </c>
+      <c r="G279" s="240"/>
+      <c r="H279" s="241"/>
     </row>
     <row r="280" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A280" s="30"/>
@@ -10940,25 +10940,25 @@
       <c r="C280" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D280" s="220">
+      <c r="D280" s="247">
         <v>741.4</v>
       </c>
-      <c r="E280" s="220"/>
-      <c r="F280" s="241">
+      <c r="E280" s="247"/>
+      <c r="F280" s="239">
         <f>D280*Лист2!$B$3</f>
-        <v>53959.091999999997</v>
-      </c>
-      <c r="G280" s="242"/>
-      <c r="H280" s="243"/>
+        <v>55145.331999999995</v>
+      </c>
+      <c r="G280" s="240"/>
+      <c r="H280" s="241"/>
     </row>
     <row r="281" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A281" s="30"/>
-      <c r="B281" s="239"/>
-      <c r="C281" s="239"/>
-      <c r="D281" s="239"/>
-      <c r="E281" s="239"/>
-      <c r="F281" s="239"/>
-      <c r="G281" s="239"/>
+      <c r="B281" s="235"/>
+      <c r="C281" s="235"/>
+      <c r="D281" s="235"/>
+      <c r="E281" s="235"/>
+      <c r="F281" s="235"/>
+      <c r="G281" s="235"/>
       <c r="H281" s="118"/>
     </row>
     <row r="282" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -10996,15 +10996,15 @@
       </c>
       <c r="E284" s="24" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
+        <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на II кв 2025 г.: (74,38) руб.</v>
       </c>
       <c r="F284" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="G284" s="222" t="s">
+      <c r="G284" s="220" t="s">
         <v>388</v>
       </c>
-      <c r="H284" s="222"/>
+      <c r="H284" s="220"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="30"/>
@@ -11023,10 +11023,10 @@
       <c r="F285" s="111">
         <v>5</v>
       </c>
-      <c r="G285" s="250">
+      <c r="G285" s="251">
         <v>6</v>
       </c>
-      <c r="H285" s="250"/>
+      <c r="H285" s="251"/>
     </row>
     <row r="286" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A286" s="91"/>
@@ -11041,16 +11041,16 @@
       </c>
       <c r="E286" s="9">
         <f>D286*Лист2!$B$3*3</f>
-        <v>83405.88</v>
+        <v>85239.48</v>
       </c>
       <c r="F286" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G286" s="206">
+      <c r="G286" s="207">
         <f t="shared" ref="G286:G335" si="24">E286*F286</f>
-        <v>45873.234000000004</v>
-      </c>
-      <c r="H286" s="206"/>
+        <v>46881.714</v>
+      </c>
+      <c r="H286" s="207"/>
     </row>
     <row r="287" spans="1:8" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="91"/>
@@ -11065,16 +11065,16 @@
       </c>
       <c r="E287" s="9">
         <f>D287*Лист2!$B$3</f>
-        <v>516.73799999999994</v>
+        <v>528.09799999999996</v>
       </c>
       <c r="F287" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G287" s="206">
+      <c r="G287" s="207">
         <f t="shared" si="24"/>
-        <v>284.20589999999999</v>
-      </c>
-      <c r="H287" s="206"/>
+        <v>290.45389999999998</v>
+      </c>
+      <c r="H287" s="207"/>
     </row>
     <row r="288" spans="1:8" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="91"/>
@@ -11089,16 +11089,16 @@
       </c>
       <c r="E288" s="9">
         <f>D288*Лист2!$B$3</f>
-        <v>349.34399999999999</v>
+        <v>357.02399999999994</v>
       </c>
       <c r="F288" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G288" s="206">
+      <c r="G288" s="207">
         <f t="shared" si="24"/>
-        <v>192.13920000000002</v>
-      </c>
-      <c r="H288" s="206"/>
+        <v>196.36319999999998</v>
+      </c>
+      <c r="H288" s="207"/>
     </row>
     <row r="289" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A289" s="91"/>
@@ -11113,16 +11113,16 @@
       </c>
       <c r="E289" s="9">
         <f>D289*Лист2!$B$3</f>
-        <v>516.73799999999994</v>
+        <v>528.09799999999996</v>
       </c>
       <c r="F289" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G289" s="206">
+      <c r="G289" s="207">
         <f t="shared" si="24"/>
-        <v>284.20589999999999</v>
-      </c>
-      <c r="H289" s="206"/>
+        <v>290.45389999999998</v>
+      </c>
+      <c r="H289" s="207"/>
     </row>
     <row r="290" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A290" s="132"/>
@@ -11137,16 +11137,16 @@
       </c>
       <c r="E290" s="9">
         <f>D290*Лист2!$B$3</f>
-        <v>349.34399999999999</v>
+        <v>357.02399999999994</v>
       </c>
       <c r="F290" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G290" s="206">
+      <c r="G290" s="207">
         <f t="shared" si="24"/>
-        <v>192.13920000000002</v>
-      </c>
-      <c r="H290" s="206"/>
+        <v>196.36319999999998</v>
+      </c>
+      <c r="H290" s="207"/>
     </row>
     <row r="291" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A291" s="133"/>
@@ -11161,16 +11161,16 @@
       </c>
       <c r="E291" s="9">
         <f>D291*Лист2!$B$3</f>
-        <v>414.846</v>
+        <v>423.96600000000001</v>
       </c>
       <c r="F291" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G291" s="206">
+      <c r="G291" s="207">
         <f t="shared" si="24"/>
-        <v>228.16530000000003</v>
-      </c>
-      <c r="H291" s="206"/>
+        <v>233.18130000000002</v>
+      </c>
+      <c r="H291" s="207"/>
     </row>
     <row r="292" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A292" s="92"/>
@@ -11185,16 +11185,16 @@
       </c>
       <c r="E292" s="9">
         <f>D292*Лист2!$B$3</f>
-        <v>211.06199999999998</v>
+        <v>215.70199999999997</v>
       </c>
       <c r="F292" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G292" s="206">
+      <c r="G292" s="207">
         <f t="shared" si="24"/>
-        <v>116.08410000000001</v>
-      </c>
-      <c r="H292" s="206"/>
+        <v>118.6361</v>
+      </c>
+      <c r="H292" s="207"/>
     </row>
     <row r="293" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A293" s="92"/>
@@ -11209,16 +11209,16 @@
       </c>
       <c r="E293" s="9">
         <f>D293*Лист2!$B$3</f>
-        <v>2794.752</v>
+        <v>2856.1919999999996</v>
       </c>
       <c r="F293" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G293" s="206">
+      <c r="G293" s="207">
         <f t="shared" si="24"/>
-        <v>1537.1136000000001</v>
-      </c>
-      <c r="H293" s="206"/>
+        <v>1570.9055999999998</v>
+      </c>
+      <c r="H293" s="207"/>
     </row>
     <row r="294" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A294" s="92"/>
@@ -11233,16 +11233,16 @@
       </c>
       <c r="E294" s="9">
         <f>D294*Лист2!$B$3</f>
-        <v>3427.9380000000001</v>
+        <v>3503.2979999999998</v>
       </c>
       <c r="F294" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G294" s="206">
+      <c r="G294" s="207">
         <f t="shared" si="24"/>
-        <v>1885.3659000000002</v>
-      </c>
-      <c r="H294" s="206"/>
+        <v>1926.8139000000001</v>
+      </c>
+      <c r="H294" s="207"/>
     </row>
     <row r="295" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A295" s="92"/>
@@ -11257,16 +11257,16 @@
       </c>
       <c r="E295" s="9">
         <f>D295*Лист2!$B$3</f>
-        <v>6739.4279999999999</v>
+        <v>6887.5879999999988</v>
       </c>
       <c r="F295" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G295" s="206">
+      <c r="G295" s="207">
         <f t="shared" si="24"/>
-        <v>3706.6854000000003</v>
-      </c>
-      <c r="H295" s="206"/>
+        <v>3788.1733999999997</v>
+      </c>
+      <c r="H295" s="207"/>
     </row>
     <row r="296" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A296" s="92"/>
@@ -11281,16 +11281,16 @@
       </c>
       <c r="E296" s="9">
         <f>D296*Лист2!$B$3</f>
-        <v>6739.4279999999999</v>
+        <v>6887.5879999999988</v>
       </c>
       <c r="F296" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G296" s="206">
+      <c r="G296" s="207">
         <f t="shared" si="24"/>
-        <v>3706.6854000000003</v>
-      </c>
-      <c r="H296" s="206"/>
+        <v>3788.1733999999997</v>
+      </c>
+      <c r="H296" s="207"/>
     </row>
     <row r="297" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A297" s="92"/>
@@ -11305,16 +11305,16 @@
       </c>
       <c r="E297" s="9">
         <f>D297*Лист2!$B$3</f>
-        <v>3427.9380000000001</v>
+        <v>3503.2979999999998</v>
       </c>
       <c r="F297" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G297" s="206">
+      <c r="G297" s="207">
         <f t="shared" si="24"/>
-        <v>1885.3659000000002</v>
-      </c>
-      <c r="H297" s="206"/>
+        <v>1926.8139000000001</v>
+      </c>
+      <c r="H297" s="207"/>
     </row>
     <row r="298" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A298" s="92"/>
@@ -11329,16 +11329,16 @@
       </c>
       <c r="E298" s="9">
         <f>D298*Лист2!$B$3</f>
-        <v>1870.4459999999999</v>
+        <v>1911.5659999999998</v>
       </c>
       <c r="F298" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G298" s="206">
+      <c r="G298" s="207">
         <f t="shared" si="24"/>
-        <v>1028.7453</v>
-      </c>
-      <c r="H298" s="206"/>
+        <v>1051.3613</v>
+      </c>
+      <c r="H298" s="207"/>
     </row>
     <row r="299" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A299" s="92"/>
@@ -11353,16 +11353,16 @@
       </c>
       <c r="E299" s="9">
         <f>D299*Лист2!$B$3</f>
-        <v>13566.192000000001</v>
+        <v>13864.431999999999</v>
       </c>
       <c r="F299" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G299" s="206">
+      <c r="G299" s="207">
         <f t="shared" si="24"/>
-        <v>7461.405600000001</v>
-      </c>
-      <c r="H299" s="206"/>
+        <v>7625.4376000000002</v>
+      </c>
+      <c r="H299" s="207"/>
     </row>
     <row r="300" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A300" s="92"/>
@@ -11377,16 +11377,16 @@
       </c>
       <c r="E300" s="9">
         <f>D300*Лист2!$B$3</f>
-        <v>17911.157999999999</v>
+        <v>18304.917999999998</v>
       </c>
       <c r="F300" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G300" s="206">
+      <c r="G300" s="207">
         <f t="shared" si="24"/>
-        <v>9851.1369000000013</v>
-      </c>
-      <c r="H300" s="206"/>
+        <v>10067.704899999999</v>
+      </c>
+      <c r="H300" s="207"/>
     </row>
     <row r="301" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A301" s="92"/>
@@ -11401,16 +11401,16 @@
       </c>
       <c r="E301" s="9">
         <f>D301*Лист2!$B$3</f>
-        <v>12001.422</v>
+        <v>12265.261999999999</v>
       </c>
       <c r="F301" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G301" s="206">
+      <c r="G301" s="207">
         <f t="shared" si="24"/>
-        <v>6600.7821000000004</v>
-      </c>
-      <c r="H301" s="206"/>
+        <v>6745.8940999999995</v>
+      </c>
+      <c r="H301" s="207"/>
     </row>
     <row r="302" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A302" s="92"/>
@@ -11425,16 +11425,16 @@
       </c>
       <c r="E302" s="9">
         <f>D302*Лист2!$B$3</f>
-        <v>16433.724000000002</v>
+        <v>16795.004000000001</v>
       </c>
       <c r="F302" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G302" s="206">
+      <c r="G302" s="207">
         <f t="shared" si="24"/>
-        <v>9038.5482000000011</v>
-      </c>
-      <c r="H302" s="206"/>
+        <v>9237.2522000000008</v>
+      </c>
+      <c r="H302" s="207"/>
     </row>
     <row r="303" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A303" s="92"/>
@@ -11449,16 +11449,16 @@
       </c>
       <c r="E303" s="9">
         <f>D303*Лист2!$B$3</f>
-        <v>13566.192000000001</v>
+        <v>13864.431999999999</v>
       </c>
       <c r="F303" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G303" s="206">
+      <c r="G303" s="207">
         <f t="shared" si="24"/>
-        <v>7461.405600000001</v>
-      </c>
-      <c r="H303" s="206"/>
+        <v>7625.4376000000002</v>
+      </c>
+      <c r="H303" s="207"/>
     </row>
     <row r="304" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A304" s="92"/>
@@ -11473,16 +11473,16 @@
       </c>
       <c r="E304" s="9">
         <f>D304*Лист2!$B$3</f>
-        <v>17911.157999999999</v>
+        <v>18304.917999999998</v>
       </c>
       <c r="F304" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G304" s="206">
+      <c r="G304" s="207">
         <f t="shared" si="24"/>
-        <v>9851.1369000000013</v>
-      </c>
-      <c r="H304" s="206"/>
+        <v>10067.704899999999</v>
+      </c>
+      <c r="H304" s="207"/>
     </row>
     <row r="305" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A305" s="92"/>
@@ -11497,16 +11497,16 @@
       </c>
       <c r="E305" s="9">
         <f>D305*Лист2!$B$3</f>
-        <v>12001.422</v>
+        <v>12265.261999999999</v>
       </c>
       <c r="F305" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G305" s="206">
+      <c r="G305" s="207">
         <f t="shared" si="24"/>
-        <v>6600.7821000000004</v>
-      </c>
-      <c r="H305" s="206"/>
+        <v>6745.8940999999995</v>
+      </c>
+      <c r="H305" s="207"/>
     </row>
     <row r="306" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A306" s="92"/>
@@ -11521,16 +11521,16 @@
       </c>
       <c r="E306" s="9">
         <f>D306*Лист2!$B$3</f>
-        <v>16433.724000000002</v>
+        <v>16795.004000000001</v>
       </c>
       <c r="F306" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G306" s="206">
+      <c r="G306" s="207">
         <f t="shared" si="24"/>
-        <v>9038.5482000000011</v>
-      </c>
-      <c r="H306" s="206"/>
+        <v>9237.2522000000008</v>
+      </c>
+      <c r="H306" s="207"/>
     </row>
     <row r="307" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A307" s="92"/>
@@ -11545,16 +11545,16 @@
       </c>
       <c r="E307" s="9">
         <f>D307*Лист2!$B$3</f>
-        <v>39650.543999999994</v>
+        <v>40522.223999999995</v>
       </c>
       <c r="F307" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G307" s="206">
+      <c r="G307" s="207">
         <f t="shared" si="24"/>
-        <v>21807.799199999998</v>
-      </c>
-      <c r="H307" s="206"/>
+        <v>22287.2232</v>
+      </c>
+      <c r="H307" s="207"/>
     </row>
     <row r="308" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A308" s="92"/>
@@ -11569,16 +11569,16 @@
       </c>
       <c r="E308" s="9">
         <f>D308*Лист2!$B$3</f>
-        <v>52867.392</v>
+        <v>54029.631999999998</v>
       </c>
       <c r="F308" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G308" s="206">
+      <c r="G308" s="207">
         <f t="shared" si="24"/>
-        <v>29077.065600000002</v>
-      </c>
-      <c r="H308" s="206"/>
+        <v>29716.297600000002</v>
+      </c>
+      <c r="H308" s="207"/>
     </row>
     <row r="309" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A309" s="92"/>
@@ -11593,16 +11593,16 @@
       </c>
       <c r="E309" s="9">
         <f>D309*Лист2!$B$3</f>
-        <v>36877.625999999997</v>
+        <v>37688.345999999998</v>
       </c>
       <c r="F309" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G309" s="206">
+      <c r="G309" s="207">
         <f t="shared" si="24"/>
-        <v>20282.694299999999</v>
-      </c>
-      <c r="H309" s="206"/>
+        <v>20728.5903</v>
+      </c>
+      <c r="H309" s="207"/>
     </row>
     <row r="310" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A310" s="92"/>
@@ -11617,16 +11617,16 @@
       </c>
       <c r="E310" s="9">
         <f>D310*Лист2!$B$3</f>
-        <v>47052.270000000004</v>
+        <v>48086.67</v>
       </c>
       <c r="F310" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G310" s="206">
+      <c r="G310" s="207">
         <f t="shared" si="24"/>
-        <v>25878.748500000005</v>
-      </c>
-      <c r="H310" s="206"/>
+        <v>26447.6685</v>
+      </c>
+      <c r="H310" s="207"/>
     </row>
     <row r="311" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A311" s="92"/>
@@ -11641,16 +11641,16 @@
       </c>
       <c r="E311" s="9">
         <f>D311*Лист2!$B$3</f>
-        <v>5618.616</v>
+        <v>5742.1359999999995</v>
       </c>
       <c r="F311" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G311" s="206">
+      <c r="G311" s="207">
         <f t="shared" si="24"/>
-        <v>3090.2388000000001</v>
-      </c>
-      <c r="H311" s="206"/>
+        <v>3158.1747999999998</v>
+      </c>
+      <c r="H311" s="207"/>
     </row>
     <row r="312" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A312" s="92"/>
@@ -11665,16 +11665,16 @@
       </c>
       <c r="E312" s="9">
         <f>D312*Лист2!$B$3</f>
-        <v>5618.616</v>
+        <v>5742.1359999999995</v>
       </c>
       <c r="F312" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G312" s="206">
+      <c r="G312" s="207">
         <f t="shared" si="24"/>
-        <v>3090.2388000000001</v>
-      </c>
-      <c r="H312" s="206"/>
+        <v>3158.1747999999998</v>
+      </c>
+      <c r="H312" s="207"/>
     </row>
     <row r="313" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A313" s="92"/>
@@ -11689,16 +11689,16 @@
       </c>
       <c r="E313" s="9">
         <f>D313*Лист2!$B$3</f>
-        <v>11120.784000000001</v>
+        <v>11365.264000000001</v>
       </c>
       <c r="F313" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G313" s="206">
+      <c r="G313" s="207">
         <f t="shared" si="24"/>
-        <v>6116.4312000000009</v>
-      </c>
-      <c r="H313" s="206"/>
+        <v>6250.8952000000008</v>
+      </c>
+      <c r="H313" s="207"/>
     </row>
     <row r="314" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A314" s="92"/>
@@ -11713,16 +11713,16 @@
       </c>
       <c r="E314" s="9">
         <f>D314*Лист2!$B$3</f>
-        <v>10109.142</v>
+        <v>10331.382</v>
       </c>
       <c r="F314" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G314" s="206">
+      <c r="G314" s="207">
         <f t="shared" si="24"/>
-        <v>5560.0281000000004</v>
-      </c>
-      <c r="H314" s="206"/>
+        <v>5682.2601000000004</v>
+      </c>
+      <c r="H314" s="207"/>
     </row>
     <row r="315" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A315" s="92"/>
@@ -11737,16 +11737,16 @@
       </c>
       <c r="E315" s="9">
         <f>D315*Лист2!$B$3</f>
-        <v>19184.808000000001</v>
+        <v>19606.567999999999</v>
       </c>
       <c r="F315" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G315" s="206">
+      <c r="G315" s="207">
         <f t="shared" si="24"/>
-        <v>10551.644400000001</v>
-      </c>
-      <c r="H315" s="206"/>
+        <v>10783.6124</v>
+      </c>
+      <c r="H315" s="207"/>
     </row>
     <row r="316" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A316" s="92"/>
@@ -11761,16 +11761,16 @@
       </c>
       <c r="E316" s="9">
         <f>D316*Лист2!$B$3</f>
-        <v>52867.392</v>
+        <v>54029.631999999998</v>
       </c>
       <c r="F316" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G316" s="206">
+      <c r="G316" s="207">
         <f t="shared" si="24"/>
-        <v>29077.065600000002</v>
-      </c>
-      <c r="H316" s="206"/>
+        <v>29716.297600000002</v>
+      </c>
+      <c r="H316" s="207"/>
     </row>
     <row r="317" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A317" s="92"/>
@@ -11785,16 +11785,16 @@
       </c>
       <c r="E317" s="9">
         <f>D317*Лист2!$B$3</f>
-        <v>17307.084000000003</v>
+        <v>17687.563999999998</v>
       </c>
       <c r="F317" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G317" s="206">
+      <c r="G317" s="207">
         <f t="shared" si="24"/>
-        <v>9518.8962000000029</v>
-      </c>
-      <c r="H317" s="206"/>
+        <v>9728.1602000000003</v>
+      </c>
+      <c r="H317" s="207"/>
     </row>
     <row r="318" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A318" s="92"/>
@@ -11809,16 +11809,16 @@
       </c>
       <c r="E318" s="9">
         <f>D318*Лист2!$B$3</f>
-        <v>47052.270000000004</v>
+        <v>48086.67</v>
       </c>
       <c r="F318" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G318" s="206">
+      <c r="G318" s="207">
         <f t="shared" si="24"/>
-        <v>25878.748500000005</v>
-      </c>
-      <c r="H318" s="206"/>
+        <v>26447.6685</v>
+      </c>
+      <c r="H318" s="207"/>
     </row>
     <row r="319" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A319" s="92"/>
@@ -11833,16 +11833,16 @@
       </c>
       <c r="E319" s="9">
         <f>D319*Лист2!$B$3</f>
-        <v>39650.543999999994</v>
+        <v>40522.223999999995</v>
       </c>
       <c r="F319" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G319" s="206">
+      <c r="G319" s="207">
         <f t="shared" si="24"/>
-        <v>21807.799199999998</v>
-      </c>
-      <c r="H319" s="206"/>
+        <v>22287.2232</v>
+      </c>
+      <c r="H319" s="207"/>
     </row>
     <row r="320" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A320" s="92"/>
@@ -11857,16 +11857,16 @@
       </c>
       <c r="E320" s="9">
         <f>D320*Лист2!$B$3</f>
-        <v>36877.625999999997</v>
+        <v>37688.345999999998</v>
       </c>
       <c r="F320" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G320" s="206">
+      <c r="G320" s="207">
         <f t="shared" si="24"/>
-        <v>20282.694299999999</v>
-      </c>
-      <c r="H320" s="206"/>
+        <v>20728.5903</v>
+      </c>
+      <c r="H320" s="207"/>
     </row>
     <row r="321" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A321" s="92"/>
@@ -11881,16 +11881,16 @@
       </c>
       <c r="E321" s="9">
         <f>D321*Лист2!$B$3</f>
-        <v>19184.808000000001</v>
+        <v>19606.567999999999</v>
       </c>
       <c r="F321" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G321" s="206">
+      <c r="G321" s="207">
         <f t="shared" si="24"/>
-        <v>10551.644400000001</v>
-      </c>
-      <c r="H321" s="206"/>
+        <v>10783.6124</v>
+      </c>
+      <c r="H321" s="207"/>
     </row>
     <row r="322" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A322" s="92"/>
@@ -11905,16 +11905,16 @@
       </c>
       <c r="E322" s="9">
         <f>D322*Лист2!$B$3</f>
-        <v>52867.392</v>
+        <v>54029.631999999998</v>
       </c>
       <c r="F322" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G322" s="206">
+      <c r="G322" s="207">
         <f t="shared" si="24"/>
-        <v>29077.065600000002</v>
-      </c>
-      <c r="H322" s="206"/>
+        <v>29716.297600000002</v>
+      </c>
+      <c r="H322" s="207"/>
     </row>
     <row r="323" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A323" s="92"/>
@@ -11929,16 +11929,16 @@
       </c>
       <c r="E323" s="9">
         <f>D323*Лист2!$B$3</f>
-        <v>17307.084000000003</v>
+        <v>17687.563999999998</v>
       </c>
       <c r="F323" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G323" s="206">
+      <c r="G323" s="207">
         <f t="shared" si="24"/>
-        <v>9518.8962000000029</v>
-      </c>
-      <c r="H323" s="206"/>
+        <v>9728.1602000000003</v>
+      </c>
+      <c r="H323" s="207"/>
     </row>
     <row r="324" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A324" s="92"/>
@@ -11953,16 +11953,16 @@
       </c>
       <c r="E324" s="9">
         <f>D324*Лист2!$B$3</f>
-        <v>47052.270000000004</v>
+        <v>48086.67</v>
       </c>
       <c r="F324" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G324" s="206">
+      <c r="G324" s="207">
         <f t="shared" si="24"/>
-        <v>25878.748500000005</v>
-      </c>
-      <c r="H324" s="206"/>
+        <v>26447.6685</v>
+      </c>
+      <c r="H324" s="207"/>
     </row>
     <row r="325" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A325" s="92"/>
@@ -11977,16 +11977,16 @@
       </c>
       <c r="E325" s="9">
         <f>D325*Лист2!$B$3</f>
-        <v>13478.856</v>
+        <v>13775.175999999998</v>
       </c>
       <c r="F325" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G325" s="206">
+      <c r="G325" s="207">
         <f t="shared" si="24"/>
-        <v>7413.3708000000006</v>
-      </c>
-      <c r="H325" s="206"/>
+        <v>7576.3467999999993</v>
+      </c>
+      <c r="H325" s="207"/>
     </row>
     <row r="326" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A326" s="92"/>
@@ -12001,16 +12001,16 @@
       </c>
       <c r="E326" s="9">
         <f>D326*Лист2!$B$3</f>
-        <v>6739.4279999999999</v>
+        <v>6887.5879999999988</v>
       </c>
       <c r="F326" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G326" s="206">
+      <c r="G326" s="207">
         <f t="shared" si="24"/>
-        <v>3706.6854000000003</v>
-      </c>
-      <c r="H326" s="206"/>
+        <v>3788.1733999999997</v>
+      </c>
+      <c r="H326" s="207"/>
     </row>
     <row r="327" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A327" s="92"/>
@@ -12025,16 +12025,16 @@
       </c>
       <c r="E327" s="9">
         <f>D327*Лист2!$B$3</f>
-        <v>19184.808000000001</v>
+        <v>19606.567999999999</v>
       </c>
       <c r="F327" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G327" s="206">
+      <c r="G327" s="207">
         <f t="shared" si="24"/>
-        <v>10551.644400000001</v>
-      </c>
-      <c r="H327" s="206"/>
+        <v>10783.6124</v>
+      </c>
+      <c r="H327" s="207"/>
     </row>
     <row r="328" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A328" s="92"/>
@@ -12049,16 +12049,16 @@
       </c>
       <c r="E328" s="9">
         <f>D328*Лист2!$B$3</f>
-        <v>793.30200000000002</v>
+        <v>810.74199999999996</v>
       </c>
       <c r="F328" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G328" s="206">
+      <c r="G328" s="207">
         <f t="shared" si="24"/>
-        <v>436.31610000000006</v>
-      </c>
-      <c r="H328" s="206"/>
+        <v>445.90809999999999</v>
+      </c>
+      <c r="H328" s="207"/>
     </row>
     <row r="329" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A329" s="92"/>
@@ -12073,16 +12073,16 @@
       </c>
       <c r="E329" s="9">
         <f>D329*Лист2!$B$3</f>
-        <v>9184.8360000000011</v>
+        <v>9386.7559999999994</v>
       </c>
       <c r="F329" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G329" s="206">
+      <c r="G329" s="207">
         <f t="shared" si="24"/>
-        <v>5051.6598000000013</v>
-      </c>
-      <c r="H329" s="206"/>
+        <v>5162.7157999999999</v>
+      </c>
+      <c r="H329" s="207"/>
     </row>
     <row r="330" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A330" s="92"/>
@@ -12097,16 +12097,16 @@
       </c>
       <c r="E330" s="9">
         <f>D330*Лист2!$B$3</f>
-        <v>19184.808000000001</v>
+        <v>19606.567999999999</v>
       </c>
       <c r="F330" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G330" s="206">
+      <c r="G330" s="207">
         <f t="shared" si="24"/>
-        <v>10551.644400000001</v>
-      </c>
-      <c r="H330" s="206"/>
+        <v>10783.6124</v>
+      </c>
+      <c r="H330" s="207"/>
     </row>
     <row r="331" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A331" s="92"/>
@@ -12121,16 +12121,16 @@
       </c>
       <c r="E331" s="9">
         <f>D331*Лист2!$B$3</f>
-        <v>52867.392</v>
+        <v>54029.631999999998</v>
       </c>
       <c r="F331" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G331" s="206">
+      <c r="G331" s="207">
         <f t="shared" si="24"/>
-        <v>29077.065600000002</v>
-      </c>
-      <c r="H331" s="206"/>
+        <v>29716.297600000002</v>
+      </c>
+      <c r="H331" s="207"/>
     </row>
     <row r="332" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A332" s="92"/>
@@ -12145,16 +12145,16 @@
       </c>
       <c r="E332" s="9">
         <f>D332*Лист2!$B$3</f>
-        <v>17307.084000000003</v>
+        <v>17687.563999999998</v>
       </c>
       <c r="F332" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G332" s="206">
+      <c r="G332" s="207">
         <f t="shared" si="24"/>
-        <v>9518.8962000000029</v>
-      </c>
-      <c r="H332" s="206"/>
+        <v>9728.1602000000003</v>
+      </c>
+      <c r="H332" s="207"/>
     </row>
     <row r="333" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A333" s="92"/>
@@ -12169,16 +12169,16 @@
       </c>
       <c r="E333" s="9">
         <f>D333*Лист2!$B$3</f>
-        <v>47052.270000000004</v>
+        <v>48086.67</v>
       </c>
       <c r="F333" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G333" s="206">
+      <c r="G333" s="207">
         <f t="shared" si="24"/>
-        <v>25878.748500000005</v>
-      </c>
-      <c r="H333" s="206"/>
+        <v>26447.6685</v>
+      </c>
+      <c r="H333" s="207"/>
     </row>
     <row r="334" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A334" s="92"/>
@@ -12193,16 +12193,16 @@
       </c>
       <c r="E334" s="9">
         <f>D334*Лист2!$B$3</f>
-        <v>2780.1960000000004</v>
+        <v>2841.3160000000003</v>
       </c>
       <c r="F334" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G334" s="206">
+      <c r="G334" s="207">
         <f t="shared" si="24"/>
-        <v>1529.1078000000002</v>
-      </c>
-      <c r="H334" s="206"/>
+        <v>1562.7238000000002</v>
+      </c>
+      <c r="H334" s="207"/>
     </row>
     <row r="335" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A335" s="92"/>
@@ -12217,16 +12217,16 @@
       </c>
       <c r="E335" s="9">
         <f>D335*Лист2!$B$3</f>
-        <v>2314.404</v>
+        <v>2365.2840000000001</v>
       </c>
       <c r="F335" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G335" s="206">
+      <c r="G335" s="207">
         <f t="shared" si="24"/>
-        <v>1272.9222000000002</v>
-      </c>
-      <c r="H335" s="206"/>
+        <v>1300.9062000000001</v>
+      </c>
+      <c r="H335" s="207"/>
     </row>
     <row r="336" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A336" s="92"/>
@@ -12277,306 +12277,306 @@
       <c r="B340" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C340" s="229" t="s">
+      <c r="C340" s="233" t="s">
         <v>395</v>
       </c>
-      <c r="D340" s="229"/>
-      <c r="E340" s="229" t="s">
+      <c r="D340" s="233"/>
+      <c r="E340" s="233" t="s">
         <v>394</v>
       </c>
-      <c r="F340" s="229"/>
-      <c r="G340" s="229" t="s">
+      <c r="F340" s="233"/>
+      <c r="G340" s="233" t="s">
         <v>422</v>
       </c>
-      <c r="H340" s="229"/>
+      <c r="H340" s="233"/>
     </row>
     <row r="341" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A341" s="96"/>
       <c r="B341" s="102">
         <v>1</v>
       </c>
-      <c r="C341" s="252">
+      <c r="C341" s="249">
         <v>2</v>
       </c>
-      <c r="D341" s="252"/>
-      <c r="E341" s="252">
+      <c r="D341" s="249"/>
+      <c r="E341" s="249">
         <v>3</v>
       </c>
-      <c r="F341" s="252"/>
-      <c r="G341" s="252">
+      <c r="F341" s="249"/>
+      <c r="G341" s="249">
         <v>4</v>
       </c>
-      <c r="H341" s="252"/>
+      <c r="H341" s="249"/>
     </row>
     <row r="342" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="96"/>
       <c r="B342" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C342" s="214" t="s">
+      <c r="C342" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D342" s="214"/>
-      <c r="E342" s="214" t="s">
+      <c r="D342" s="208"/>
+      <c r="E342" s="208" t="s">
         <v>223</v>
       </c>
-      <c r="F342" s="214"/>
-      <c r="G342" s="212">
+      <c r="F342" s="208"/>
+      <c r="G342" s="205">
         <v>3000</v>
       </c>
-      <c r="H342" s="213"/>
+      <c r="H342" s="206"/>
     </row>
     <row r="343" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="96"/>
       <c r="B343" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C343" s="214" t="s">
+      <c r="C343" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D343" s="214"/>
-      <c r="E343" s="214" t="s">
+      <c r="D343" s="208"/>
+      <c r="E343" s="208" t="s">
         <v>223</v>
       </c>
-      <c r="F343" s="214"/>
-      <c r="G343" s="212">
+      <c r="F343" s="208"/>
+      <c r="G343" s="205">
         <v>2000</v>
       </c>
-      <c r="H343" s="213"/>
+      <c r="H343" s="206"/>
     </row>
     <row r="344" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="96"/>
       <c r="B344" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C344" s="214" t="s">
+      <c r="C344" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D344" s="214"/>
-      <c r="E344" s="214" t="s">
+      <c r="D344" s="208"/>
+      <c r="E344" s="208" t="s">
         <v>226</v>
       </c>
-      <c r="F344" s="214"/>
-      <c r="G344" s="212">
+      <c r="F344" s="208"/>
+      <c r="G344" s="205">
         <v>1000</v>
       </c>
-      <c r="H344" s="213"/>
+      <c r="H344" s="206"/>
     </row>
     <row r="345" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="96"/>
       <c r="B345" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C345" s="214" t="s">
+      <c r="C345" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D345" s="214"/>
-      <c r="E345" s="214" t="s">
+      <c r="D345" s="208"/>
+      <c r="E345" s="208" t="s">
         <v>228</v>
       </c>
-      <c r="F345" s="214"/>
-      <c r="G345" s="212">
+      <c r="F345" s="208"/>
+      <c r="G345" s="205">
         <v>350</v>
       </c>
-      <c r="H345" s="213"/>
+      <c r="H345" s="206"/>
     </row>
     <row r="346" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="96"/>
       <c r="B346" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C346" s="214" t="s">
+      <c r="C346" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D346" s="214"/>
-      <c r="E346" s="214" t="s">
+      <c r="D346" s="208"/>
+      <c r="E346" s="208" t="s">
         <v>230</v>
       </c>
-      <c r="F346" s="214"/>
-      <c r="G346" s="212">
+      <c r="F346" s="208"/>
+      <c r="G346" s="205">
         <v>300</v>
       </c>
-      <c r="H346" s="213"/>
+      <c r="H346" s="206"/>
     </row>
     <row r="347" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="96"/>
       <c r="B347" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C347" s="214" t="s">
+      <c r="C347" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D347" s="214"/>
-      <c r="E347" s="214" t="s">
+      <c r="D347" s="208"/>
+      <c r="E347" s="208" t="s">
         <v>232</v>
       </c>
-      <c r="F347" s="214"/>
-      <c r="G347" s="212">
+      <c r="F347" s="208"/>
+      <c r="G347" s="205">
         <v>350</v>
       </c>
-      <c r="H347" s="213"/>
+      <c r="H347" s="206"/>
     </row>
     <row r="348" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="96"/>
       <c r="B348" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C348" s="214" t="s">
+      <c r="C348" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D348" s="214"/>
-      <c r="E348" s="214" t="s">
+      <c r="D348" s="208"/>
+      <c r="E348" s="208" t="s">
         <v>234</v>
       </c>
-      <c r="F348" s="214"/>
-      <c r="G348" s="212">
+      <c r="F348" s="208"/>
+      <c r="G348" s="205">
         <v>350</v>
       </c>
-      <c r="H348" s="213"/>
+      <c r="H348" s="206"/>
     </row>
     <row r="349" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="96"/>
       <c r="B349" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C349" s="214" t="s">
+      <c r="C349" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D349" s="214"/>
-      <c r="E349" s="214" t="s">
+      <c r="D349" s="208"/>
+      <c r="E349" s="208" t="s">
         <v>236</v>
       </c>
-      <c r="F349" s="214"/>
-      <c r="G349" s="212">
+      <c r="F349" s="208"/>
+      <c r="G349" s="205">
         <v>1300</v>
       </c>
-      <c r="H349" s="213"/>
+      <c r="H349" s="206"/>
     </row>
     <row r="350" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="96"/>
       <c r="B350" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C350" s="214" t="s">
+      <c r="C350" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D350" s="214"/>
-      <c r="E350" s="214" t="s">
+      <c r="D350" s="208"/>
+      <c r="E350" s="208" t="s">
         <v>238</v>
       </c>
-      <c r="F350" s="214"/>
-      <c r="G350" s="212">
+      <c r="F350" s="208"/>
+      <c r="G350" s="205">
         <v>1300</v>
       </c>
-      <c r="H350" s="213"/>
+      <c r="H350" s="206"/>
     </row>
     <row r="351" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="96"/>
       <c r="B351" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C351" s="214" t="s">
+      <c r="C351" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D351" s="214"/>
-      <c r="E351" s="214" t="s">
+      <c r="D351" s="208"/>
+      <c r="E351" s="208" t="s">
         <v>348</v>
       </c>
-      <c r="F351" s="214"/>
-      <c r="G351" s="212">
+      <c r="F351" s="208"/>
+      <c r="G351" s="205">
         <v>400</v>
       </c>
-      <c r="H351" s="213"/>
+      <c r="H351" s="206"/>
     </row>
     <row r="352" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="96"/>
       <c r="B352" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C352" s="214" t="s">
+      <c r="C352" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D352" s="214"/>
-      <c r="E352" s="214" t="s">
+      <c r="D352" s="208"/>
+      <c r="E352" s="208" t="s">
         <v>241</v>
       </c>
-      <c r="F352" s="214"/>
-      <c r="G352" s="212">
+      <c r="F352" s="208"/>
+      <c r="G352" s="205">
         <v>350</v>
       </c>
-      <c r="H352" s="213"/>
+      <c r="H352" s="206"/>
     </row>
     <row r="353" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="96"/>
       <c r="B353" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C353" s="214" t="s">
+      <c r="C353" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D353" s="214"/>
-      <c r="E353" s="214" t="s">
+      <c r="D353" s="208"/>
+      <c r="E353" s="208" t="s">
         <v>243</v>
       </c>
-      <c r="F353" s="214"/>
-      <c r="G353" s="212">
+      <c r="F353" s="208"/>
+      <c r="G353" s="205">
         <v>400</v>
       </c>
-      <c r="H353" s="213"/>
+      <c r="H353" s="206"/>
     </row>
     <row r="354" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="96"/>
       <c r="B354" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C354" s="214" t="s">
+      <c r="C354" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D354" s="214"/>
-      <c r="E354" s="214" t="s">
+      <c r="D354" s="208"/>
+      <c r="E354" s="208" t="s">
         <v>346</v>
       </c>
-      <c r="F354" s="214"/>
-      <c r="G354" s="212">
+      <c r="F354" s="208"/>
+      <c r="G354" s="205">
         <v>4000</v>
       </c>
-      <c r="H354" s="213"/>
+      <c r="H354" s="206"/>
     </row>
     <row r="355" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="96"/>
       <c r="B355" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C355" s="214" t="s">
+      <c r="C355" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D355" s="214"/>
-      <c r="E355" s="214" t="s">
+      <c r="D355" s="208"/>
+      <c r="E355" s="208" t="s">
         <v>246</v>
       </c>
-      <c r="F355" s="214"/>
-      <c r="G355" s="212">
+      <c r="F355" s="208"/>
+      <c r="G355" s="205">
         <v>500</v>
       </c>
-      <c r="H355" s="213"/>
+      <c r="H355" s="206"/>
     </row>
     <row r="356" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="96"/>
       <c r="B356" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C356" s="214" t="s">
+      <c r="C356" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D356" s="214"/>
-      <c r="E356" s="214" t="s">
+      <c r="D356" s="208"/>
+      <c r="E356" s="208" t="s">
         <v>280</v>
       </c>
-      <c r="F356" s="214"/>
-      <c r="G356" s="212">
+      <c r="F356" s="208"/>
+      <c r="G356" s="205">
         <v>500</v>
       </c>
-      <c r="H356" s="213"/>
+      <c r="H356" s="206"/>
     </row>
     <row r="357" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A357" s="96"/>
@@ -12605,378 +12605,378 @@
       <c r="B359" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C359" s="220" t="s">
+      <c r="C359" s="247" t="s">
         <v>222</v>
       </c>
-      <c r="D359" s="220"/>
-      <c r="E359" s="214" t="s">
+      <c r="D359" s="247"/>
+      <c r="E359" s="208" t="s">
         <v>257</v>
       </c>
-      <c r="F359" s="214"/>
-      <c r="G359" s="212">
+      <c r="F359" s="208"/>
+      <c r="G359" s="205">
         <v>4500</v>
       </c>
-      <c r="H359" s="213"/>
+      <c r="H359" s="206"/>
     </row>
     <row r="360" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="96"/>
       <c r="B360" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C360" s="220" t="s">
+      <c r="C360" s="247" t="s">
         <v>222</v>
       </c>
-      <c r="D360" s="220"/>
-      <c r="E360" s="214" t="s">
+      <c r="D360" s="247"/>
+      <c r="E360" s="208" t="s">
         <v>257</v>
       </c>
-      <c r="F360" s="214"/>
-      <c r="G360" s="212">
+      <c r="F360" s="208"/>
+      <c r="G360" s="205">
         <v>300</v>
       </c>
-      <c r="H360" s="213"/>
+      <c r="H360" s="206"/>
     </row>
     <row r="361" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="96"/>
       <c r="B361" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="C361" s="220" t="s">
+      <c r="C361" s="247" t="s">
         <v>222</v>
       </c>
-      <c r="D361" s="220"/>
-      <c r="E361" s="214" t="s">
+      <c r="D361" s="247"/>
+      <c r="E361" s="208" t="s">
         <v>248</v>
       </c>
-      <c r="F361" s="214"/>
-      <c r="G361" s="212">
+      <c r="F361" s="208"/>
+      <c r="G361" s="205">
         <v>2500</v>
       </c>
-      <c r="H361" s="213"/>
+      <c r="H361" s="206"/>
     </row>
     <row r="362" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="96"/>
       <c r="B362" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C362" s="214" t="s">
+      <c r="C362" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D362" s="214"/>
-      <c r="E362" s="214" t="s">
+      <c r="D362" s="208"/>
+      <c r="E362" s="208" t="s">
         <v>250</v>
       </c>
-      <c r="F362" s="214"/>
-      <c r="G362" s="212">
+      <c r="F362" s="208"/>
+      <c r="G362" s="205">
         <v>700</v>
       </c>
-      <c r="H362" s="213"/>
+      <c r="H362" s="206"/>
     </row>
     <row r="363" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="96"/>
       <c r="B363" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C363" s="214" t="s">
+      <c r="C363" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D363" s="214"/>
-      <c r="E363" s="214" t="s">
+      <c r="D363" s="208"/>
+      <c r="E363" s="208" t="s">
         <v>252</v>
       </c>
-      <c r="F363" s="214"/>
-      <c r="G363" s="212">
+      <c r="F363" s="208"/>
+      <c r="G363" s="205">
         <v>500</v>
       </c>
-      <c r="H363" s="213"/>
+      <c r="H363" s="206"/>
     </row>
     <row r="364" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="96"/>
       <c r="B364" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="C364" s="214" t="s">
+      <c r="C364" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D364" s="214"/>
-      <c r="E364" s="214" t="s">
+      <c r="D364" s="208"/>
+      <c r="E364" s="208" t="s">
         <v>254</v>
       </c>
-      <c r="F364" s="214"/>
-      <c r="G364" s="212">
+      <c r="F364" s="208"/>
+      <c r="G364" s="205">
         <v>2000</v>
       </c>
-      <c r="H364" s="213"/>
+      <c r="H364" s="206"/>
     </row>
     <row r="365" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="96"/>
       <c r="B365" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C365" s="214" t="s">
+      <c r="C365" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D365" s="214"/>
-      <c r="E365" s="214" t="s">
+      <c r="D365" s="208"/>
+      <c r="E365" s="208" t="s">
         <v>255</v>
       </c>
-      <c r="F365" s="214"/>
-      <c r="G365" s="212">
+      <c r="F365" s="208"/>
+      <c r="G365" s="205">
         <v>500</v>
       </c>
-      <c r="H365" s="213"/>
+      <c r="H365" s="206"/>
     </row>
     <row r="366" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="96"/>
       <c r="B366" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C366" s="214" t="s">
+      <c r="C366" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D366" s="214"/>
-      <c r="E366" s="214" t="s">
+      <c r="D366" s="208"/>
+      <c r="E366" s="208" t="s">
         <v>257</v>
       </c>
-      <c r="F366" s="214"/>
-      <c r="G366" s="212">
+      <c r="F366" s="208"/>
+      <c r="G366" s="205">
         <v>6000</v>
       </c>
-      <c r="H366" s="213"/>
+      <c r="H366" s="206"/>
     </row>
     <row r="367" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="96"/>
       <c r="B367" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C367" s="214" t="s">
+      <c r="C367" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D367" s="214"/>
-      <c r="E367" s="214" t="s">
+      <c r="D367" s="208"/>
+      <c r="E367" s="208" t="s">
         <v>257</v>
       </c>
-      <c r="F367" s="214"/>
-      <c r="G367" s="212">
+      <c r="F367" s="208"/>
+      <c r="G367" s="205">
         <v>4000</v>
       </c>
-      <c r="H367" s="213"/>
+      <c r="H367" s="206"/>
     </row>
     <row r="368" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="96"/>
       <c r="B368" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="C368" s="214" t="s">
+      <c r="C368" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D368" s="214"/>
-      <c r="E368" s="214" t="s">
+      <c r="D368" s="208"/>
+      <c r="E368" s="208" t="s">
         <v>255</v>
       </c>
-      <c r="F368" s="214"/>
-      <c r="G368" s="212">
+      <c r="F368" s="208"/>
+      <c r="G368" s="205">
         <v>500</v>
       </c>
-      <c r="H368" s="213"/>
+      <c r="H368" s="206"/>
     </row>
     <row r="369" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="96"/>
       <c r="B369" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C369" s="214" t="s">
+      <c r="C369" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D369" s="214"/>
-      <c r="E369" s="214" t="s">
+      <c r="D369" s="208"/>
+      <c r="E369" s="208" t="s">
         <v>255</v>
       </c>
-      <c r="F369" s="214"/>
-      <c r="G369" s="212">
+      <c r="F369" s="208"/>
+      <c r="G369" s="205">
         <v>500</v>
       </c>
-      <c r="H369" s="213"/>
+      <c r="H369" s="206"/>
     </row>
     <row r="370" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="96"/>
       <c r="B370" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C370" s="214" t="s">
+      <c r="C370" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D370" s="214"/>
-      <c r="E370" s="214" t="s">
+      <c r="D370" s="208"/>
+      <c r="E370" s="208" t="s">
         <v>261</v>
       </c>
-      <c r="F370" s="214"/>
-      <c r="G370" s="212">
+      <c r="F370" s="208"/>
+      <c r="G370" s="205">
         <v>500</v>
       </c>
-      <c r="H370" s="213"/>
+      <c r="H370" s="206"/>
     </row>
     <row r="371" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="96"/>
       <c r="B371" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="C371" s="214" t="s">
+      <c r="C371" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D371" s="214"/>
-      <c r="E371" s="214" t="s">
+      <c r="D371" s="208"/>
+      <c r="E371" s="208" t="s">
         <v>255</v>
       </c>
-      <c r="F371" s="214"/>
-      <c r="G371" s="212">
+      <c r="F371" s="208"/>
+      <c r="G371" s="205">
         <v>400</v>
       </c>
-      <c r="H371" s="213"/>
+      <c r="H371" s="206"/>
     </row>
     <row r="372" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="96"/>
       <c r="B372" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C372" s="214" t="s">
+      <c r="C372" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D372" s="214"/>
-      <c r="E372" s="214" t="s">
+      <c r="D372" s="208"/>
+      <c r="E372" s="208" t="s">
         <v>263</v>
       </c>
-      <c r="F372" s="214"/>
-      <c r="G372" s="217">
+      <c r="F372" s="208"/>
+      <c r="G372" s="203">
         <v>500</v>
       </c>
-      <c r="H372" s="218"/>
+      <c r="H372" s="204"/>
     </row>
     <row r="373" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="96"/>
       <c r="B373" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C373" s="214" t="s">
+      <c r="C373" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D373" s="214"/>
-      <c r="E373" s="214" t="s">
+      <c r="D373" s="208"/>
+      <c r="E373" s="208" t="s">
         <v>265</v>
       </c>
-      <c r="F373" s="214"/>
-      <c r="G373" s="217">
+      <c r="F373" s="208"/>
+      <c r="G373" s="203">
         <v>500</v>
       </c>
-      <c r="H373" s="218"/>
+      <c r="H373" s="204"/>
     </row>
     <row r="374" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="96"/>
       <c r="B374" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C374" s="214" t="s">
+      <c r="C374" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D374" s="214"/>
-      <c r="E374" s="214" t="s">
+      <c r="D374" s="208"/>
+      <c r="E374" s="208" t="s">
         <v>257</v>
       </c>
-      <c r="F374" s="214"/>
-      <c r="G374" s="217">
+      <c r="F374" s="208"/>
+      <c r="G374" s="203">
         <v>500</v>
       </c>
-      <c r="H374" s="218"/>
+      <c r="H374" s="204"/>
     </row>
     <row r="375" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="96"/>
       <c r="B375" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="C375" s="214" t="s">
+      <c r="C375" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D375" s="214"/>
-      <c r="E375" s="214" t="s">
+      <c r="D375" s="208"/>
+      <c r="E375" s="208" t="s">
         <v>263</v>
       </c>
-      <c r="F375" s="214"/>
-      <c r="G375" s="217">
+      <c r="F375" s="208"/>
+      <c r="G375" s="203">
         <v>500</v>
       </c>
-      <c r="H375" s="218"/>
+      <c r="H375" s="204"/>
     </row>
     <row r="376" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="96"/>
       <c r="B376" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C376" s="214" t="s">
+      <c r="C376" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D376" s="214"/>
-      <c r="E376" s="214" t="s">
+      <c r="D376" s="208"/>
+      <c r="E376" s="208" t="s">
         <v>268</v>
       </c>
-      <c r="F376" s="214"/>
-      <c r="G376" s="212">
+      <c r="F376" s="208"/>
+      <c r="G376" s="205">
         <v>3000</v>
       </c>
-      <c r="H376" s="213"/>
+      <c r="H376" s="206"/>
     </row>
     <row r="377" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="96"/>
       <c r="B377" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="C377" s="214" t="s">
+      <c r="C377" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D377" s="214"/>
-      <c r="E377" s="214" t="s">
+      <c r="D377" s="208"/>
+      <c r="E377" s="208" t="s">
         <v>263</v>
       </c>
-      <c r="F377" s="214"/>
-      <c r="G377" s="217">
+      <c r="F377" s="208"/>
+      <c r="G377" s="203">
         <v>300</v>
       </c>
-      <c r="H377" s="218"/>
+      <c r="H377" s="204"/>
     </row>
     <row r="378" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="96"/>
       <c r="B378" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C378" s="214" t="s">
+      <c r="C378" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D378" s="214"/>
-      <c r="E378" s="214" t="s">
+      <c r="D378" s="208"/>
+      <c r="E378" s="208" t="s">
         <v>263</v>
       </c>
-      <c r="F378" s="214"/>
-      <c r="G378" s="217">
+      <c r="F378" s="208"/>
+      <c r="G378" s="203">
         <v>700</v>
       </c>
-      <c r="H378" s="218"/>
+      <c r="H378" s="204"/>
     </row>
     <row r="379" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="96"/>
       <c r="B379" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C379" s="214" t="s">
+      <c r="C379" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D379" s="214"/>
-      <c r="E379" s="214" t="s">
+      <c r="D379" s="208"/>
+      <c r="E379" s="208" t="s">
         <v>347</v>
       </c>
-      <c r="F379" s="214"/>
-      <c r="G379" s="212">
+      <c r="F379" s="208"/>
+      <c r="G379" s="205">
         <v>7000</v>
       </c>
-      <c r="H379" s="213"/>
+      <c r="H379" s="206"/>
     </row>
     <row r="380" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A380" s="96"/>
@@ -13005,54 +13005,54 @@
       <c r="B382" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="C382" s="214" t="s">
+      <c r="C382" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D382" s="214"/>
-      <c r="E382" s="214" t="s">
+      <c r="D382" s="208"/>
+      <c r="E382" s="208" t="s">
         <v>292</v>
       </c>
-      <c r="F382" s="214"/>
-      <c r="G382" s="212">
+      <c r="F382" s="208"/>
+      <c r="G382" s="205">
         <v>2500</v>
       </c>
-      <c r="H382" s="213"/>
+      <c r="H382" s="206"/>
     </row>
     <row r="383" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="96"/>
       <c r="B383" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C383" s="214" t="s">
+      <c r="C383" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="D383" s="214"/>
-      <c r="E383" s="214" t="s">
+      <c r="D383" s="208"/>
+      <c r="E383" s="208" t="s">
         <v>292</v>
       </c>
-      <c r="F383" s="214"/>
-      <c r="G383" s="212">
+      <c r="F383" s="208"/>
+      <c r="G383" s="205">
         <v>500</v>
       </c>
-      <c r="H383" s="213"/>
+      <c r="H383" s="206"/>
     </row>
     <row r="384" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="96"/>
       <c r="B384" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C384" s="214" t="s">
+      <c r="C384" s="208" t="s">
         <v>291</v>
       </c>
-      <c r="D384" s="214"/>
-      <c r="E384" s="214" t="s">
+      <c r="D384" s="208"/>
+      <c r="E384" s="208" t="s">
         <v>292</v>
       </c>
-      <c r="F384" s="214"/>
-      <c r="G384" s="212">
+      <c r="F384" s="208"/>
+      <c r="G384" s="205">
         <v>3500</v>
       </c>
-      <c r="H384" s="213"/>
+      <c r="H384" s="206"/>
     </row>
     <row r="385" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A385" s="96"/>
@@ -13066,13 +13066,13 @@
     </row>
     <row r="386" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A386" s="96"/>
-      <c r="B386" s="251"/>
-      <c r="C386" s="251"/>
-      <c r="D386" s="251"/>
-      <c r="E386" s="251"/>
-      <c r="F386" s="251"/>
-      <c r="G386" s="251"/>
-      <c r="H386" s="251"/>
+      <c r="B386" s="252"/>
+      <c r="C386" s="252"/>
+      <c r="D386" s="252"/>
+      <c r="E386" s="252"/>
+      <c r="F386" s="252"/>
+      <c r="G386" s="252"/>
+      <c r="H386" s="252"/>
     </row>
     <row r="387" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A387" s="96"/>
@@ -13110,20 +13110,20 @@
     </row>
     <row r="390" spans="1:8" ht="25.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="96"/>
-      <c r="B390" s="215" t="s">
+      <c r="B390" s="209" t="s">
         <v>459</v>
       </c>
-      <c r="C390" s="216"/>
-      <c r="D390" s="216"/>
-      <c r="E390" s="216"/>
-      <c r="F390" s="216"/>
-      <c r="G390" s="216"/>
-      <c r="H390" s="216"/>
+      <c r="C390" s="210"/>
+      <c r="D390" s="210"/>
+      <c r="E390" s="210"/>
+      <c r="F390" s="210"/>
+      <c r="G390" s="210"/>
+      <c r="H390" s="210"/>
     </row>
     <row r="391" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A391" s="96"/>
       <c r="B391" s="253" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C391" s="253"/>
       <c r="D391" s="253"/>
@@ -13183,24 +13183,24 @@
       <c r="H396" s="253"/>
     </row>
     <row r="397" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="215" t="s">
+      <c r="B397" s="209" t="s">
         <v>436</v>
       </c>
-      <c r="C397" s="215"/>
-      <c r="D397" s="215"/>
-      <c r="E397" s="215"/>
-      <c r="F397" s="215"/>
-      <c r="G397" s="215"/>
-      <c r="H397" s="215"/>
+      <c r="C397" s="209"/>
+      <c r="D397" s="209"/>
+      <c r="E397" s="209"/>
+      <c r="F397" s="209"/>
+      <c r="G397" s="209"/>
+      <c r="H397" s="209"/>
     </row>
     <row r="398" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="215"/>
-      <c r="C398" s="215"/>
-      <c r="D398" s="215"/>
-      <c r="E398" s="215"/>
-      <c r="F398" s="215"/>
-      <c r="G398" s="215"/>
-      <c r="H398" s="215"/>
+      <c r="B398" s="209"/>
+      <c r="C398" s="209"/>
+      <c r="D398" s="209"/>
+      <c r="E398" s="209"/>
+      <c r="F398" s="209"/>
+      <c r="G398" s="209"/>
+      <c r="H398" s="209"/>
     </row>
     <row r="399" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="96"/>
@@ -13216,74 +13216,74 @@
     </row>
     <row r="400" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A400" s="96"/>
-      <c r="B400" s="216" t="s">
+      <c r="B400" s="210" t="s">
         <v>439</v>
       </c>
-      <c r="C400" s="216"/>
-      <c r="D400" s="216"/>
-      <c r="E400" s="216"/>
-      <c r="F400" s="216"/>
-      <c r="G400" s="216"/>
-      <c r="H400" s="216"/>
+      <c r="C400" s="210"/>
+      <c r="D400" s="210"/>
+      <c r="E400" s="210"/>
+      <c r="F400" s="210"/>
+      <c r="G400" s="210"/>
+      <c r="H400" s="210"/>
     </row>
     <row r="401" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A401" s="96"/>
-      <c r="B401" s="216"/>
-      <c r="C401" s="216"/>
-      <c r="D401" s="216"/>
-      <c r="E401" s="216"/>
-      <c r="F401" s="216"/>
-      <c r="G401" s="216"/>
-      <c r="H401" s="216"/>
+      <c r="B401" s="210"/>
+      <c r="C401" s="210"/>
+      <c r="D401" s="210"/>
+      <c r="E401" s="210"/>
+      <c r="F401" s="210"/>
+      <c r="G401" s="210"/>
+      <c r="H401" s="210"/>
     </row>
     <row r="402" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A402" s="96"/>
-      <c r="B402" s="216" t="s">
+      <c r="B402" s="210" t="s">
         <v>438</v>
       </c>
-      <c r="C402" s="216"/>
-      <c r="D402" s="216"/>
-      <c r="E402" s="216"/>
-      <c r="F402" s="216"/>
-      <c r="G402" s="216"/>
-      <c r="H402" s="216"/>
+      <c r="C402" s="210"/>
+      <c r="D402" s="210"/>
+      <c r="E402" s="210"/>
+      <c r="F402" s="210"/>
+      <c r="G402" s="210"/>
+      <c r="H402" s="210"/>
     </row>
     <row r="403" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A403" s="96"/>
-      <c r="B403" s="216"/>
-      <c r="C403" s="216"/>
-      <c r="D403" s="216"/>
-      <c r="E403" s="216"/>
-      <c r="F403" s="216"/>
-      <c r="G403" s="216"/>
-      <c r="H403" s="216"/>
+      <c r="B403" s="210"/>
+      <c r="C403" s="210"/>
+      <c r="D403" s="210"/>
+      <c r="E403" s="210"/>
+      <c r="F403" s="210"/>
+      <c r="G403" s="210"/>
+      <c r="H403" s="210"/>
     </row>
     <row r="404" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A404" s="96"/>
-      <c r="B404" s="216" t="s">
+      <c r="B404" s="210" t="s">
         <v>437</v>
       </c>
-      <c r="C404" s="216"/>
-      <c r="D404" s="216"/>
-      <c r="E404" s="216"/>
-      <c r="F404" s="216"/>
-      <c r="G404" s="216"/>
-      <c r="H404" s="216"/>
+      <c r="C404" s="210"/>
+      <c r="D404" s="210"/>
+      <c r="E404" s="210"/>
+      <c r="F404" s="210"/>
+      <c r="G404" s="210"/>
+      <c r="H404" s="210"/>
     </row>
     <row r="405" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A405" s="96"/>
-      <c r="B405" s="216"/>
-      <c r="C405" s="216"/>
-      <c r="D405" s="216"/>
-      <c r="E405" s="216"/>
-      <c r="F405" s="216"/>
-      <c r="G405" s="216"/>
-      <c r="H405" s="216"/>
+      <c r="B405" s="210"/>
+      <c r="C405" s="210"/>
+      <c r="D405" s="210"/>
+      <c r="E405" s="210"/>
+      <c r="F405" s="210"/>
+      <c r="G405" s="210"/>
+      <c r="H405" s="210"/>
     </row>
     <row r="406" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A406" s="96"/>
       <c r="B406" s="253" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C406" s="253"/>
       <c r="D406" s="253"/>
@@ -13417,15 +13417,15 @@
     </row>
     <row r="419" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A419" s="137"/>
-      <c r="B419" s="209" t="s">
+      <c r="B419" s="216" t="s">
         <v>428</v>
       </c>
-      <c r="C419" s="210"/>
-      <c r="D419" s="210"/>
-      <c r="E419" s="210"/>
-      <c r="F419" s="210"/>
-      <c r="G419" s="210"/>
-      <c r="H419" s="211"/>
+      <c r="C419" s="217"/>
+      <c r="D419" s="217"/>
+      <c r="E419" s="217"/>
+      <c r="F419" s="217"/>
+      <c r="G419" s="217"/>
+      <c r="H419" s="218"/>
     </row>
     <row r="420" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B420" s="168"/>
@@ -13438,38 +13438,38 @@
     </row>
     <row r="421" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="97"/>
-      <c r="B421" s="204" t="s">
-        <v>466</v>
-      </c>
-      <c r="C421" s="204"/>
-      <c r="D421" s="204"/>
-      <c r="E421" s="204"/>
-      <c r="F421" s="204"/>
-      <c r="G421" s="204"/>
+      <c r="B421" s="212" t="s">
+        <v>465</v>
+      </c>
+      <c r="C421" s="212"/>
+      <c r="D421" s="212"/>
+      <c r="E421" s="212"/>
+      <c r="F421" s="212"/>
+      <c r="G421" s="212"/>
       <c r="H421" s="170"/>
     </row>
     <row r="422" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="138"/>
-      <c r="B422" s="205" t="s">
+      <c r="B422" s="213" t="s">
         <v>429</v>
       </c>
-      <c r="C422" s="205"/>
-      <c r="D422" s="205"/>
-      <c r="E422" s="205"/>
-      <c r="F422" s="205"/>
-      <c r="G422" s="205"/>
+      <c r="C422" s="213"/>
+      <c r="D422" s="213"/>
+      <c r="E422" s="213"/>
+      <c r="F422" s="213"/>
+      <c r="G422" s="213"/>
       <c r="H422" s="171"/>
     </row>
     <row r="423" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="118"/>
-      <c r="B423" s="207" t="s">
+      <c r="B423" s="214" t="s">
         <v>430</v>
       </c>
-      <c r="C423" s="208"/>
-      <c r="D423" s="208"/>
-      <c r="E423" s="208"/>
-      <c r="F423" s="208"/>
-      <c r="G423" s="208"/>
+      <c r="C423" s="215"/>
+      <c r="D423" s="215"/>
+      <c r="E423" s="215"/>
+      <c r="F423" s="215"/>
+      <c r="G423" s="215"/>
       <c r="H423" s="172"/>
     </row>
     <row r="424" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13499,10 +13499,9 @@
     </row>
   </sheetData>
   <mergeCells count="337">
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G88:H88"/>
     <mergeCell ref="G89:H89"/>
@@ -13518,11 +13517,6 @@
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="G87:H87"/>
     <mergeCell ref="B77:H78"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
     <mergeCell ref="B411:H412"/>
     <mergeCell ref="B400:H401"/>
     <mergeCell ref="B402:H403"/>
@@ -13571,7 +13565,6 @@
     <mergeCell ref="E378:F378"/>
     <mergeCell ref="E379:F379"/>
     <mergeCell ref="E375:F375"/>
-    <mergeCell ref="E359:F359"/>
     <mergeCell ref="E360:F360"/>
     <mergeCell ref="E361:F361"/>
     <mergeCell ref="E362:F362"/>
@@ -13608,7 +13601,6 @@
     <mergeCell ref="E341:F341"/>
     <mergeCell ref="E347:F347"/>
     <mergeCell ref="E348:F348"/>
-    <mergeCell ref="E349:F349"/>
     <mergeCell ref="E350:F350"/>
     <mergeCell ref="E351:F351"/>
     <mergeCell ref="E352:F352"/>
@@ -13632,6 +13624,7 @@
     <mergeCell ref="E382:F382"/>
     <mergeCell ref="G375:H375"/>
     <mergeCell ref="G376:H376"/>
+    <mergeCell ref="E359:F359"/>
     <mergeCell ref="G377:H377"/>
     <mergeCell ref="G373:H373"/>
     <mergeCell ref="G374:H374"/>
@@ -13680,6 +13673,10 @@
     <mergeCell ref="F261:H261"/>
     <mergeCell ref="F260:H260"/>
     <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="G287:H287"/>
+    <mergeCell ref="G288:H288"/>
+    <mergeCell ref="B281:G281"/>
     <mergeCell ref="F259:H259"/>
     <mergeCell ref="F270:H270"/>
     <mergeCell ref="D261:E261"/>
@@ -13691,23 +13688,15 @@
     <mergeCell ref="G170:H170"/>
     <mergeCell ref="G162:H162"/>
     <mergeCell ref="B175:H176"/>
-    <mergeCell ref="G290:H290"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="G287:H287"/>
-    <mergeCell ref="G288:H288"/>
-    <mergeCell ref="B281:G281"/>
+    <mergeCell ref="G247:H247"/>
+    <mergeCell ref="F224:H224"/>
+    <mergeCell ref="C236:H236"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
     <mergeCell ref="F133:H133"/>
     <mergeCell ref="F134:H134"/>
     <mergeCell ref="F135:H135"/>
@@ -13741,12 +13730,30 @@
     <mergeCell ref="F130:H130"/>
     <mergeCell ref="F131:H131"/>
     <mergeCell ref="F132:H132"/>
-    <mergeCell ref="G247:H247"/>
-    <mergeCell ref="F224:H224"/>
-    <mergeCell ref="C236:H236"/>
-    <mergeCell ref="G348:H348"/>
-    <mergeCell ref="G349:H349"/>
-    <mergeCell ref="G350:H350"/>
+    <mergeCell ref="G309:H309"/>
+    <mergeCell ref="G310:H310"/>
+    <mergeCell ref="G311:H311"/>
+    <mergeCell ref="G312:H312"/>
+    <mergeCell ref="G289:H289"/>
+    <mergeCell ref="G248:H248"/>
+    <mergeCell ref="B253:H254"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="G300:H300"/>
+    <mergeCell ref="G301:H301"/>
+    <mergeCell ref="G302:H302"/>
+    <mergeCell ref="G290:H290"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D265:E265"/>
     <mergeCell ref="G249:H249"/>
     <mergeCell ref="G250:H250"/>
     <mergeCell ref="G251:H251"/>
@@ -13757,35 +13764,6 @@
     <mergeCell ref="G243:H243"/>
     <mergeCell ref="G244:H244"/>
     <mergeCell ref="G245:H245"/>
-    <mergeCell ref="G309:H309"/>
-    <mergeCell ref="G310:H310"/>
-    <mergeCell ref="G311:H311"/>
-    <mergeCell ref="G312:H312"/>
-    <mergeCell ref="G289:H289"/>
-    <mergeCell ref="G248:H248"/>
-    <mergeCell ref="B253:H254"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="G367:H367"/>
-    <mergeCell ref="G364:H364"/>
-    <mergeCell ref="G346:H346"/>
-    <mergeCell ref="G351:H351"/>
-    <mergeCell ref="G352:H352"/>
-    <mergeCell ref="G353:H353"/>
-    <mergeCell ref="G354:H354"/>
-    <mergeCell ref="G355:H355"/>
-    <mergeCell ref="G356:H356"/>
-    <mergeCell ref="G359:H359"/>
-    <mergeCell ref="G360:H360"/>
-    <mergeCell ref="G361:H361"/>
-    <mergeCell ref="G347:H347"/>
-    <mergeCell ref="G363:H363"/>
-    <mergeCell ref="G300:H300"/>
-    <mergeCell ref="G301:H301"/>
-    <mergeCell ref="G302:H302"/>
-    <mergeCell ref="G303:H303"/>
-    <mergeCell ref="G304:H304"/>
-    <mergeCell ref="G305:H305"/>
-    <mergeCell ref="G306:H306"/>
     <mergeCell ref="G307:H307"/>
     <mergeCell ref="G308:H308"/>
     <mergeCell ref="B423:G423"/>
@@ -13806,10 +13784,10 @@
     <mergeCell ref="G366:H366"/>
     <mergeCell ref="G342:H342"/>
     <mergeCell ref="G343:H343"/>
-    <mergeCell ref="G344:H344"/>
-    <mergeCell ref="G345:H345"/>
-    <mergeCell ref="E346:F346"/>
-    <mergeCell ref="C346:D346"/>
+    <mergeCell ref="G367:H367"/>
+    <mergeCell ref="G364:H364"/>
+    <mergeCell ref="G346:H346"/>
+    <mergeCell ref="G351:H351"/>
     <mergeCell ref="B390:H390"/>
     <mergeCell ref="C373:D373"/>
     <mergeCell ref="G1:H6"/>
@@ -13830,12 +13808,34 @@
     <mergeCell ref="G297:H297"/>
     <mergeCell ref="G298:H298"/>
     <mergeCell ref="G299:H299"/>
-    <mergeCell ref="G365:H365"/>
+    <mergeCell ref="G303:H303"/>
+    <mergeCell ref="G304:H304"/>
+    <mergeCell ref="G305:H305"/>
+    <mergeCell ref="G306:H306"/>
     <mergeCell ref="G372:H372"/>
     <mergeCell ref="G371:H371"/>
     <mergeCell ref="G319:H319"/>
     <mergeCell ref="G320:H320"/>
     <mergeCell ref="G362:H362"/>
+    <mergeCell ref="G344:H344"/>
+    <mergeCell ref="G345:H345"/>
+    <mergeCell ref="E346:F346"/>
+    <mergeCell ref="C346:D346"/>
+    <mergeCell ref="G352:H352"/>
+    <mergeCell ref="G353:H353"/>
+    <mergeCell ref="G354:H354"/>
+    <mergeCell ref="G355:H355"/>
+    <mergeCell ref="G356:H356"/>
+    <mergeCell ref="G359:H359"/>
+    <mergeCell ref="G360:H360"/>
+    <mergeCell ref="G361:H361"/>
+    <mergeCell ref="G347:H347"/>
+    <mergeCell ref="G363:H363"/>
+    <mergeCell ref="G365:H365"/>
+    <mergeCell ref="G348:H348"/>
+    <mergeCell ref="G349:H349"/>
+    <mergeCell ref="G350:H350"/>
+    <mergeCell ref="E349:F349"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13848,7 +13848,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13858,7 +13858,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -13866,7 +13866,7 @@
         <v>378</v>
       </c>
       <c r="B3" s="4">
-        <v>72.78</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
